--- a/PhoenixCI/Excel_Template/40011.xlsx
+++ b/PhoenixCI/Excel_Template/40011.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\OneDrive - Office 365\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\待更新程式\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5626A74-6168-4FF9-B52B-B3887C33EF25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">fut_3index!$A:$B</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">opt_3index!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="181">
   <si>
     <t>一、</t>
   </si>
@@ -70,10 +69,6 @@
   <si>
     <t>作業事項</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.</t>
@@ -4046,7 +4041,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -4510,7 +4505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5080,51 +5075,66 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="35" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5140,18 +5150,21 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="千分位 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="千分位 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="百分比 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="百分比 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="千分位 2" xfId="2"/>
+    <cellStyle name="千分位 2 2" xfId="3"/>
+    <cellStyle name="百分比 2" xfId="4"/>
+    <cellStyle name="百分比 3" xfId="5"/>
+    <cellStyle name="百分比 3 2" xfId="6"/>
   </cellStyles>
   <dxfs count="58">
     <dxf>
@@ -6053,23 +6066,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6105,23 +6101,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6297,14 +6276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A101" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -6325,10 +6304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I1" s="227" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="227"/>
+      <c r="I1" s="215" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="215"/>
       <c r="K1" s="194"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -6358,8 +6337,8 @@
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
       <c r="I6" s="57"/>
       <c r="J6" s="58"/>
     </row>
@@ -6369,28 +6348,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>130</v>
-      </c>
       <c r="F7" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="H7" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>164</v>
-      </c>
       <c r="I7" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="120" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="120" t="s">
-        <v>14</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -6412,7 +6391,7 @@
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="66"/>
@@ -6458,7 +6437,7 @@
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="67"/>
@@ -6473,7 +6452,7 @@
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="74"/>
       <c r="D13" s="67"/>
@@ -6488,7 +6467,7 @@
     </row>
     <row r="14" spans="1:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="74"/>
       <c r="D14" s="67"/>
@@ -6503,7 +6482,7 @@
     </row>
     <row r="15" spans="1:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="67"/>
@@ -6518,7 +6497,7 @@
     </row>
     <row r="16" spans="1:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="67"/>
@@ -6533,7 +6512,7 @@
     </row>
     <row r="17" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="67"/>
@@ -6548,7 +6527,7 @@
     </row>
     <row r="18" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="125"/>
       <c r="D18" s="126"/>
@@ -6563,7 +6542,7 @@
     </row>
     <row r="19" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="125"/>
       <c r="D19" s="126"/>
@@ -6682,7 +6661,7 @@
     </row>
     <row r="28" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="125"/>
       <c r="D28" s="126"/>
@@ -6697,7 +6676,7 @@
     </row>
     <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="67"/>
@@ -6712,7 +6691,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="129"/>
       <c r="D30" s="130"/>
@@ -6722,7 +6701,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="129"/>
       <c r="D31" s="130"/>
@@ -6732,7 +6711,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6742,7 +6721,7 @@
     </row>
     <row r="33" spans="2:12" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6967,7 +6946,7 @@
     <row r="51" spans="1:12" s="82" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="53"/>
       <c r="B51" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="71"/>
       <c r="D51" s="71"/>
@@ -6982,7 +6961,7 @@
     </row>
     <row r="52" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="183" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="83"/>
       <c r="D52" s="80"/>
@@ -6996,28 +6975,28 @@
         <v>2</v>
       </c>
       <c r="C53" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="203" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="89" t="s">
-        <v>146</v>
-      </c>
       <c r="G53" s="89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="I53" s="90" t="s">
-        <v>144</v>
-      </c>
       <c r="J53" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7025,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" s="92"/>
       <c r="E54" s="93"/>
@@ -7033,11 +7012,11 @@
       <c r="G54" s="93"/>
       <c r="H54" s="197"/>
       <c r="I54" s="197"/>
-      <c r="J54" s="199"/>
+      <c r="J54" s="207"/>
     </row>
     <row r="55" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="94"/>
       <c r="D55" s="92"/>
@@ -7046,7 +7025,7 @@
       <c r="G55" s="93"/>
       <c r="H55" s="197"/>
       <c r="I55" s="197"/>
-      <c r="J55" s="199"/>
+      <c r="J55" s="207"/>
     </row>
     <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="65" t="s">
@@ -7059,7 +7038,7 @@
       <c r="G56" s="93"/>
       <c r="H56" s="197"/>
       <c r="I56" s="197"/>
-      <c r="J56" s="199"/>
+      <c r="J56" s="207"/>
     </row>
     <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="65" t="s">
@@ -7072,11 +7051,11 @@
       <c r="G57" s="93"/>
       <c r="H57" s="197"/>
       <c r="I57" s="197"/>
-      <c r="J57" s="199"/>
+      <c r="J57" s="207"/>
     </row>
     <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="92"/>
       <c r="D58" s="92"/>
@@ -7085,12 +7064,12 @@
       <c r="G58" s="93"/>
       <c r="H58" s="197"/>
       <c r="I58" s="197"/>
-      <c r="J58" s="199"/>
+      <c r="J58" s="207"/>
     </row>
     <row r="59" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="53"/>
       <c r="B59" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="94"/>
       <c r="D59" s="92"/>
@@ -7099,12 +7078,12 @@
       <c r="G59" s="93"/>
       <c r="H59" s="197"/>
       <c r="I59" s="197"/>
-      <c r="J59" s="199"/>
+      <c r="J59" s="207"/>
     </row>
     <row r="60" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="53"/>
       <c r="B60" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="94"/>
       <c r="D60" s="92"/>
@@ -7113,12 +7092,12 @@
       <c r="G60" s="93"/>
       <c r="H60" s="197"/>
       <c r="I60" s="197"/>
-      <c r="J60" s="199"/>
+      <c r="J60" s="207"/>
     </row>
     <row r="61" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="53"/>
       <c r="B61" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="123"/>
       <c r="D61" s="121"/>
@@ -7127,12 +7106,12 @@
       <c r="G61" s="124"/>
       <c r="H61" s="198"/>
       <c r="I61" s="198"/>
-      <c r="J61" s="200"/>
+      <c r="J61" s="208"/>
     </row>
     <row r="62" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="53"/>
       <c r="B62" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="123"/>
       <c r="D62" s="121"/>
@@ -7141,12 +7120,12 @@
       <c r="G62" s="124"/>
       <c r="H62" s="198"/>
       <c r="I62" s="198"/>
-      <c r="J62" s="200"/>
+      <c r="J62" s="208"/>
     </row>
     <row r="63" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="53"/>
       <c r="B63" s="122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="123"/>
       <c r="D63" s="121"/>
@@ -7155,12 +7134,12 @@
       <c r="G63" s="124"/>
       <c r="H63" s="198"/>
       <c r="I63" s="198"/>
-      <c r="J63" s="200"/>
+      <c r="J63" s="208"/>
     </row>
     <row r="64" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="53"/>
       <c r="B64" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="123"/>
       <c r="D64" s="121"/>
@@ -7169,7 +7148,7 @@
       <c r="G64" s="124"/>
       <c r="H64" s="198"/>
       <c r="I64" s="198"/>
-      <c r="J64" s="200"/>
+      <c r="J64" s="208"/>
     </row>
     <row r="65" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="122"/>
@@ -7180,7 +7159,7 @@
       <c r="G65" s="127"/>
       <c r="H65" s="127"/>
       <c r="I65" s="198"/>
-      <c r="J65" s="200"/>
+      <c r="J65" s="208"/>
       <c r="K65" s="70"/>
       <c r="L65" s="70"/>
     </row>
@@ -7193,7 +7172,7 @@
       <c r="G66" s="127"/>
       <c r="H66" s="127"/>
       <c r="I66" s="198"/>
-      <c r="J66" s="200"/>
+      <c r="J66" s="208"/>
       <c r="K66" s="70"/>
       <c r="L66" s="70"/>
     </row>
@@ -7206,7 +7185,7 @@
       <c r="G67" s="127"/>
       <c r="H67" s="127"/>
       <c r="I67" s="198"/>
-      <c r="J67" s="200"/>
+      <c r="J67" s="208"/>
       <c r="K67" s="70"/>
       <c r="L67" s="70"/>
     </row>
@@ -7219,7 +7198,7 @@
       <c r="G68" s="127"/>
       <c r="H68" s="127"/>
       <c r="I68" s="198"/>
-      <c r="J68" s="200"/>
+      <c r="J68" s="208"/>
       <c r="K68" s="70"/>
       <c r="L68" s="70"/>
     </row>
@@ -7232,7 +7211,7 @@
       <c r="G69" s="127"/>
       <c r="H69" s="127"/>
       <c r="I69" s="198"/>
-      <c r="J69" s="200"/>
+      <c r="J69" s="208"/>
       <c r="K69" s="70"/>
       <c r="L69" s="70"/>
     </row>
@@ -7245,7 +7224,7 @@
       <c r="G70" s="127"/>
       <c r="H70" s="127"/>
       <c r="I70" s="198"/>
-      <c r="J70" s="200"/>
+      <c r="J70" s="208"/>
       <c r="K70" s="70"/>
       <c r="L70" s="70"/>
     </row>
@@ -7258,7 +7237,7 @@
       <c r="G71" s="127"/>
       <c r="H71" s="127"/>
       <c r="I71" s="198"/>
-      <c r="J71" s="200"/>
+      <c r="J71" s="208"/>
       <c r="K71" s="70"/>
       <c r="L71" s="70"/>
     </row>
@@ -7271,14 +7250,14 @@
       <c r="G72" s="127"/>
       <c r="H72" s="127"/>
       <c r="I72" s="198"/>
-      <c r="J72" s="200"/>
+      <c r="J72" s="208"/>
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
     </row>
     <row r="73" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="53"/>
       <c r="B73" s="122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="123"/>
       <c r="D73" s="121"/>
@@ -7287,7 +7266,7 @@
       <c r="G73" s="124"/>
       <c r="H73" s="198"/>
       <c r="I73" s="198"/>
-      <c r="J73" s="200"/>
+      <c r="J73" s="208"/>
     </row>
     <row r="74" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="53"/>
@@ -7348,7 +7327,7 @@
     <row r="79" spans="1:14" s="106" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="104"/>
       <c r="B79" s="183" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="83"/>
       <c r="D79" s="97"/>
@@ -7366,28 +7345,28 @@
         <v>2</v>
       </c>
       <c r="C80" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="203" t="s">
-        <v>172</v>
-      </c>
-      <c r="E80" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80" s="89" t="s">
-        <v>146</v>
-      </c>
       <c r="G80" s="89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I80" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="I80" s="90" t="s">
-        <v>144</v>
-      </c>
       <c r="J80" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K80" s="108"/>
       <c r="L80" s="108"/>
@@ -7400,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81" s="92"/>
       <c r="E81" s="93"/>
@@ -7416,7 +7395,7 @@
     <row r="82" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="107"/>
       <c r="B82" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="94"/>
       <c r="D82" s="92"/>
@@ -7467,7 +7446,7 @@
     <row r="85" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="107"/>
       <c r="B85" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="92"/>
       <c r="D85" s="92"/>
@@ -7484,7 +7463,7 @@
     <row r="86" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="107"/>
       <c r="B86" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86" s="94"/>
       <c r="D86" s="92"/>
@@ -7501,7 +7480,7 @@
     <row r="87" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="53"/>
       <c r="B87" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="94"/>
       <c r="D87" s="92"/>
@@ -7518,7 +7497,7 @@
     <row r="88" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="53"/>
       <c r="B88" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="123"/>
       <c r="D88" s="121"/>
@@ -7535,7 +7514,7 @@
     <row r="89" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="53"/>
       <c r="B89" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="121"/>
@@ -7552,7 +7531,7 @@
     <row r="90" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="53"/>
       <c r="B90" s="122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="123"/>
       <c r="D90" s="121"/>
@@ -7569,7 +7548,7 @@
     <row r="91" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="53"/>
       <c r="B91" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="92"/>
       <c r="D91" s="121"/>
@@ -7690,7 +7669,7 @@
     <row r="100" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="53"/>
       <c r="B100" s="122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="121"/>
@@ -7722,7 +7701,7 @@
     <row r="102" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="53"/>
       <c r="B102" s="183" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="83"/>
       <c r="D102" s="97"/>
@@ -7742,28 +7721,28 @@
         <v>2</v>
       </c>
       <c r="C103" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="203" t="s">
+        <v>171</v>
+      </c>
+      <c r="E103" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D103" s="203" t="s">
-        <v>172</v>
-      </c>
-      <c r="E103" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="89" t="s">
-        <v>146</v>
-      </c>
       <c r="G103" s="89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H103" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I103" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="I103" s="90" t="s">
-        <v>144</v>
-      </c>
       <c r="J103" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K103" s="111"/>
       <c r="L103" s="112"/>
@@ -7775,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D104" s="92"/>
       <c r="E104" s="93"/>
@@ -7783,7 +7762,7 @@
       <c r="G104" s="93"/>
       <c r="H104" s="197"/>
       <c r="I104" s="197"/>
-      <c r="J104" s="199"/>
+      <c r="J104" s="207"/>
       <c r="K104" s="111"/>
       <c r="L104" s="112"/>
       <c r="M104" s="112"/>
@@ -7791,7 +7770,7 @@
     <row r="105" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="53"/>
       <c r="B105" s="72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="94"/>
       <c r="D105" s="92"/>
@@ -7800,7 +7779,7 @@
       <c r="G105" s="93"/>
       <c r="H105" s="197"/>
       <c r="I105" s="197"/>
-      <c r="J105" s="199"/>
+      <c r="J105" s="207"/>
       <c r="K105" s="111"/>
       <c r="L105" s="112"/>
       <c r="M105" s="112"/>
@@ -7817,7 +7796,7 @@
       <c r="G106" s="93"/>
       <c r="H106" s="197"/>
       <c r="I106" s="197"/>
-      <c r="J106" s="199"/>
+      <c r="J106" s="207"/>
       <c r="K106" s="111"/>
       <c r="L106" s="112"/>
       <c r="M106" s="112"/>
@@ -7834,7 +7813,7 @@
       <c r="G107" s="93"/>
       <c r="H107" s="197"/>
       <c r="I107" s="197"/>
-      <c r="J107" s="199"/>
+      <c r="J107" s="207"/>
       <c r="K107" s="111"/>
       <c r="L107" s="112"/>
       <c r="M107" s="112"/>
@@ -7842,7 +7821,7 @@
     <row r="108" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="53"/>
       <c r="B108" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
@@ -7851,7 +7830,7 @@
       <c r="G108" s="93"/>
       <c r="H108" s="197"/>
       <c r="I108" s="197"/>
-      <c r="J108" s="199"/>
+      <c r="J108" s="207"/>
       <c r="K108" s="111"/>
       <c r="L108" s="112"/>
       <c r="M108" s="112"/>
@@ -7859,7 +7838,7 @@
     <row r="109" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="53"/>
       <c r="B109" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="94"/>
       <c r="D109" s="92"/>
@@ -7868,7 +7847,7 @@
       <c r="G109" s="93"/>
       <c r="H109" s="197"/>
       <c r="I109" s="197"/>
-      <c r="J109" s="199"/>
+      <c r="J109" s="207"/>
       <c r="K109" s="111"/>
       <c r="L109" s="112"/>
       <c r="M109" s="112"/>
@@ -7876,7 +7855,7 @@
     <row r="110" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="53"/>
       <c r="B110" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="94"/>
       <c r="D110" s="92"/>
@@ -7885,7 +7864,7 @@
       <c r="G110" s="93"/>
       <c r="H110" s="197"/>
       <c r="I110" s="197"/>
-      <c r="J110" s="199"/>
+      <c r="J110" s="207"/>
       <c r="K110" s="111"/>
       <c r="L110" s="112"/>
       <c r="M110" s="112"/>
@@ -7893,7 +7872,7 @@
     <row r="111" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="53"/>
       <c r="B111" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="123"/>
       <c r="D111" s="121"/>
@@ -7902,7 +7881,7 @@
       <c r="G111" s="124"/>
       <c r="H111" s="198"/>
       <c r="I111" s="198"/>
-      <c r="J111" s="200"/>
+      <c r="J111" s="208"/>
       <c r="K111" s="111"/>
       <c r="L111" s="112"/>
       <c r="M111" s="112"/>
@@ -7910,7 +7889,7 @@
     <row r="112" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="53"/>
       <c r="B112" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112" s="123"/>
       <c r="D112" s="121"/>
@@ -7919,7 +7898,7 @@
       <c r="G112" s="124"/>
       <c r="H112" s="198"/>
       <c r="I112" s="198"/>
-      <c r="J112" s="200"/>
+      <c r="J112" s="208"/>
       <c r="K112" s="111"/>
       <c r="L112" s="112"/>
       <c r="M112" s="112"/>
@@ -7927,7 +7906,7 @@
     <row r="113" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="53"/>
       <c r="B113" s="122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" s="123"/>
       <c r="D113" s="121"/>
@@ -7936,7 +7915,7 @@
       <c r="G113" s="124"/>
       <c r="H113" s="198"/>
       <c r="I113" s="198"/>
-      <c r="J113" s="200"/>
+      <c r="J113" s="208"/>
       <c r="K113" s="111"/>
       <c r="L113" s="112"/>
       <c r="M113" s="112"/>
@@ -7944,7 +7923,7 @@
     <row r="114" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="53"/>
       <c r="B114" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C114" s="92"/>
       <c r="D114" s="121"/>
@@ -7953,7 +7932,7 @@
       <c r="G114" s="187"/>
       <c r="H114" s="198"/>
       <c r="I114" s="198"/>
-      <c r="J114" s="200"/>
+      <c r="J114" s="208"/>
       <c r="K114" s="111"/>
       <c r="L114" s="112"/>
       <c r="M114" s="112"/>
@@ -7967,7 +7946,7 @@
       <c r="G115" s="127"/>
       <c r="H115" s="127"/>
       <c r="I115" s="198"/>
-      <c r="J115" s="200"/>
+      <c r="J115" s="208"/>
       <c r="K115" s="70"/>
       <c r="L115" s="70"/>
     </row>
@@ -7980,7 +7959,7 @@
       <c r="G116" s="127"/>
       <c r="H116" s="127"/>
       <c r="I116" s="198"/>
-      <c r="J116" s="200"/>
+      <c r="J116" s="208"/>
       <c r="K116" s="70"/>
       <c r="L116" s="70"/>
     </row>
@@ -7993,7 +7972,7 @@
       <c r="G117" s="127"/>
       <c r="H117" s="127"/>
       <c r="I117" s="198"/>
-      <c r="J117" s="200"/>
+      <c r="J117" s="208"/>
       <c r="K117" s="70"/>
       <c r="L117" s="70"/>
     </row>
@@ -8006,7 +7985,7 @@
       <c r="G118" s="127"/>
       <c r="H118" s="127"/>
       <c r="I118" s="198"/>
-      <c r="J118" s="200"/>
+      <c r="J118" s="208"/>
       <c r="K118" s="70"/>
       <c r="L118" s="70"/>
     </row>
@@ -8019,7 +7998,7 @@
       <c r="G119" s="127"/>
       <c r="H119" s="127"/>
       <c r="I119" s="198"/>
-      <c r="J119" s="200"/>
+      <c r="J119" s="208"/>
       <c r="K119" s="70"/>
       <c r="L119" s="70"/>
     </row>
@@ -8032,7 +8011,7 @@
       <c r="G120" s="127"/>
       <c r="H120" s="127"/>
       <c r="I120" s="198"/>
-      <c r="J120" s="200"/>
+      <c r="J120" s="208"/>
       <c r="K120" s="70"/>
       <c r="L120" s="70"/>
     </row>
@@ -8045,7 +8024,7 @@
       <c r="G121" s="127"/>
       <c r="H121" s="127"/>
       <c r="I121" s="198"/>
-      <c r="J121" s="200"/>
+      <c r="J121" s="208"/>
       <c r="K121" s="70"/>
       <c r="L121" s="70"/>
     </row>
@@ -8058,14 +8037,14 @@
       <c r="G122" s="127"/>
       <c r="H122" s="127"/>
       <c r="I122" s="198"/>
-      <c r="J122" s="200"/>
+      <c r="J122" s="208"/>
       <c r="K122" s="70"/>
       <c r="L122" s="70"/>
     </row>
     <row r="123" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="53"/>
       <c r="B123" s="122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C123" s="92"/>
       <c r="D123" s="121"/>
@@ -8074,7 +8053,7 @@
       <c r="G123" s="187"/>
       <c r="H123" s="198"/>
       <c r="I123" s="198"/>
-      <c r="J123" s="200"/>
+      <c r="J123" s="208"/>
       <c r="K123" s="111"/>
       <c r="L123" s="112"/>
       <c r="M123" s="112"/>
@@ -8097,7 +8076,7 @@
     <row r="125" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="53"/>
       <c r="B125" s="183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="83"/>
       <c r="D125" s="80"/>
@@ -8114,34 +8093,34 @@
         <v>2</v>
       </c>
       <c r="C126" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="89" t="s">
-        <v>53</v>
-      </c>
       <c r="F126" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G126" s="89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H126" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="I126" s="90" t="s">
-        <v>144</v>
-      </c>
       <c r="J126" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="53"/>
       <c r="B127" s="180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C127" s="98"/>
       <c r="D127" s="92"/>
@@ -8150,11 +8129,11 @@
       <c r="G127" s="93"/>
       <c r="H127" s="197"/>
       <c r="I127" s="197"/>
-      <c r="J127" s="199"/>
+      <c r="J127" s="207"/>
     </row>
     <row r="128" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" s="113" t="s">
         <v>9</v>
@@ -8180,7 +8159,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B130" s="133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C130" s="115"/>
       <c r="D130" s="116"/>
@@ -8190,10 +8169,10 @@
     </row>
     <row r="131" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" s="118"/>
       <c r="D131" s="83"/>
@@ -8211,7 +8190,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B133" s="133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C133" s="115"/>
       <c r="D133" s="116"/>
@@ -8224,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D134" s="119"/>
       <c r="E134" s="59"/>
@@ -8255,7 +8234,7 @@
     </row>
     <row r="139" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139" s="96"/>
     </row>
@@ -8491,12 +8470,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B66" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B75" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K109" activeCellId="3" sqref="H80:H89 K80:K89 H109:H118 K109:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8520,15 +8499,15 @@
       <c r="B3" s="191"/>
       <c r="H3" s="176"/>
       <c r="K3" s="176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -8539,172 +8518,156 @@
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="173" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="210" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="225" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="210" t="s">
+      <c r="F8" s="226"/>
+      <c r="G8" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="211"/>
-      <c r="G8" s="214" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="214"/>
+      <c r="H8" s="224"/>
       <c r="I8" s="7"/>
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="212">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H9" s="212"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="212" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="212"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="212">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H11" s="212"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="220"/>
+      <c r="D11" s="220"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="212" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="212"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="212">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H13" s="212"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="213" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="213"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H15" s="212"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="219"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H17" s="212"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="219"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -8715,7 +8678,7 @@
     </row>
     <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -8746,7 +8709,7 @@
     </row>
     <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8758,7 +8721,7 @@
     </row>
     <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8770,7 +8733,7 @@
     </row>
     <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8782,7 +8745,7 @@
     </row>
     <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="190" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8794,7 +8757,7 @@
     </row>
     <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8806,39 +8769,39 @@
     </row>
     <row r="28" spans="2:11" s="19" customFormat="1" ht="60.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="188" t="s">
-        <v>17</v>
-      </c>
       <c r="D28" s="188" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="188" t="s">
-        <v>160</v>
-      </c>
       <c r="F28" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H28" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J28" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="43">
         <v>1</v>
@@ -8847,14 +8810,14 @@
       <c r="E29" s="181"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="177"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="177"/>
       <c r="J29" s="177"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="209"/>
     </row>
     <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="43">
         <v>0.5</v>
@@ -8863,14 +8826,14 @@
       <c r="E30" s="181"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="177"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="177"/>
       <c r="J30" s="177"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="210"/>
     </row>
     <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="43">
         <v>1</v>
@@ -8879,14 +8842,14 @@
       <c r="E31" s="181"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
-      <c r="H31" s="177"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="177"/>
       <c r="J31" s="177"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="209"/>
     </row>
     <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="43">
         <v>0.5</v>
@@ -8895,14 +8858,14 @@
       <c r="E32" s="181"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
-      <c r="H32" s="177"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="177"/>
       <c r="J32" s="177"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="210"/>
     </row>
     <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="43">
         <v>1</v>
@@ -8911,14 +8874,14 @@
       <c r="E33" s="181"/>
       <c r="F33" s="45"/>
       <c r="G33" s="45"/>
-      <c r="H33" s="177"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="177"/>
       <c r="J33" s="177"/>
-      <c r="K33" s="46"/>
+      <c r="K33" s="209"/>
     </row>
     <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="43">
         <v>0.5</v>
@@ -8927,14 +8890,14 @@
       <c r="E34" s="181"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="177"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="177"/>
       <c r="J34" s="177"/>
-      <c r="K34" s="47"/>
+      <c r="K34" s="210"/>
     </row>
     <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="43">
         <v>1</v>
@@ -8943,14 +8906,14 @@
       <c r="E35" s="181"/>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
-      <c r="H35" s="177"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="177"/>
       <c r="J35" s="177"/>
-      <c r="K35" s="46"/>
+      <c r="K35" s="209"/>
     </row>
     <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="43">
         <v>0.5</v>
@@ -8959,14 +8922,14 @@
       <c r="E36" s="181"/>
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
-      <c r="H36" s="177"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="177"/>
       <c r="J36" s="177"/>
-      <c r="K36" s="47"/>
+      <c r="K36" s="210"/>
     </row>
     <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="43">
         <v>1</v>
@@ -8975,14 +8938,14 @@
       <c r="E37" s="181"/>
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
-      <c r="H37" s="177"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="177"/>
       <c r="J37" s="177"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="209"/>
     </row>
     <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="43">
         <v>0.5</v>
@@ -8991,10 +8954,10 @@
       <c r="E38" s="181"/>
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
-      <c r="H38" s="177"/>
+      <c r="H38" s="45"/>
       <c r="I38" s="177"/>
       <c r="J38" s="177"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="210"/>
     </row>
     <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
@@ -9063,7 +9026,7 @@
     </row>
     <row r="45" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="19"/>
@@ -9072,40 +9035,40 @@
     </row>
     <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="196" t="s">
-        <v>17</v>
-      </c>
       <c r="D46" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="202" t="s">
-        <v>160</v>
-      </c>
       <c r="F46" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H46" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J46" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K46" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L46" s="26"/>
     </row>
     <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="43">
         <v>1</v>
@@ -9122,7 +9085,7 @@
     </row>
     <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="43">
         <v>0.5</v>
@@ -9139,7 +9102,7 @@
     </row>
     <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="43">
         <v>1</v>
@@ -9156,7 +9119,7 @@
     </row>
     <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="43">
         <v>0.5</v>
@@ -9173,7 +9136,7 @@
     </row>
     <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="43">
         <v>1</v>
@@ -9190,7 +9153,7 @@
     </row>
     <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="43">
         <v>0.5</v>
@@ -9207,7 +9170,7 @@
     </row>
     <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="43">
         <v>1</v>
@@ -9224,7 +9187,7 @@
     </row>
     <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="43">
         <v>0.5</v>
@@ -9241,7 +9204,7 @@
     </row>
     <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="43">
         <v>1</v>
@@ -9258,7 +9221,7 @@
     </row>
     <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="43">
         <v>0.5</v>
@@ -9314,7 +9277,7 @@
     </row>
     <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="32"/>
@@ -9329,40 +9292,40 @@
     </row>
     <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="202" t="s">
-        <v>160</v>
-      </c>
       <c r="F61" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G61" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H61" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J61" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K61" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="43">
         <v>1</v>
@@ -9371,15 +9334,15 @@
       <c r="E62" s="178"/>
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
-      <c r="H62" s="177"/>
+      <c r="H62" s="211"/>
       <c r="I62" s="177"/>
       <c r="J62" s="177"/>
-      <c r="K62" s="46"/>
+      <c r="K62" s="209"/>
       <c r="L62" s="27"/>
     </row>
     <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" s="43">
         <v>0.5</v>
@@ -9388,15 +9351,15 @@
       <c r="E63" s="178"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
-      <c r="H63" s="177"/>
+      <c r="H63" s="211"/>
       <c r="I63" s="177"/>
       <c r="J63" s="177"/>
-      <c r="K63" s="47"/>
+      <c r="K63" s="210"/>
       <c r="L63" s="27"/>
     </row>
     <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="43">
         <v>1</v>
@@ -9405,15 +9368,15 @@
       <c r="E64" s="178"/>
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
-      <c r="H64" s="177"/>
+      <c r="H64" s="211"/>
       <c r="I64" s="177"/>
       <c r="J64" s="177"/>
-      <c r="K64" s="46"/>
+      <c r="K64" s="209"/>
       <c r="L64" s="27"/>
     </row>
     <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="43">
         <v>0.5</v>
@@ -9422,15 +9385,15 @@
       <c r="E65" s="178"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="177"/>
+      <c r="H65" s="211"/>
       <c r="I65" s="177"/>
       <c r="J65" s="177"/>
-      <c r="K65" s="47"/>
+      <c r="K65" s="210"/>
       <c r="L65" s="27"/>
     </row>
     <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="43">
         <v>1</v>
@@ -9439,15 +9402,15 @@
       <c r="E66" s="178"/>
       <c r="F66" s="45"/>
       <c r="G66" s="45"/>
-      <c r="H66" s="177"/>
+      <c r="H66" s="211"/>
       <c r="I66" s="177"/>
       <c r="J66" s="177"/>
-      <c r="K66" s="46"/>
+      <c r="K66" s="209"/>
       <c r="L66" s="27"/>
     </row>
     <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" s="43">
         <v>0.5</v>
@@ -9456,15 +9419,15 @@
       <c r="E67" s="178"/>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
-      <c r="H67" s="177"/>
+      <c r="H67" s="211"/>
       <c r="I67" s="177"/>
       <c r="J67" s="177"/>
-      <c r="K67" s="47"/>
+      <c r="K67" s="210"/>
       <c r="L67" s="27"/>
     </row>
     <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="43">
         <v>1</v>
@@ -9473,15 +9436,15 @@
       <c r="E68" s="178"/>
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="177"/>
+      <c r="H68" s="211"/>
       <c r="I68" s="177"/>
       <c r="J68" s="177"/>
-      <c r="K68" s="46"/>
+      <c r="K68" s="209"/>
       <c r="L68" s="27"/>
     </row>
     <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="43">
         <v>0.5</v>
@@ -9490,15 +9453,15 @@
       <c r="E69" s="178"/>
       <c r="F69" s="45"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="177"/>
+      <c r="H69" s="211"/>
       <c r="I69" s="177"/>
       <c r="J69" s="177"/>
-      <c r="K69" s="47"/>
+      <c r="K69" s="210"/>
       <c r="L69" s="27"/>
     </row>
     <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="43">
         <v>1</v>
@@ -9507,15 +9470,15 @@
       <c r="E70" s="178"/>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
-      <c r="H70" s="177"/>
+      <c r="H70" s="211"/>
       <c r="I70" s="177"/>
       <c r="J70" s="177"/>
-      <c r="K70" s="46"/>
+      <c r="K70" s="209"/>
       <c r="L70" s="27"/>
     </row>
     <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="43">
         <v>0.5</v>
@@ -9524,10 +9487,10 @@
       <c r="E71" s="178"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="177"/>
+      <c r="H71" s="211"/>
       <c r="I71" s="177"/>
       <c r="J71" s="177"/>
-      <c r="K71" s="47"/>
+      <c r="K71" s="210"/>
       <c r="L71" s="27"/>
     </row>
     <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -9597,7 +9560,7 @@
     </row>
     <row r="77" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="190" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="32"/>
@@ -9612,7 +9575,7 @@
     </row>
     <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="190" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9624,39 +9587,39 @@
     </row>
     <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="188" t="s">
-        <v>17</v>
-      </c>
       <c r="D79" s="195" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="202" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="201" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="201" t="s">
+      <c r="G79" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G79" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H79" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J79" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K79" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="43">
         <v>1</v>
@@ -9665,14 +9628,14 @@
       <c r="E80" s="181"/>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
-      <c r="H80" s="177"/>
+      <c r="H80" s="211"/>
       <c r="I80" s="177"/>
       <c r="J80" s="177"/>
-      <c r="K80" s="46"/>
+      <c r="K80" s="209"/>
     </row>
     <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="43">
         <v>0.5</v>
@@ -9681,14 +9644,14 @@
       <c r="E81" s="181"/>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
-      <c r="H81" s="177"/>
+      <c r="H81" s="211"/>
       <c r="I81" s="177"/>
       <c r="J81" s="177"/>
-      <c r="K81" s="47"/>
+      <c r="K81" s="210"/>
     </row>
     <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" s="43">
         <v>1</v>
@@ -9697,14 +9660,14 @@
       <c r="E82" s="181"/>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
-      <c r="H82" s="177"/>
+      <c r="H82" s="211"/>
       <c r="I82" s="177"/>
       <c r="J82" s="177"/>
-      <c r="K82" s="46"/>
+      <c r="K82" s="209"/>
     </row>
     <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="43">
         <v>0.5</v>
@@ -9713,14 +9676,14 @@
       <c r="E83" s="181"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
-      <c r="H83" s="177"/>
+      <c r="H83" s="211"/>
       <c r="I83" s="177"/>
       <c r="J83" s="177"/>
-      <c r="K83" s="47"/>
+      <c r="K83" s="210"/>
     </row>
     <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="43">
         <v>1</v>
@@ -9729,14 +9692,14 @@
       <c r="E84" s="181"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
-      <c r="H84" s="177"/>
+      <c r="H84" s="211"/>
       <c r="I84" s="177"/>
       <c r="J84" s="177"/>
-      <c r="K84" s="46"/>
+      <c r="K84" s="209"/>
     </row>
     <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="43">
         <v>0.5</v>
@@ -9745,14 +9708,14 @@
       <c r="E85" s="181"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
-      <c r="H85" s="177"/>
+      <c r="H85" s="211"/>
       <c r="I85" s="177"/>
       <c r="J85" s="177"/>
-      <c r="K85" s="47"/>
+      <c r="K85" s="210"/>
     </row>
     <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" s="43">
         <v>1</v>
@@ -9761,14 +9724,14 @@
       <c r="E86" s="181"/>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="177"/>
+      <c r="H86" s="211"/>
       <c r="I86" s="177"/>
       <c r="J86" s="177"/>
-      <c r="K86" s="46"/>
+      <c r="K86" s="209"/>
     </row>
     <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87" s="43">
         <v>0.5</v>
@@ -9777,14 +9740,14 @@
       <c r="E87" s="181"/>
       <c r="F87" s="45"/>
       <c r="G87" s="45"/>
-      <c r="H87" s="177"/>
+      <c r="H87" s="211"/>
       <c r="I87" s="177"/>
       <c r="J87" s="177"/>
-      <c r="K87" s="47"/>
+      <c r="K87" s="210"/>
     </row>
     <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="43">
         <v>1</v>
@@ -9793,14 +9756,14 @@
       <c r="E88" s="181"/>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
-      <c r="H88" s="177"/>
+      <c r="H88" s="211"/>
       <c r="I88" s="177"/>
       <c r="J88" s="177"/>
-      <c r="K88" s="46"/>
+      <c r="K88" s="209"/>
     </row>
     <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" s="43">
         <v>0.5</v>
@@ -9809,10 +9772,10 @@
       <c r="E89" s="181"/>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
-      <c r="H89" s="177"/>
+      <c r="H89" s="211"/>
       <c r="I89" s="177"/>
       <c r="J89" s="177"/>
-      <c r="K89" s="47"/>
+      <c r="K89" s="210"/>
     </row>
     <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="30"/>
@@ -9862,8 +9825,8 @@
       <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="219"/>
-      <c r="H93" s="220"/>
+      <c r="G93" s="221"/>
+      <c r="H93" s="222"/>
       <c r="I93" s="29"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
@@ -9871,7 +9834,7 @@
     </row>
     <row r="94" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="19"/>
@@ -9880,40 +9843,40 @@
     </row>
     <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="188" t="s">
-        <v>17</v>
-      </c>
       <c r="D95" s="202" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="202" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" s="201" t="s">
         <v>156</v>
       </c>
-      <c r="E95" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" s="201" t="s">
+      <c r="G95" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G95" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H95" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J95" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K95" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L95" s="26"/>
     </row>
     <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" s="43">
         <v>1</v>
@@ -9930,7 +9893,7 @@
     </row>
     <row r="97" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97" s="43">
         <v>0.5</v>
@@ -9947,7 +9910,7 @@
     </row>
     <row r="98" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" s="43">
         <v>1</v>
@@ -9964,7 +9927,7 @@
     </row>
     <row r="99" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" s="43">
         <v>0.5</v>
@@ -9981,7 +9944,7 @@
     </row>
     <row r="100" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="43">
         <v>1</v>
@@ -9998,7 +9961,7 @@
     </row>
     <row r="101" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" s="43">
         <v>0.5</v>
@@ -10015,7 +9978,7 @@
     </row>
     <row r="102" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102" s="43">
         <v>1</v>
@@ -10032,7 +9995,7 @@
     </row>
     <row r="103" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="43">
         <v>0.5</v>
@@ -10049,7 +10012,7 @@
     </row>
     <row r="104" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C104" s="43">
         <v>1</v>
@@ -10066,7 +10029,7 @@
     </row>
     <row r="105" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="43">
         <v>0.5</v>
@@ -10096,7 +10059,7 @@
     </row>
     <row r="107" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="31"/>
       <c r="D107" s="32"/>
@@ -10111,40 +10074,40 @@
     </row>
     <row r="108" spans="2:12" s="182" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" s="202" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="202" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" s="201" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108" s="201" t="s">
+      <c r="G108" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="G108" s="201" t="s">
-        <v>158</v>
-      </c>
       <c r="H108" s="202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J108" s="179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K108" s="179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L108" s="27"/>
     </row>
     <row r="109" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" s="43">
         <v>1</v>
@@ -10153,15 +10116,15 @@
       <c r="E109" s="181"/>
       <c r="F109" s="45"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="177"/>
+      <c r="H109" s="211"/>
       <c r="I109" s="177"/>
       <c r="J109" s="177"/>
-      <c r="K109" s="46"/>
+      <c r="K109" s="209"/>
       <c r="L109" s="27"/>
     </row>
     <row r="110" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C110" s="43">
         <v>0.5</v>
@@ -10170,15 +10133,15 @@
       <c r="E110" s="181"/>
       <c r="F110" s="45"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="177"/>
+      <c r="H110" s="211"/>
       <c r="I110" s="177"/>
       <c r="J110" s="177"/>
-      <c r="K110" s="47"/>
+      <c r="K110" s="210"/>
       <c r="L110" s="27"/>
     </row>
     <row r="111" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="43">
         <v>1</v>
@@ -10187,15 +10150,15 @@
       <c r="E111" s="181"/>
       <c r="F111" s="45"/>
       <c r="G111" s="45"/>
-      <c r="H111" s="177"/>
+      <c r="H111" s="211"/>
       <c r="I111" s="177"/>
       <c r="J111" s="177"/>
-      <c r="K111" s="46"/>
+      <c r="K111" s="209"/>
       <c r="L111" s="27"/>
     </row>
     <row r="112" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112" s="43">
         <v>0.5</v>
@@ -10204,15 +10167,15 @@
       <c r="E112" s="181"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
-      <c r="H112" s="177"/>
+      <c r="H112" s="211"/>
       <c r="I112" s="177"/>
       <c r="J112" s="177"/>
-      <c r="K112" s="47"/>
+      <c r="K112" s="210"/>
       <c r="L112" s="27"/>
     </row>
     <row r="113" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="43">
         <v>1</v>
@@ -10221,15 +10184,15 @@
       <c r="E113" s="181"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
-      <c r="H113" s="177"/>
+      <c r="H113" s="211"/>
       <c r="I113" s="177"/>
       <c r="J113" s="177"/>
-      <c r="K113" s="46"/>
+      <c r="K113" s="209"/>
       <c r="L113" s="27"/>
     </row>
     <row r="114" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C114" s="43">
         <v>0.5</v>
@@ -10238,15 +10201,15 @@
       <c r="E114" s="181"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
-      <c r="H114" s="177"/>
+      <c r="H114" s="211"/>
       <c r="I114" s="177"/>
       <c r="J114" s="177"/>
-      <c r="K114" s="47"/>
+      <c r="K114" s="210"/>
       <c r="L114" s="27"/>
     </row>
     <row r="115" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C115" s="43">
         <v>1</v>
@@ -10255,15 +10218,15 @@
       <c r="E115" s="181"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
-      <c r="H115" s="177"/>
+      <c r="H115" s="211"/>
       <c r="I115" s="177"/>
       <c r="J115" s="177"/>
-      <c r="K115" s="46"/>
+      <c r="K115" s="209"/>
       <c r="L115" s="27"/>
     </row>
     <row r="116" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C116" s="43">
         <v>0.5</v>
@@ -10272,15 +10235,15 @@
       <c r="E116" s="181"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
-      <c r="H116" s="177"/>
+      <c r="H116" s="211"/>
       <c r="I116" s="177"/>
       <c r="J116" s="177"/>
-      <c r="K116" s="47"/>
+      <c r="K116" s="210"/>
       <c r="L116" s="27"/>
     </row>
     <row r="117" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C117" s="43">
         <v>1</v>
@@ -10289,15 +10252,15 @@
       <c r="E117" s="181"/>
       <c r="F117" s="45"/>
       <c r="G117" s="45"/>
-      <c r="H117" s="177"/>
+      <c r="H117" s="211"/>
       <c r="I117" s="177"/>
       <c r="J117" s="177"/>
-      <c r="K117" s="46"/>
+      <c r="K117" s="209"/>
       <c r="L117" s="27"/>
     </row>
     <row r="118" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118" s="43">
         <v>0.5</v>
@@ -10306,10 +10269,10 @@
       <c r="E118" s="181"/>
       <c r="F118" s="45"/>
       <c r="G118" s="45"/>
-      <c r="H118" s="177"/>
+      <c r="H118" s="211"/>
       <c r="I118" s="177"/>
       <c r="J118" s="177"/>
-      <c r="K118" s="47"/>
+      <c r="K118" s="210"/>
       <c r="L118" s="27"/>
     </row>
     <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -10323,10 +10286,10 @@
     </row>
     <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B120" s="134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -10341,7 +10304,7 @@
         <v>8</v>
       </c>
       <c r="B121" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" s="132"/>
       <c r="D121" s="134"/>
@@ -10352,23 +10315,23 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:12" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="221" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="221"/>
-      <c r="D122" s="221"/>
-      <c r="E122" s="221"/>
-      <c r="F122" s="221"/>
-      <c r="G122" s="221"/>
-      <c r="H122" s="221"/>
-      <c r="I122" s="221"/>
-      <c r="J122" s="221"/>
-      <c r="K122" s="221"/>
+      <c r="B122" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="223"/>
+      <c r="D122" s="223"/>
+      <c r="E122" s="223"/>
+      <c r="F122" s="223"/>
+      <c r="G122" s="223"/>
+      <c r="H122" s="223"/>
+      <c r="I122" s="223"/>
+      <c r="J122" s="223"/>
+      <c r="K122" s="223"/>
     </row>
     <row r="123" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A123" s="64"/>
       <c r="B123" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" s="115"/>
       <c r="D123" s="192"/>
@@ -10380,50 +10343,50 @@
       <c r="A124" s="64">
         <v>2</v>
       </c>
-      <c r="B124" s="218" t="s">
-        <v>171</v>
-      </c>
-      <c r="C124" s="218"/>
-      <c r="D124" s="218"/>
-      <c r="E124" s="218"/>
-      <c r="F124" s="218"/>
-      <c r="G124" s="218"/>
-      <c r="H124" s="218"/>
-      <c r="I124" s="218"/>
-      <c r="J124" s="218"/>
-      <c r="K124" s="218"/>
+      <c r="B124" s="217" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="217"/>
+      <c r="D124" s="217"/>
+      <c r="E124" s="217"/>
+      <c r="F124" s="217"/>
+      <c r="G124" s="217"/>
+      <c r="H124" s="217"/>
+      <c r="I124" s="217"/>
+      <c r="J124" s="217"/>
+      <c r="K124" s="217"/>
     </row>
     <row r="125" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A125" s="64"/>
-      <c r="B125" s="217" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="217"/>
-      <c r="D125" s="217"/>
-      <c r="E125" s="217"/>
-      <c r="F125" s="217"/>
-      <c r="G125" s="217"/>
-      <c r="H125" s="217"/>
-      <c r="I125" s="217"/>
-      <c r="J125" s="217"/>
-      <c r="K125" s="217"/>
+      <c r="B125" s="216" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="216"/>
+      <c r="D125" s="216"/>
+      <c r="E125" s="216"/>
+      <c r="F125" s="216"/>
+      <c r="G125" s="216"/>
+      <c r="H125" s="216"/>
+      <c r="I125" s="216"/>
+      <c r="J125" s="216"/>
+      <c r="K125" s="216"/>
     </row>
     <row r="126" spans="1:12" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64">
         <v>3</v>
       </c>
-      <c r="B126" s="218" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="218"/>
-      <c r="D126" s="218"/>
-      <c r="E126" s="218"/>
-      <c r="F126" s="218"/>
-      <c r="G126" s="218"/>
-      <c r="H126" s="218"/>
-      <c r="I126" s="218"/>
-      <c r="J126" s="218"/>
-      <c r="K126" s="218"/>
+      <c r="B126" s="217" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="217"/>
+      <c r="D126" s="217"/>
+      <c r="E126" s="217"/>
+      <c r="F126" s="217"/>
+      <c r="G126" s="217"/>
+      <c r="H126" s="217"/>
+      <c r="I126" s="217"/>
+      <c r="J126" s="217"/>
+      <c r="K126" s="217"/>
     </row>
     <row r="127" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A127" s="64"/>
@@ -10437,7 +10400,7 @@
     <row r="128" spans="1:12" s="71" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64"/>
       <c r="B128" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -10451,35 +10414,62 @@
     </row>
     <row r="129" spans="1:11" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A129" s="64"/>
-      <c r="B129" s="217"/>
-      <c r="C129" s="217"/>
-      <c r="D129" s="217"/>
-      <c r="E129" s="217"/>
-      <c r="F129" s="217"/>
-      <c r="G129" s="217"/>
-      <c r="H129" s="217"/>
-      <c r="I129" s="217"/>
-      <c r="J129" s="217"/>
-      <c r="K129" s="217"/>
+      <c r="B129" s="216"/>
+      <c r="C129" s="216"/>
+      <c r="D129" s="216"/>
+      <c r="E129" s="216"/>
+      <c r="F129" s="216"/>
+      <c r="G129" s="216"/>
+      <c r="H129" s="216"/>
+      <c r="I129" s="216"/>
+      <c r="J129" s="216"/>
+      <c r="K129" s="216"/>
     </row>
     <row r="130" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64"/>
-      <c r="B130" s="218"/>
-      <c r="C130" s="218"/>
-      <c r="D130" s="218"/>
-      <c r="E130" s="218"/>
-      <c r="F130" s="218"/>
-      <c r="G130" s="218"/>
-      <c r="H130" s="218"/>
-      <c r="I130" s="218"/>
-      <c r="J130" s="218"/>
-      <c r="K130" s="218"/>
+      <c r="B130" s="217"/>
+      <c r="C130" s="217"/>
+      <c r="D130" s="217"/>
+      <c r="E130" s="217"/>
+      <c r="F130" s="217"/>
+      <c r="G130" s="217"/>
+      <c r="H130" s="217"/>
+      <c r="I130" s="217"/>
+      <c r="J130" s="217"/>
+      <c r="K130" s="217"/>
     </row>
     <row r="131" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="B129:K129"/>
     <mergeCell ref="B130:K130"/>
     <mergeCell ref="E15:F15"/>
@@ -10493,33 +10483,6 @@
     <mergeCell ref="B124:K124"/>
     <mergeCell ref="B125:K125"/>
     <mergeCell ref="B126:K126"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B9">
@@ -10618,14 +10581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -10649,141 +10612,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155"/>
+      <c r="A1" s="232"/>
       <c r="B1" s="155"/>
-      <c r="U1" s="222" t="s">
+      <c r="U1" s="227" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
+      <c r="AH1" s="227"/>
+      <c r="AI1" s="227"/>
+      <c r="AJ1" s="227"/>
+      <c r="AK1" s="227"/>
     </row>
     <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="165" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="138" t="s">
+      <c r="F2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="139" t="s">
+      <c r="G2" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="139" t="s">
+      <c r="H2" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="I2" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="169" t="s">
+      <c r="L2" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" s="172" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="169" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="140" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="140" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="O2" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="139" t="s">
+      <c r="U2" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="169" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="151" t="s">
+      <c r="V2" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="151" t="s">
+      <c r="W2" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="151" t="s">
+      <c r="X2" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="151" t="s">
+      <c r="Y2" s="168" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z2" s="168" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="168" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" s="168" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="168" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="151" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="151" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="159" t="s">
+      <c r="AG2" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="159" t="s">
+      <c r="AH2" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="159" t="s">
+      <c r="AI2" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="147" t="s">
+      <c r="AJ2" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="147" t="s">
+      <c r="AK2" s="147" t="s">
         <v>82</v>
-      </c>
-      <c r="AK2" s="147" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10805,7 +10768,7 @@
       <c r="P3" s="142"/>
       <c r="Q3" s="142"/>
       <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
+      <c r="S3" s="212"/>
       <c r="T3" s="143"/>
       <c r="U3" s="152"/>
       <c r="V3" s="154"/>
@@ -10844,7 +10807,7 @@
       <c r="P4" s="142"/>
       <c r="Q4" s="142"/>
       <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
+      <c r="S4" s="212"/>
       <c r="T4" s="143"/>
       <c r="U4" s="152"/>
       <c r="V4" s="154"/>
@@ -10883,7 +10846,7 @@
       <c r="P5" s="142"/>
       <c r="Q5" s="142"/>
       <c r="R5" s="139"/>
-      <c r="S5" s="139"/>
+      <c r="S5" s="212"/>
       <c r="T5" s="143"/>
       <c r="U5" s="152"/>
       <c r="V5" s="154"/>
@@ -10922,7 +10885,7 @@
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
       <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
+      <c r="S6" s="212"/>
       <c r="T6" s="143"/>
       <c r="U6" s="152"/>
       <c r="V6" s="154"/>
@@ -10961,7 +10924,7 @@
       <c r="P7" s="142"/>
       <c r="Q7" s="142"/>
       <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
+      <c r="S7" s="212"/>
       <c r="T7" s="143"/>
       <c r="U7" s="152"/>
       <c r="V7" s="154"/>
@@ -11000,7 +10963,7 @@
       <c r="P8" s="142"/>
       <c r="Q8" s="142"/>
       <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
+      <c r="S8" s="212"/>
       <c r="T8" s="143"/>
       <c r="U8" s="152"/>
       <c r="V8" s="154"/>
@@ -11039,7 +11002,7 @@
       <c r="P9" s="142"/>
       <c r="Q9" s="142"/>
       <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
+      <c r="S9" s="212"/>
       <c r="T9" s="143"/>
       <c r="U9" s="152"/>
       <c r="V9" s="154"/>
@@ -11078,7 +11041,7 @@
       <c r="P10" s="142"/>
       <c r="Q10" s="142"/>
       <c r="R10" s="139"/>
-      <c r="S10" s="139"/>
+      <c r="S10" s="212"/>
       <c r="T10" s="143"/>
       <c r="U10" s="152"/>
       <c r="V10" s="154"/>
@@ -11117,7 +11080,7 @@
       <c r="P11" s="142"/>
       <c r="Q11" s="142"/>
       <c r="R11" s="139"/>
-      <c r="S11" s="139"/>
+      <c r="S11" s="212"/>
       <c r="T11" s="143"/>
       <c r="U11" s="152"/>
       <c r="V11" s="154"/>
@@ -11156,7 +11119,7 @@
       <c r="P12" s="142"/>
       <c r="Q12" s="142"/>
       <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
+      <c r="S12" s="212"/>
       <c r="T12" s="143"/>
       <c r="U12" s="152"/>
       <c r="V12" s="154"/>
@@ -11195,7 +11158,7 @@
       <c r="P13" s="142"/>
       <c r="Q13" s="142"/>
       <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
+      <c r="S13" s="212"/>
       <c r="T13" s="143"/>
       <c r="U13" s="152"/>
       <c r="V13" s="154"/>
@@ -11234,7 +11197,7 @@
       <c r="P14" s="142"/>
       <c r="Q14" s="142"/>
       <c r="R14" s="139"/>
-      <c r="S14" s="139"/>
+      <c r="S14" s="212"/>
       <c r="T14" s="143"/>
       <c r="U14" s="152"/>
       <c r="V14" s="154"/>
@@ -11273,7 +11236,7 @@
       <c r="P15" s="142"/>
       <c r="Q15" s="142"/>
       <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
+      <c r="S15" s="212"/>
       <c r="T15" s="143"/>
       <c r="U15" s="152"/>
       <c r="V15" s="154"/>
@@ -11312,7 +11275,7 @@
       <c r="P16" s="142"/>
       <c r="Q16" s="142"/>
       <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
+      <c r="S16" s="212"/>
       <c r="T16" s="143"/>
       <c r="U16" s="152"/>
       <c r="V16" s="154"/>
@@ -11351,7 +11314,7 @@
       <c r="P17" s="142"/>
       <c r="Q17" s="142"/>
       <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
+      <c r="S17" s="212"/>
       <c r="T17" s="143"/>
       <c r="U17" s="152"/>
       <c r="V17" s="154"/>
@@ -11390,7 +11353,7 @@
       <c r="P18" s="142"/>
       <c r="Q18" s="142"/>
       <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
+      <c r="S18" s="212"/>
       <c r="T18" s="143"/>
       <c r="U18" s="152"/>
       <c r="V18" s="154"/>
@@ -11429,7 +11392,7 @@
       <c r="P19" s="142"/>
       <c r="Q19" s="142"/>
       <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
+      <c r="S19" s="212"/>
       <c r="T19" s="143"/>
       <c r="U19" s="152"/>
       <c r="V19" s="154"/>
@@ -11468,7 +11431,7 @@
       <c r="P20" s="142"/>
       <c r="Q20" s="142"/>
       <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
+      <c r="S20" s="212"/>
       <c r="T20" s="143"/>
       <c r="U20" s="152"/>
       <c r="V20" s="154"/>
@@ -11507,7 +11470,7 @@
       <c r="P21" s="142"/>
       <c r="Q21" s="142"/>
       <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
+      <c r="S21" s="212"/>
       <c r="T21" s="143"/>
       <c r="U21" s="152"/>
       <c r="V21" s="154"/>
@@ -11546,7 +11509,7 @@
       <c r="P22" s="142"/>
       <c r="Q22" s="142"/>
       <c r="R22" s="139"/>
-      <c r="S22" s="139"/>
+      <c r="S22" s="212"/>
       <c r="T22" s="143"/>
       <c r="U22" s="152"/>
       <c r="V22" s="154"/>
@@ -11585,7 +11548,7 @@
       <c r="P23" s="142"/>
       <c r="Q23" s="142"/>
       <c r="R23" s="139"/>
-      <c r="S23" s="139"/>
+      <c r="S23" s="212"/>
       <c r="T23" s="143"/>
       <c r="U23" s="152"/>
       <c r="V23" s="154"/>
@@ -11624,7 +11587,7 @@
       <c r="P24" s="142"/>
       <c r="Q24" s="142"/>
       <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
+      <c r="S24" s="212"/>
       <c r="T24" s="143"/>
       <c r="U24" s="152"/>
       <c r="V24" s="154"/>
@@ -11663,7 +11626,7 @@
       <c r="P25" s="142"/>
       <c r="Q25" s="142"/>
       <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
+      <c r="S25" s="212"/>
       <c r="T25" s="143"/>
       <c r="U25" s="152"/>
       <c r="V25" s="154"/>
@@ -11702,7 +11665,7 @@
       <c r="P26" s="142"/>
       <c r="Q26" s="142"/>
       <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
+      <c r="S26" s="212"/>
       <c r="T26" s="143"/>
       <c r="U26" s="152"/>
       <c r="V26" s="154"/>
@@ -11741,7 +11704,7 @@
       <c r="P27" s="142"/>
       <c r="Q27" s="142"/>
       <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
+      <c r="S27" s="212"/>
       <c r="T27" s="143"/>
       <c r="U27" s="152"/>
       <c r="V27" s="154"/>
@@ -11780,7 +11743,7 @@
       <c r="P28" s="142"/>
       <c r="Q28" s="142"/>
       <c r="R28" s="139"/>
-      <c r="S28" s="139"/>
+      <c r="S28" s="212"/>
       <c r="T28" s="143"/>
       <c r="U28" s="152"/>
       <c r="V28" s="154"/>
@@ -11819,7 +11782,7 @@
       <c r="P29" s="142"/>
       <c r="Q29" s="142"/>
       <c r="R29" s="139"/>
-      <c r="S29" s="139"/>
+      <c r="S29" s="212"/>
       <c r="T29" s="143"/>
       <c r="U29" s="152"/>
       <c r="V29" s="154"/>
@@ -11858,7 +11821,7 @@
       <c r="P30" s="142"/>
       <c r="Q30" s="142"/>
       <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
+      <c r="S30" s="212"/>
       <c r="T30" s="143"/>
       <c r="U30" s="152"/>
       <c r="V30" s="154"/>
@@ -11883,7 +11846,7 @@
     </row>
     <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="166" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -11904,14 +11867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE38" sqref="AE38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -11935,140 +11898,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="233"/>
       <c r="B1" s="155"/>
-      <c r="U1" s="223" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="224" t="s">
+      <c r="U1" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="226"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="229" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="230"/>
+      <c r="AD1" s="230"/>
+      <c r="AE1" s="230"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="230"/>
+      <c r="AH1" s="230"/>
+      <c r="AI1" s="230"/>
+      <c r="AJ1" s="230"/>
+      <c r="AK1" s="231"/>
     </row>
     <row r="2" spans="1:37" s="136" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="165" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="171" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="171" t="s">
+      <c r="O2" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="170" t="s">
+      <c r="P2" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="139" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="169" t="s">
-        <v>120</v>
-      </c>
       <c r="T2" s="171" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U2" s="156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="140" t="s">
+      <c r="AC2" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="140" t="s">
+      <c r="AD2" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z2" s="168" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA2" s="168" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="140" t="s">
-        <v>91</v>
-      </c>
       <c r="AE2" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF2" s="159" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH2" s="159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI2" s="147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ2" s="147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK2" s="147" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13168,7 +13132,7 @@
     </row>
     <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="166" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/PhoenixCI/Excel_Template/40011.xlsx
+++ b/PhoenixCI/Excel_Template/40011.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\待更新程式\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="3"/>
+    <workbookView xWindow="3769" yWindow="3769" windowWidth="21600" windowHeight="11382"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">fut_3index!$A:$B</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">opt_3index!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4505,7 +4505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5087,9 +5087,6 @@
     <xf numFmtId="10" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="42" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5102,21 +5099,30 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5126,15 +5132,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5149,12 +5146,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6282,51 +6273,51 @@
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A101" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123:G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="71" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="71" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="71" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="71" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="71" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="71" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="71" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="71" customWidth="1"/>
     <col min="11" max="11" width="11" style="71" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" style="71" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I1" s="215" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I1" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="215"/>
+      <c r="J1" s="214"/>
       <c r="K1" s="194"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J2" s="204"/>
       <c r="K2" s="205"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J3" s="204"/>
       <c r="K3" s="205"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J4" s="204"/>
       <c r="K4" s="205"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J5" s="204"/>
       <c r="K5" s="205"/>
     </row>
-    <row r="6" spans="1:12" s="59" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="59" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="52" t="s">
         <v>0</v>
       </c>
@@ -6337,12 +6328,12 @@
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="213"/>
       <c r="I6" s="57"/>
       <c r="J6" s="58"/>
     </row>
-    <row r="7" spans="1:12" s="63" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="63" customFormat="1" ht="95.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="61" t="s">
         <v>2</v>
@@ -6374,7 +6365,7 @@
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="65" t="s">
         <v>3</v>
       </c>
@@ -6389,22 +6380,40 @@
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="C9" s="66">
+        <f>C8*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="66">
+        <f t="shared" ref="D9:E9" si="0">D8*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="68" t="e">
+        <f>ROUNDDOWN(C9/($C$54*50),4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="68" t="e">
+        <f t="shared" ref="G9:H9" si="1">ROUNDDOWN(D9/($C$54*50),4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="68" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" s="59" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="59" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73"/>
       <c r="B10" s="65" t="s">
         <v>4</v>
@@ -6420,7 +6429,7 @@
       <c r="K10" s="70"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="65" t="s">
         <v>5</v>
       </c>
@@ -6435,7 +6444,7 @@
       <c r="K11" s="70"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="65" t="s">
         <v>130</v>
       </c>
@@ -6450,7 +6459,7 @@
       <c r="K12" s="70"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="65" t="s">
         <v>131</v>
       </c>
@@ -6465,7 +6474,7 @@
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="75" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="65" t="s">
         <v>21</v>
       </c>
@@ -6480,7 +6489,7 @@
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="75" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="65" t="s">
         <v>22</v>
       </c>
@@ -6495,7 +6504,7 @@
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="65" t="s">
         <v>175</v>
       </c>
@@ -6510,7 +6519,7 @@
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" s="75" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
         <v>46</v>
       </c>
@@ -6525,7 +6534,7 @@
       <c r="K17" s="70"/>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="75" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="122" t="s">
         <v>47</v>
       </c>
@@ -6540,7 +6549,7 @@
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="122" t="s">
         <v>54</v>
       </c>
@@ -6555,7 +6564,7 @@
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="122"/>
       <c r="C20" s="125"/>
       <c r="D20" s="126"/>
@@ -6568,7 +6577,7 @@
       <c r="K20" s="70"/>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="122"/>
       <c r="C21" s="125"/>
       <c r="D21" s="126"/>
@@ -6581,7 +6590,7 @@
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
     </row>
-    <row r="22" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="122"/>
       <c r="C22" s="125"/>
       <c r="D22" s="126"/>
@@ -6594,7 +6603,7 @@
       <c r="K22" s="70"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="122"/>
       <c r="C23" s="125"/>
       <c r="D23" s="126"/>
@@ -6607,7 +6616,7 @@
       <c r="K23" s="70"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="122"/>
       <c r="C24" s="125"/>
       <c r="D24" s="126"/>
@@ -6620,7 +6629,7 @@
       <c r="K24" s="70"/>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="122"/>
       <c r="C25" s="125"/>
       <c r="D25" s="126"/>
@@ -6633,7 +6642,7 @@
       <c r="K25" s="70"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="122"/>
       <c r="C26" s="125"/>
       <c r="D26" s="126"/>
@@ -6646,7 +6655,7 @@
       <c r="K26" s="70"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="2:12" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="122"/>
       <c r="C27" s="125"/>
       <c r="D27" s="126"/>
@@ -6659,7 +6668,7 @@
       <c r="K27" s="70"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="2:12" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="75" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="122" t="s">
         <v>55</v>
       </c>
@@ -6674,7 +6683,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="77" t="s">
         <v>50</v>
       </c>
@@ -6689,7 +6698,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="128" t="s">
         <v>56</v>
       </c>
@@ -6699,7 +6708,7 @@
       <c r="F30" s="129"/>
       <c r="G30" s="129"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="128" t="s">
         <v>59</v>
       </c>
@@ -6709,7 +6718,7 @@
       <c r="F31" s="129"/>
       <c r="G31" s="129"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="132" t="s">
         <v>57</v>
       </c>
@@ -6719,7 +6728,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:12" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" s="80" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B33" s="128" t="s">
         <v>58</v>
       </c>
@@ -6733,7 +6742,7 @@
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
     </row>
-    <row r="34" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="79"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
@@ -6745,7 +6754,7 @@
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
     </row>
-    <row r="35" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="79"/>
       <c r="C35" s="71"/>
       <c r="D35" s="71"/>
@@ -6757,7 +6766,7 @@
       <c r="K35" s="81"/>
       <c r="L35" s="81"/>
     </row>
-    <row r="36" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="79"/>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -6769,7 +6778,7 @@
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
     </row>
-    <row r="37" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="79"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -6781,7 +6790,7 @@
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
     </row>
-    <row r="38" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="79"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
@@ -6793,7 +6802,7 @@
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
     </row>
-    <row r="39" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="79"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -6805,7 +6814,7 @@
       <c r="K39" s="81"/>
       <c r="L39" s="81"/>
     </row>
-    <row r="40" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="79"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
@@ -6817,7 +6826,7 @@
       <c r="K40" s="81"/>
       <c r="L40" s="81"/>
     </row>
-    <row r="41" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="79"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
@@ -6829,7 +6838,7 @@
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
     </row>
-    <row r="42" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="79"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
@@ -6841,7 +6850,7 @@
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
     </row>
-    <row r="43" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="79"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
@@ -6853,7 +6862,7 @@
       <c r="K43" s="81"/>
       <c r="L43" s="81"/>
     </row>
-    <row r="44" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="79"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
@@ -6865,7 +6874,7 @@
       <c r="K44" s="81"/>
       <c r="L44" s="81"/>
     </row>
-    <row r="45" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="79"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
@@ -6877,7 +6886,7 @@
       <c r="K45" s="81"/>
       <c r="L45" s="81"/>
     </row>
-    <row r="46" spans="2:12" s="80" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" s="80" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="79"/>
       <c r="C46" s="71"/>
       <c r="D46" s="71"/>
@@ -6889,7 +6898,7 @@
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
     </row>
-    <row r="47" spans="2:12" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="80" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B47" s="79"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
@@ -6901,7 +6910,7 @@
       <c r="K47" s="81"/>
       <c r="L47" s="81"/>
     </row>
-    <row r="48" spans="2:12" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="80" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B48" s="79"/>
       <c r="C48" s="71"/>
       <c r="D48" s="71"/>
@@ -6913,7 +6922,7 @@
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
     </row>
-    <row r="49" spans="1:12" s="80" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="80" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B49" s="79"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
@@ -6925,7 +6934,7 @@
       <c r="K49" s="81"/>
       <c r="L49" s="81"/>
     </row>
-    <row r="50" spans="1:12" s="82" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="82" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="53" t="s">
         <v>6</v>
       </c>
@@ -6943,7 +6952,7 @@
       <c r="K50" s="81"/>
       <c r="L50" s="81"/>
     </row>
-    <row r="51" spans="1:12" s="82" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="82" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="53"/>
       <c r="B51" s="53" t="s">
         <v>160</v>
@@ -6959,7 +6968,7 @@
       <c r="K51" s="81"/>
       <c r="L51" s="81"/>
     </row>
-    <row r="52" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="26.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="183" t="s">
         <v>140</v>
       </c>
@@ -6970,7 +6979,7 @@
       <c r="G52" s="86"/>
       <c r="H52" s="87"/>
     </row>
-    <row r="53" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="88" t="s">
         <v>2</v>
       </c>
@@ -6999,7 +7008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="65" t="s">
         <v>3</v>
       </c>
@@ -7014,7 +7023,7 @@
       <c r="I54" s="197"/>
       <c r="J54" s="207"/>
     </row>
-    <row r="55" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="72" t="s">
         <v>20</v>
       </c>
@@ -7027,7 +7036,7 @@
       <c r="I55" s="197"/>
       <c r="J55" s="207"/>
     </row>
-    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="65" t="s">
         <v>4</v>
       </c>
@@ -7040,7 +7049,7 @@
       <c r="I56" s="197"/>
       <c r="J56" s="207"/>
     </row>
-    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="65" t="s">
         <v>5</v>
       </c>
@@ -7053,7 +7062,7 @@
       <c r="I57" s="197"/>
       <c r="J57" s="207"/>
     </row>
-    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="65" t="s">
         <v>130</v>
       </c>
@@ -7066,7 +7075,7 @@
       <c r="I58" s="197"/>
       <c r="J58" s="207"/>
     </row>
-    <row r="59" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="53"/>
       <c r="B59" s="65" t="s">
         <v>21</v>
@@ -7080,7 +7089,7 @@
       <c r="I59" s="197"/>
       <c r="J59" s="207"/>
     </row>
-    <row r="60" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="53"/>
       <c r="B60" s="65" t="s">
         <v>22</v>
@@ -7094,7 +7103,7 @@
       <c r="I60" s="197"/>
       <c r="J60" s="207"/>
     </row>
-    <row r="61" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="53"/>
       <c r="B61" s="65" t="s">
         <v>174</v>
@@ -7108,7 +7117,7 @@
       <c r="I61" s="198"/>
       <c r="J61" s="208"/>
     </row>
-    <row r="62" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="53"/>
       <c r="B62" s="65" t="s">
         <v>46</v>
@@ -7122,7 +7131,7 @@
       <c r="I62" s="198"/>
       <c r="J62" s="208"/>
     </row>
-    <row r="63" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="53"/>
       <c r="B63" s="122" t="s">
         <v>47</v>
@@ -7136,7 +7145,7 @@
       <c r="I63" s="198"/>
       <c r="J63" s="208"/>
     </row>
-    <row r="64" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="97" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="53"/>
       <c r="B64" s="122" t="s">
         <v>54</v>
@@ -7150,7 +7159,7 @@
       <c r="I64" s="198"/>
       <c r="J64" s="208"/>
     </row>
-    <row r="65" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="122"/>
       <c r="C65" s="125"/>
       <c r="D65" s="126"/>
@@ -7163,7 +7172,7 @@
       <c r="K65" s="70"/>
       <c r="L65" s="70"/>
     </row>
-    <row r="66" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="122"/>
       <c r="C66" s="125"/>
       <c r="D66" s="126"/>
@@ -7176,7 +7185,7 @@
       <c r="K66" s="70"/>
       <c r="L66" s="70"/>
     </row>
-    <row r="67" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="122"/>
       <c r="C67" s="125"/>
       <c r="D67" s="126"/>
@@ -7189,7 +7198,7 @@
       <c r="K67" s="70"/>
       <c r="L67" s="70"/>
     </row>
-    <row r="68" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="122"/>
       <c r="C68" s="125"/>
       <c r="D68" s="126"/>
@@ -7202,7 +7211,7 @@
       <c r="K68" s="70"/>
       <c r="L68" s="70"/>
     </row>
-    <row r="69" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="122"/>
       <c r="C69" s="125"/>
       <c r="D69" s="126"/>
@@ -7215,7 +7224,7 @@
       <c r="K69" s="70"/>
       <c r="L69" s="70"/>
     </row>
-    <row r="70" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="122"/>
       <c r="C70" s="125"/>
       <c r="D70" s="126"/>
@@ -7228,7 +7237,7 @@
       <c r="K70" s="70"/>
       <c r="L70" s="70"/>
     </row>
-    <row r="71" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="122"/>
       <c r="C71" s="125"/>
       <c r="D71" s="126"/>
@@ -7241,7 +7250,7 @@
       <c r="K71" s="70"/>
       <c r="L71" s="70"/>
     </row>
-    <row r="72" spans="1:14" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="122"/>
       <c r="C72" s="125"/>
       <c r="D72" s="126"/>
@@ -7254,7 +7263,7 @@
       <c r="K72" s="70"/>
       <c r="L72" s="70"/>
     </row>
-    <row r="73" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="53"/>
       <c r="B73" s="122" t="s">
         <v>55</v>
@@ -7268,7 +7277,7 @@
       <c r="I73" s="198"/>
       <c r="J73" s="208"/>
     </row>
-    <row r="74" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="53"/>
       <c r="B74" s="100"/>
       <c r="C74" s="100"/>
@@ -7280,7 +7289,7 @@
       <c r="I74" s="95"/>
       <c r="J74" s="96"/>
     </row>
-    <row r="75" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="100"/>
       <c r="C75" s="100"/>
@@ -7292,7 +7301,7 @@
       <c r="I75" s="95"/>
       <c r="J75" s="96"/>
     </row>
-    <row r="76" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="53"/>
       <c r="B76" s="99"/>
       <c r="C76" s="100"/>
@@ -7308,7 +7317,7 @@
       </c>
       <c r="K76" s="194"/>
     </row>
-    <row r="77" spans="1:14" s="97" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="97" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="53"/>
       <c r="B77" s="53"/>
       <c r="C77" s="71"/>
@@ -7316,7 +7325,7 @@
       <c r="E77" s="103"/>
       <c r="F77" s="71"/>
     </row>
-    <row r="78" spans="1:14" s="97" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="97" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="53"/>
       <c r="B78" s="53"/>
       <c r="C78" s="71"/>
@@ -7324,7 +7333,7 @@
       <c r="E78" s="103"/>
       <c r="F78" s="71"/>
     </row>
-    <row r="79" spans="1:14" s="106" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="106" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="104"/>
       <c r="B79" s="183" t="s">
         <v>141</v>
@@ -7339,7 +7348,7 @@
       <c r="J79" s="97"/>
       <c r="K79" s="105"/>
     </row>
-    <row r="80" spans="1:14" s="110" customFormat="1" ht="73.349999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="110" customFormat="1" ht="73.45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="107"/>
       <c r="B80" s="164" t="s">
         <v>2</v>
@@ -7373,7 +7382,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="109"/>
     </row>
-    <row r="81" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="107"/>
       <c r="B81" s="65" t="s">
         <v>3</v>
@@ -7392,7 +7401,7 @@
       <c r="L81" s="112"/>
       <c r="M81" s="112"/>
     </row>
-    <row r="82" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="107"/>
       <c r="B82" s="72" t="s">
         <v>20</v>
@@ -7409,7 +7418,7 @@
       <c r="L82" s="112"/>
       <c r="M82" s="112"/>
     </row>
-    <row r="83" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="107"/>
       <c r="B83" s="65" t="s">
         <v>4</v>
@@ -7426,7 +7435,7 @@
       <c r="L83" s="112"/>
       <c r="M83" s="112"/>
     </row>
-    <row r="84" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="107"/>
       <c r="B84" s="65" t="s">
         <v>5</v>
@@ -7443,7 +7452,7 @@
       <c r="L84" s="112"/>
       <c r="M84" s="112"/>
     </row>
-    <row r="85" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="107"/>
       <c r="B85" s="65" t="s">
         <v>130</v>
@@ -7460,7 +7469,7 @@
       <c r="L85" s="112"/>
       <c r="M85" s="112"/>
     </row>
-    <row r="86" spans="1:13" s="110" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="110" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="107"/>
       <c r="B86" s="65" t="s">
         <v>21</v>
@@ -7477,7 +7486,7 @@
       <c r="L86" s="112"/>
       <c r="M86" s="112"/>
     </row>
-    <row r="87" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="53"/>
       <c r="B87" s="65" t="s">
         <v>22</v>
@@ -7494,7 +7503,7 @@
       <c r="L87" s="112"/>
       <c r="M87" s="112"/>
     </row>
-    <row r="88" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="53"/>
       <c r="B88" s="65" t="s">
         <v>174</v>
@@ -7511,7 +7520,7 @@
       <c r="L88" s="112"/>
       <c r="M88" s="112"/>
     </row>
-    <row r="89" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="53"/>
       <c r="B89" s="65" t="s">
         <v>46</v>
@@ -7528,7 +7537,7 @@
       <c r="L89" s="112"/>
       <c r="M89" s="112"/>
     </row>
-    <row r="90" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="122" t="s">
         <v>47</v>
@@ -7545,7 +7554,7 @@
       <c r="L90" s="112"/>
       <c r="M90" s="112"/>
     </row>
-    <row r="91" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="53"/>
       <c r="B91" s="122" t="s">
         <v>54</v>
@@ -7562,7 +7571,7 @@
       <c r="L91" s="112"/>
       <c r="M91" s="112"/>
     </row>
-    <row r="92" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="122"/>
       <c r="C92" s="125"/>
       <c r="D92" s="126"/>
@@ -7575,7 +7584,7 @@
       <c r="K92" s="70"/>
       <c r="L92" s="70"/>
     </row>
-    <row r="93" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="122"/>
       <c r="C93" s="125"/>
       <c r="D93" s="126"/>
@@ -7588,7 +7597,7 @@
       <c r="K93" s="70"/>
       <c r="L93" s="70"/>
     </row>
-    <row r="94" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="122"/>
       <c r="C94" s="125"/>
       <c r="D94" s="126"/>
@@ -7601,7 +7610,7 @@
       <c r="K94" s="70"/>
       <c r="L94" s="70"/>
     </row>
-    <row r="95" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="122"/>
       <c r="C95" s="125"/>
       <c r="D95" s="126"/>
@@ -7614,7 +7623,7 @@
       <c r="K95" s="70"/>
       <c r="L95" s="70"/>
     </row>
-    <row r="96" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="122"/>
       <c r="C96" s="125"/>
       <c r="D96" s="126"/>
@@ -7627,7 +7636,7 @@
       <c r="K96" s="70"/>
       <c r="L96" s="70"/>
     </row>
-    <row r="97" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="122"/>
       <c r="C97" s="125"/>
       <c r="D97" s="126"/>
@@ -7640,7 +7649,7 @@
       <c r="K97" s="70"/>
       <c r="L97" s="70"/>
     </row>
-    <row r="98" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="122"/>
       <c r="C98" s="125"/>
       <c r="D98" s="126"/>
@@ -7653,7 +7662,7 @@
       <c r="K98" s="70"/>
       <c r="L98" s="70"/>
     </row>
-    <row r="99" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="122"/>
       <c r="C99" s="125"/>
       <c r="D99" s="126"/>
@@ -7666,7 +7675,7 @@
       <c r="K99" s="70"/>
       <c r="L99" s="70"/>
     </row>
-    <row r="100" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="53"/>
       <c r="B100" s="122" t="s">
         <v>55</v>
@@ -7683,7 +7692,7 @@
       <c r="L100" s="112"/>
       <c r="M100" s="112"/>
     </row>
-    <row r="101" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="53"/>
       <c r="B101" s="85"/>
       <c r="C101" s="85"/>
@@ -7698,7 +7707,7 @@
       <c r="L101" s="112"/>
       <c r="M101" s="112"/>
     </row>
-    <row r="102" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="53"/>
       <c r="B102" s="183" t="s">
         <v>178</v>
@@ -7715,7 +7724,7 @@
       <c r="L102" s="112"/>
       <c r="M102" s="112"/>
     </row>
-    <row r="103" spans="1:13" s="110" customFormat="1" ht="55.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="110" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="53"/>
       <c r="B103" s="164" t="s">
         <v>2</v>
@@ -7748,7 +7757,7 @@
       <c r="L103" s="112"/>
       <c r="M103" s="112"/>
     </row>
-    <row r="104" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="53"/>
       <c r="B104" s="65" t="s">
         <v>3</v>
@@ -7767,7 +7776,7 @@
       <c r="L104" s="112"/>
       <c r="M104" s="112"/>
     </row>
-    <row r="105" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="53"/>
       <c r="B105" s="72" t="s">
         <v>20</v>
@@ -7784,7 +7793,7 @@
       <c r="L105" s="112"/>
       <c r="M105" s="112"/>
     </row>
-    <row r="106" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="53"/>
       <c r="B106" s="65" t="s">
         <v>4</v>
@@ -7801,7 +7810,7 @@
       <c r="L106" s="112"/>
       <c r="M106" s="112"/>
     </row>
-    <row r="107" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="53"/>
       <c r="B107" s="65" t="s">
         <v>5</v>
@@ -7818,7 +7827,7 @@
       <c r="L107" s="112"/>
       <c r="M107" s="112"/>
     </row>
-    <row r="108" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="53"/>
       <c r="B108" s="65" t="s">
         <v>130</v>
@@ -7835,7 +7844,7 @@
       <c r="L108" s="112"/>
       <c r="M108" s="112"/>
     </row>
-    <row r="109" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="53"/>
       <c r="B109" s="65" t="s">
         <v>21</v>
@@ -7852,7 +7861,7 @@
       <c r="L109" s="112"/>
       <c r="M109" s="112"/>
     </row>
-    <row r="110" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="53"/>
       <c r="B110" s="65" t="s">
         <v>22</v>
@@ -7869,7 +7878,7 @@
       <c r="L110" s="112"/>
       <c r="M110" s="112"/>
     </row>
-    <row r="111" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="53"/>
       <c r="B111" s="65" t="s">
         <v>174</v>
@@ -7886,7 +7895,7 @@
       <c r="L111" s="112"/>
       <c r="M111" s="112"/>
     </row>
-    <row r="112" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="53"/>
       <c r="B112" s="65" t="s">
         <v>46</v>
@@ -7903,7 +7912,7 @@
       <c r="L112" s="112"/>
       <c r="M112" s="112"/>
     </row>
-    <row r="113" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="53"/>
       <c r="B113" s="122" t="s">
         <v>47</v>
@@ -7920,7 +7929,7 @@
       <c r="L113" s="112"/>
       <c r="M113" s="112"/>
     </row>
-    <row r="114" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="110" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="53"/>
       <c r="B114" s="122" t="s">
         <v>54</v>
@@ -7937,7 +7946,7 @@
       <c r="L114" s="112"/>
       <c r="M114" s="112"/>
     </row>
-    <row r="115" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="122"/>
       <c r="C115" s="125"/>
       <c r="D115" s="126"/>
@@ -7950,7 +7959,7 @@
       <c r="K115" s="70"/>
       <c r="L115" s="70"/>
     </row>
-    <row r="116" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="122"/>
       <c r="C116" s="125"/>
       <c r="D116" s="126"/>
@@ -7963,7 +7972,7 @@
       <c r="K116" s="70"/>
       <c r="L116" s="70"/>
     </row>
-    <row r="117" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="122"/>
       <c r="C117" s="125"/>
       <c r="D117" s="126"/>
@@ -7976,7 +7985,7 @@
       <c r="K117" s="70"/>
       <c r="L117" s="70"/>
     </row>
-    <row r="118" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="122"/>
       <c r="C118" s="125"/>
       <c r="D118" s="126"/>
@@ -7989,7 +7998,7 @@
       <c r="K118" s="70"/>
       <c r="L118" s="70"/>
     </row>
-    <row r="119" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="122"/>
       <c r="C119" s="125"/>
       <c r="D119" s="126"/>
@@ -8002,7 +8011,7 @@
       <c r="K119" s="70"/>
       <c r="L119" s="70"/>
     </row>
-    <row r="120" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="122"/>
       <c r="C120" s="125"/>
       <c r="D120" s="126"/>
@@ -8015,7 +8024,7 @@
       <c r="K120" s="70"/>
       <c r="L120" s="70"/>
     </row>
-    <row r="121" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="122"/>
       <c r="C121" s="125"/>
       <c r="D121" s="126"/>
@@ -8028,7 +8037,7 @@
       <c r="K121" s="70"/>
       <c r="L121" s="70"/>
     </row>
-    <row r="122" spans="1:13" s="75" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="75" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="122"/>
       <c r="C122" s="125"/>
       <c r="D122" s="126"/>
@@ -8041,16 +8050,16 @@
       <c r="K122" s="70"/>
       <c r="L122" s="70"/>
     </row>
-    <row r="123" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="53"/>
       <c r="B123" s="122" t="s">
         <v>55</v>
       </c>
       <c r="C123" s="92"/>
       <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="174"/>
-      <c r="G123" s="187"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="124"/>
+      <c r="G123" s="124"/>
       <c r="H123" s="198"/>
       <c r="I123" s="198"/>
       <c r="J123" s="208"/>
@@ -8058,7 +8067,7 @@
       <c r="L123" s="112"/>
       <c r="M123" s="112"/>
     </row>
-    <row r="124" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="110" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="53"/>
       <c r="B124" s="85"/>
       <c r="C124" s="85"/>
@@ -8073,7 +8082,7 @@
       <c r="L124" s="112"/>
       <c r="M124" s="112"/>
     </row>
-    <row r="125" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="53"/>
       <c r="B125" s="183" t="s">
         <v>179</v>
@@ -8087,7 +8096,7 @@
       <c r="I125" s="87"/>
       <c r="J125" s="96"/>
     </row>
-    <row r="126" spans="1:13" s="97" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="97" customFormat="1" ht="36.35" x14ac:dyDescent="0.4">
       <c r="A126" s="53"/>
       <c r="B126" s="164" t="s">
         <v>2</v>
@@ -8117,7 +8126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="97" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="53"/>
       <c r="B127" s="180" t="s">
         <v>25</v>
@@ -8131,7 +8140,7 @@
       <c r="I127" s="197"/>
       <c r="J127" s="207"/>
     </row>
-    <row r="128" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="45.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="53" t="s">
         <v>138</v>
       </c>
@@ -8146,7 +8155,7 @@
       <c r="H128" s="114"/>
       <c r="J128" s="97"/>
     </row>
-    <row r="129" spans="1:10" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="45.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="53"/>
       <c r="B129" s="113"/>
       <c r="C129" s="110"/>
@@ -8157,7 +8166,7 @@
       <c r="H129" s="114"/>
       <c r="J129" s="97"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B130" s="133" t="s">
         <v>176</v>
       </c>
@@ -8167,7 +8176,7 @@
       <c r="F130" s="83"/>
       <c r="H130" s="114"/>
     </row>
-    <row r="131" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="26.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="117" t="s">
         <v>10</v>
       </c>
@@ -8180,7 +8189,7 @@
       <c r="F131" s="83"/>
       <c r="H131" s="114"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B132" s="116"/>
       <c r="C132" s="118"/>
       <c r="D132" s="83"/>
@@ -8188,7 +8197,7 @@
       <c r="F132" s="83"/>
       <c r="H132" s="114"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B133" s="133" t="s">
         <v>177</v>
       </c>
@@ -8198,7 +8207,7 @@
       <c r="F133" s="83"/>
       <c r="H133" s="114"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="64">
         <v>2</v>
       </c>
@@ -8208,12 +8217,12 @@
       <c r="D134" s="119"/>
       <c r="E134" s="59"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B135" s="116"/>
       <c r="D135" s="119"/>
       <c r="E135" s="59"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B136" s="133"/>
       <c r="C136" s="115"/>
       <c r="D136" s="116"/>
@@ -8221,18 +8230,18 @@
       <c r="F136" s="83"/>
       <c r="H136" s="114"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B137" s="116"/>
       <c r="D137" s="119"/>
       <c r="E137" s="59"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B138" s="83"/>
       <c r="D138" s="119"/>
       <c r="E138" s="59"/>
       <c r="G138" s="96"/>
     </row>
-    <row r="139" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="37.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="96" t="s">
         <v>53</v>
       </c>
@@ -8474,35 +8483,35 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:L133"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B75" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K109" activeCellId="3" sqref="H80:H89 K80:K89 H109:H118 K109:K118"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B81" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="191"/>
       <c r="H3" s="176"/>
       <c r="K3" s="176" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -8516,104 +8525,104 @@
       <c r="G7" s="15"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="225" t="s">
+      <c r="D8" s="217"/>
+      <c r="E8" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="226"/>
-      <c r="G8" s="224" t="s">
+      <c r="F8" s="217"/>
+      <c r="G8" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="224"/>
+      <c r="H8" s="220"/>
       <c r="I8" s="7"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="220"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
         <v>31</v>
       </c>
@@ -8626,20 +8635,20 @@
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="218"/>
       <c r="D16" s="219"/>
-      <c r="E16" s="220"/>
+      <c r="E16" s="215"/>
       <c r="F16" s="219"/>
-      <c r="G16" s="220"/>
+      <c r="G16" s="215"/>
       <c r="H16" s="219"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41" t="s">
         <v>33</v>
       </c>
@@ -8652,20 +8661,20 @@
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="218"/>
       <c r="D18" s="219"/>
-      <c r="E18" s="220"/>
+      <c r="E18" s="215"/>
       <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
+      <c r="G18" s="215"/>
       <c r="H18" s="219"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
         <v>23</v>
       </c>
@@ -8676,7 +8685,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
         <v>24</v>
       </c>
@@ -8687,7 +8696,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="50"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8697,7 +8706,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="50"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8707,7 +8716,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>165</v>
       </c>
@@ -8719,7 +8728,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>164</v>
       </c>
@@ -8731,7 +8740,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="189" t="s">
         <v>135</v>
       </c>
@@ -8743,7 +8752,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="190" t="s">
         <v>166</v>
       </c>
@@ -8755,7 +8764,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="190" t="s">
         <v>150</v>
       </c>
@@ -8767,7 +8776,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="188" t="s">
         <v>15</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="41" t="s">
         <v>18</v>
       </c>
@@ -8815,7 +8824,7 @@
       <c r="J29" s="177"/>
       <c r="K29" s="209"/>
     </row>
-    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41" t="s">
         <v>26</v>
       </c>
@@ -8826,12 +8835,15 @@
       <c r="E30" s="181"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="H30" s="45">
+        <f>H29</f>
+        <v>0</v>
+      </c>
       <c r="I30" s="177"/>
       <c r="J30" s="177"/>
       <c r="K30" s="210"/>
     </row>
-    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41" t="s">
         <v>27</v>
       </c>
@@ -8847,7 +8859,7 @@
       <c r="J31" s="177"/>
       <c r="K31" s="209"/>
     </row>
-    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41" t="s">
         <v>28</v>
       </c>
@@ -8858,12 +8870,15 @@
       <c r="E32" s="181"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="H32" s="45">
+        <f t="shared" ref="H32" si="0">H31</f>
+        <v>0</v>
+      </c>
       <c r="I32" s="177"/>
       <c r="J32" s="177"/>
       <c r="K32" s="210"/>
     </row>
-    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41" t="s">
         <v>29</v>
       </c>
@@ -8879,7 +8894,7 @@
       <c r="J33" s="177"/>
       <c r="K33" s="209"/>
     </row>
-    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41" t="s">
         <v>30</v>
       </c>
@@ -8890,12 +8905,15 @@
       <c r="E34" s="181"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="H34" s="45">
+        <f t="shared" ref="H34" si="1">H33</f>
+        <v>0</v>
+      </c>
       <c r="I34" s="177"/>
       <c r="J34" s="177"/>
       <c r="K34" s="210"/>
     </row>
-    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41" t="s">
         <v>31</v>
       </c>
@@ -8911,7 +8929,7 @@
       <c r="J35" s="177"/>
       <c r="K35" s="209"/>
     </row>
-    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="41" t="s">
         <v>32</v>
       </c>
@@ -8922,12 +8940,15 @@
       <c r="E36" s="181"/>
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="H36" s="45">
+        <f t="shared" ref="H36" si="2">H35</f>
+        <v>0</v>
+      </c>
       <c r="I36" s="177"/>
       <c r="J36" s="177"/>
       <c r="K36" s="210"/>
     </row>
-    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41" t="s">
         <v>33</v>
       </c>
@@ -8943,7 +8964,7 @@
       <c r="J37" s="177"/>
       <c r="K37" s="209"/>
     </row>
-    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41" t="s">
         <v>34</v>
       </c>
@@ -8954,12 +8975,15 @@
       <c r="E38" s="181"/>
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
+      <c r="H38" s="45">
+        <f t="shared" ref="H38" si="3">H37</f>
+        <v>0</v>
+      </c>
       <c r="I38" s="177"/>
       <c r="J38" s="177"/>
       <c r="K38" s="210"/>
     </row>
-    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8969,7 +8993,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8979,7 +9003,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8989,7 +9013,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="191"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9003,7 +9027,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="191"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9014,7 +9038,7 @@
       <c r="I43" s="8"/>
       <c r="K43" s="176"/>
     </row>
-    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9024,7 +9048,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="132" t="s">
         <v>151</v>
       </c>
@@ -9033,7 +9057,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>15</v>
       </c>
@@ -9066,7 +9090,7 @@
       </c>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41" t="s">
         <v>35</v>
       </c>
@@ -9083,7 +9107,7 @@
       <c r="K47" s="46"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41" t="s">
         <v>36</v>
       </c>
@@ -9100,7 +9124,7 @@
       <c r="K48" s="47"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41" t="s">
         <v>37</v>
       </c>
@@ -9117,7 +9141,7 @@
       <c r="K49" s="46"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41" t="s">
         <v>38</v>
       </c>
@@ -9134,7 +9158,7 @@
       <c r="K50" s="47"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41" t="s">
         <v>39</v>
       </c>
@@ -9151,7 +9175,7 @@
       <c r="K51" s="46"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41" t="s">
         <v>40</v>
       </c>
@@ -9168,7 +9192,7 @@
       <c r="K52" s="47"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41" t="s">
         <v>41</v>
       </c>
@@ -9185,7 +9209,7 @@
       <c r="K53" s="46"/>
       <c r="L53" s="27"/>
     </row>
-    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41" t="s">
         <v>42</v>
       </c>
@@ -9202,7 +9226,7 @@
       <c r="K54" s="47"/>
       <c r="L54" s="27"/>
     </row>
-    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41" t="s">
         <v>43</v>
       </c>
@@ -9219,7 +9243,7 @@
       <c r="K55" s="46"/>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41" t="s">
         <v>44</v>
       </c>
@@ -9236,7 +9260,7 @@
       <c r="K56" s="47"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
@@ -9249,7 +9273,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -9262,7 +9286,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -9275,7 +9299,7 @@
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
     </row>
-    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="132" t="s">
         <v>180</v>
       </c>
@@ -9290,7 +9314,7 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="175" t="s">
         <v>136</v>
       </c>
@@ -9323,7 +9347,7 @@
       </c>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41" t="s">
         <v>18</v>
       </c>
@@ -9334,13 +9358,13 @@
       <c r="E62" s="178"/>
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
-      <c r="H62" s="211"/>
+      <c r="H62" s="45"/>
       <c r="I62" s="177"/>
       <c r="J62" s="177"/>
       <c r="K62" s="209"/>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41" t="s">
         <v>26</v>
       </c>
@@ -9351,13 +9375,16 @@
       <c r="E63" s="178"/>
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
-      <c r="H63" s="211"/>
+      <c r="H63" s="45">
+        <f>H62</f>
+        <v>0</v>
+      </c>
       <c r="I63" s="177"/>
       <c r="J63" s="177"/>
       <c r="K63" s="210"/>
       <c r="L63" s="27"/>
     </row>
-    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41" t="s">
         <v>27</v>
       </c>
@@ -9368,13 +9395,13 @@
       <c r="E64" s="178"/>
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
-      <c r="H64" s="211"/>
+      <c r="H64" s="45"/>
       <c r="I64" s="177"/>
       <c r="J64" s="177"/>
       <c r="K64" s="209"/>
       <c r="L64" s="27"/>
     </row>
-    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41" t="s">
         <v>28</v>
       </c>
@@ -9385,13 +9412,16 @@
       <c r="E65" s="178"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="211"/>
+      <c r="H65" s="45">
+        <f t="shared" ref="H65" si="4">H64</f>
+        <v>0</v>
+      </c>
       <c r="I65" s="177"/>
       <c r="J65" s="177"/>
       <c r="K65" s="210"/>
       <c r="L65" s="27"/>
     </row>
-    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41" t="s">
         <v>29</v>
       </c>
@@ -9402,13 +9432,13 @@
       <c r="E66" s="178"/>
       <c r="F66" s="45"/>
       <c r="G66" s="45"/>
-      <c r="H66" s="211"/>
+      <c r="H66" s="45"/>
       <c r="I66" s="177"/>
       <c r="J66" s="177"/>
       <c r="K66" s="209"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41" t="s">
         <v>30</v>
       </c>
@@ -9419,13 +9449,16 @@
       <c r="E67" s="178"/>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
-      <c r="H67" s="211"/>
+      <c r="H67" s="45">
+        <f t="shared" ref="H67" si="5">H66</f>
+        <v>0</v>
+      </c>
       <c r="I67" s="177"/>
       <c r="J67" s="177"/>
       <c r="K67" s="210"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41" t="s">
         <v>31</v>
       </c>
@@ -9436,13 +9469,13 @@
       <c r="E68" s="178"/>
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
-      <c r="H68" s="211"/>
+      <c r="H68" s="45"/>
       <c r="I68" s="177"/>
       <c r="J68" s="177"/>
       <c r="K68" s="209"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41" t="s">
         <v>32</v>
       </c>
@@ -9453,13 +9486,16 @@
       <c r="E69" s="178"/>
       <c r="F69" s="45"/>
       <c r="G69" s="45"/>
-      <c r="H69" s="211"/>
+      <c r="H69" s="45">
+        <f t="shared" ref="H69" si="6">H68</f>
+        <v>0</v>
+      </c>
       <c r="I69" s="177"/>
       <c r="J69" s="177"/>
       <c r="K69" s="210"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41" t="s">
         <v>33</v>
       </c>
@@ -9470,13 +9506,13 @@
       <c r="E70" s="178"/>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
-      <c r="H70" s="211"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="177"/>
       <c r="J70" s="177"/>
       <c r="K70" s="209"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41" t="s">
         <v>34</v>
       </c>
@@ -9487,13 +9523,16 @@
       <c r="E71" s="178"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="211"/>
+      <c r="H71" s="45">
+        <f t="shared" ref="H71" si="7">H70</f>
+        <v>0</v>
+      </c>
       <c r="I71" s="177"/>
       <c r="J71" s="177"/>
       <c r="K71" s="210"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
@@ -9506,7 +9545,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
@@ -9519,7 +9558,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
@@ -9532,7 +9571,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
@@ -9545,7 +9584,7 @@
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
@@ -9558,7 +9597,7 @@
       <c r="K76" s="27"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="190" t="s">
         <v>167</v>
       </c>
@@ -9573,7 +9612,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="190" t="s">
         <v>154</v>
       </c>
@@ -9585,7 +9624,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="188" t="s">
         <v>15</v>
       </c>
@@ -9617,7 +9656,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41" t="s">
         <v>18</v>
       </c>
@@ -9628,12 +9667,12 @@
       <c r="E80" s="181"/>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
-      <c r="H80" s="211"/>
+      <c r="H80" s="45"/>
       <c r="I80" s="177"/>
       <c r="J80" s="177"/>
       <c r="K80" s="209"/>
     </row>
-    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41" t="s">
         <v>26</v>
       </c>
@@ -9644,12 +9683,15 @@
       <c r="E81" s="181"/>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
-      <c r="H81" s="211"/>
+      <c r="H81" s="45">
+        <f>H80</f>
+        <v>0</v>
+      </c>
       <c r="I81" s="177"/>
       <c r="J81" s="177"/>
       <c r="K81" s="210"/>
     </row>
-    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41" t="s">
         <v>27</v>
       </c>
@@ -9660,12 +9702,12 @@
       <c r="E82" s="181"/>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
-      <c r="H82" s="211"/>
+      <c r="H82" s="45"/>
       <c r="I82" s="177"/>
       <c r="J82" s="177"/>
       <c r="K82" s="209"/>
     </row>
-    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41" t="s">
         <v>28</v>
       </c>
@@ -9676,12 +9718,15 @@
       <c r="E83" s="181"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
-      <c r="H83" s="211"/>
+      <c r="H83" s="45">
+        <f t="shared" ref="H83" si="8">H82</f>
+        <v>0</v>
+      </c>
       <c r="I83" s="177"/>
       <c r="J83" s="177"/>
       <c r="K83" s="210"/>
     </row>
-    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41" t="s">
         <v>29</v>
       </c>
@@ -9692,12 +9737,12 @@
       <c r="E84" s="181"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
-      <c r="H84" s="211"/>
+      <c r="H84" s="45"/>
       <c r="I84" s="177"/>
       <c r="J84" s="177"/>
       <c r="K84" s="209"/>
     </row>
-    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41" t="s">
         <v>30</v>
       </c>
@@ -9708,12 +9753,15 @@
       <c r="E85" s="181"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
-      <c r="H85" s="211"/>
+      <c r="H85" s="45">
+        <f t="shared" ref="H85" si="9">H84</f>
+        <v>0</v>
+      </c>
       <c r="I85" s="177"/>
       <c r="J85" s="177"/>
       <c r="K85" s="210"/>
     </row>
-    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41" t="s">
         <v>31</v>
       </c>
@@ -9724,12 +9772,12 @@
       <c r="E86" s="181"/>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="211"/>
+      <c r="H86" s="45"/>
       <c r="I86" s="177"/>
       <c r="J86" s="177"/>
       <c r="K86" s="209"/>
     </row>
-    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41" t="s">
         <v>32</v>
       </c>
@@ -9740,12 +9788,15 @@
       <c r="E87" s="181"/>
       <c r="F87" s="45"/>
       <c r="G87" s="45"/>
-      <c r="H87" s="211"/>
+      <c r="H87" s="45">
+        <f t="shared" ref="H87" si="10">H86</f>
+        <v>0</v>
+      </c>
       <c r="I87" s="177"/>
       <c r="J87" s="177"/>
       <c r="K87" s="210"/>
     </row>
-    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41" t="s">
         <v>33</v>
       </c>
@@ -9756,12 +9807,12 @@
       <c r="E88" s="181"/>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
-      <c r="H88" s="211"/>
+      <c r="H88" s="45"/>
       <c r="I88" s="177"/>
       <c r="J88" s="177"/>
       <c r="K88" s="209"/>
     </row>
-    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41" t="s">
         <v>34</v>
       </c>
@@ -9772,12 +9823,15 @@
       <c r="E89" s="181"/>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
-      <c r="H89" s="211"/>
+      <c r="H89" s="45">
+        <f t="shared" ref="H89" si="11">H88</f>
+        <v>0</v>
+      </c>
       <c r="I89" s="177"/>
       <c r="J89" s="177"/>
       <c r="K89" s="210"/>
     </row>
-    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
       <c r="C90" s="31"/>
       <c r="D90" s="32"/>
@@ -9790,7 +9844,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="191"/>
       <c r="C91" s="31"/>
       <c r="D91" s="32"/>
@@ -9806,7 +9860,7 @@
       </c>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="191"/>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
@@ -9819,20 +9873,20 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="221"/>
-      <c r="H93" s="222"/>
+      <c r="G93" s="223"/>
+      <c r="H93" s="224"/>
       <c r="I93" s="29"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="132" t="s">
         <v>153</v>
       </c>
@@ -9841,7 +9895,7 @@
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
     </row>
-    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="188" t="s">
         <v>15</v>
       </c>
@@ -9874,7 +9928,7 @@
       </c>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41" t="s">
         <v>18</v>
       </c>
@@ -9891,7 +9945,7 @@
       <c r="K96" s="46"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41" t="s">
         <v>26</v>
       </c>
@@ -9908,7 +9962,7 @@
       <c r="K97" s="47"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41" t="s">
         <v>27</v>
       </c>
@@ -9925,7 +9979,7 @@
       <c r="K98" s="46"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41" t="s">
         <v>28</v>
       </c>
@@ -9942,7 +9996,7 @@
       <c r="K99" s="47"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41" t="s">
         <v>29</v>
       </c>
@@ -9959,7 +10013,7 @@
       <c r="K100" s="46"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41" t="s">
         <v>30</v>
       </c>
@@ -9976,7 +10030,7 @@
       <c r="K101" s="47"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="41" t="s">
         <v>31</v>
       </c>
@@ -9993,7 +10047,7 @@
       <c r="K102" s="46"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41" t="s">
         <v>32</v>
       </c>
@@ -10010,7 +10064,7 @@
       <c r="K103" s="47"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41" t="s">
         <v>33</v>
       </c>
@@ -10027,7 +10081,7 @@
       <c r="K104" s="46"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="41" t="s">
         <v>34</v>
       </c>
@@ -10044,7 +10098,7 @@
       <c r="K105" s="47"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="32"/>
@@ -10057,7 +10111,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="132" t="s">
         <v>180</v>
       </c>
@@ -10072,7 +10126,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="2:12" s="182" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" s="182" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="175" t="s">
         <v>136</v>
       </c>
@@ -10105,7 +10159,7 @@
       </c>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="41" t="s">
         <v>18</v>
       </c>
@@ -10116,13 +10170,13 @@
       <c r="E109" s="181"/>
       <c r="F109" s="45"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="211"/>
+      <c r="H109" s="45"/>
       <c r="I109" s="177"/>
       <c r="J109" s="177"/>
       <c r="K109" s="209"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41" t="s">
         <v>26</v>
       </c>
@@ -10133,13 +10187,16 @@
       <c r="E110" s="181"/>
       <c r="F110" s="45"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="211"/>
+      <c r="H110" s="45">
+        <f>H109</f>
+        <v>0</v>
+      </c>
       <c r="I110" s="177"/>
       <c r="J110" s="177"/>
       <c r="K110" s="210"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="41" t="s">
         <v>27</v>
       </c>
@@ -10150,13 +10207,13 @@
       <c r="E111" s="181"/>
       <c r="F111" s="45"/>
       <c r="G111" s="45"/>
-      <c r="H111" s="211"/>
+      <c r="H111" s="45"/>
       <c r="I111" s="177"/>
       <c r="J111" s="177"/>
       <c r="K111" s="209"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="41" t="s">
         <v>28</v>
       </c>
@@ -10167,13 +10224,16 @@
       <c r="E112" s="181"/>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
-      <c r="H112" s="211"/>
+      <c r="H112" s="45">
+        <f t="shared" ref="H112" si="12">H111</f>
+        <v>0</v>
+      </c>
       <c r="I112" s="177"/>
       <c r="J112" s="177"/>
       <c r="K112" s="210"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="41" t="s">
         <v>29</v>
       </c>
@@ -10184,13 +10244,13 @@
       <c r="E113" s="181"/>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
-      <c r="H113" s="211"/>
+      <c r="H113" s="45"/>
       <c r="I113" s="177"/>
       <c r="J113" s="177"/>
       <c r="K113" s="209"/>
       <c r="L113" s="27"/>
     </row>
-    <row r="114" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="41" t="s">
         <v>30</v>
       </c>
@@ -10201,13 +10261,16 @@
       <c r="E114" s="181"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
-      <c r="H114" s="211"/>
+      <c r="H114" s="45">
+        <f t="shared" ref="H114" si="13">H113</f>
+        <v>0</v>
+      </c>
       <c r="I114" s="177"/>
       <c r="J114" s="177"/>
       <c r="K114" s="210"/>
       <c r="L114" s="27"/>
     </row>
-    <row r="115" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="41" t="s">
         <v>31</v>
       </c>
@@ -10218,13 +10281,13 @@
       <c r="E115" s="181"/>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
-      <c r="H115" s="211"/>
+      <c r="H115" s="45"/>
       <c r="I115" s="177"/>
       <c r="J115" s="177"/>
       <c r="K115" s="209"/>
       <c r="L115" s="27"/>
     </row>
-    <row r="116" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="41" t="s">
         <v>32</v>
       </c>
@@ -10235,13 +10298,16 @@
       <c r="E116" s="181"/>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
-      <c r="H116" s="211"/>
+      <c r="H116" s="45">
+        <f t="shared" ref="H116" si="14">H115</f>
+        <v>0</v>
+      </c>
       <c r="I116" s="177"/>
       <c r="J116" s="177"/>
       <c r="K116" s="210"/>
       <c r="L116" s="27"/>
     </row>
-    <row r="117" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="41" t="s">
         <v>33</v>
       </c>
@@ -10252,13 +10318,13 @@
       <c r="E117" s="181"/>
       <c r="F117" s="45"/>
       <c r="G117" s="45"/>
-      <c r="H117" s="211"/>
+      <c r="H117" s="45"/>
       <c r="I117" s="177"/>
       <c r="J117" s="177"/>
       <c r="K117" s="209"/>
       <c r="L117" s="27"/>
     </row>
-    <row r="118" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="182" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="41" t="s">
         <v>34</v>
       </c>
@@ -10269,13 +10335,16 @@
       <c r="E118" s="181"/>
       <c r="F118" s="45"/>
       <c r="G118" s="45"/>
-      <c r="H118" s="211"/>
+      <c r="H118" s="45">
+        <f t="shared" ref="H118" si="15">H117</f>
+        <v>0</v>
+      </c>
       <c r="I118" s="177"/>
       <c r="J118" s="177"/>
       <c r="K118" s="210"/>
       <c r="L118" s="27"/>
     </row>
-    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="30"/>
       <c r="C119" s="23"/>
@@ -10284,7 +10353,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="35"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
         <v>17</v>
       </c>
@@ -10299,7 +10368,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="39"/>
     </row>
-    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="34" t="s">
         <v>8</v>
       </c>
@@ -10314,21 +10383,21 @@
       <c r="H121" s="38"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="223" t="s">
+    <row r="122" spans="1:12" ht="40.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="C122" s="223"/>
-      <c r="D122" s="223"/>
-      <c r="E122" s="223"/>
-      <c r="F122" s="223"/>
-      <c r="G122" s="223"/>
-      <c r="H122" s="223"/>
-      <c r="I122" s="223"/>
-      <c r="J122" s="223"/>
-      <c r="K122" s="223"/>
-    </row>
-    <row r="123" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C122" s="225"/>
+      <c r="D122" s="225"/>
+      <c r="E122" s="225"/>
+      <c r="F122" s="225"/>
+      <c r="G122" s="225"/>
+      <c r="H122" s="225"/>
+      <c r="I122" s="225"/>
+      <c r="J122" s="225"/>
+      <c r="K122" s="225"/>
+    </row>
+    <row r="123" spans="1:12" s="71" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A123" s="64"/>
       <c r="B123" s="134" t="s">
         <v>45</v>
@@ -10339,56 +10408,56 @@
       <c r="F123" s="118"/>
       <c r="H123" s="114"/>
     </row>
-    <row r="124" spans="1:12" s="71" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="71" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="64">
         <v>2</v>
       </c>
-      <c r="B124" s="217" t="s">
+      <c r="B124" s="222" t="s">
         <v>170</v>
       </c>
-      <c r="C124" s="217"/>
-      <c r="D124" s="217"/>
-      <c r="E124" s="217"/>
-      <c r="F124" s="217"/>
-      <c r="G124" s="217"/>
-      <c r="H124" s="217"/>
-      <c r="I124" s="217"/>
-      <c r="J124" s="217"/>
-      <c r="K124" s="217"/>
-    </row>
-    <row r="125" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C124" s="222"/>
+      <c r="D124" s="222"/>
+      <c r="E124" s="222"/>
+      <c r="F124" s="222"/>
+      <c r="G124" s="222"/>
+      <c r="H124" s="222"/>
+      <c r="I124" s="222"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="222"/>
+    </row>
+    <row r="125" spans="1:12" s="71" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A125" s="64"/>
-      <c r="B125" s="216" t="s">
+      <c r="B125" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="216"/>
-      <c r="D125" s="216"/>
-      <c r="E125" s="216"/>
-      <c r="F125" s="216"/>
-      <c r="G125" s="216"/>
-      <c r="H125" s="216"/>
-      <c r="I125" s="216"/>
-      <c r="J125" s="216"/>
-      <c r="K125" s="216"/>
-    </row>
-    <row r="126" spans="1:12" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="221"/>
+      <c r="D125" s="221"/>
+      <c r="E125" s="221"/>
+      <c r="F125" s="221"/>
+      <c r="G125" s="221"/>
+      <c r="H125" s="221"/>
+      <c r="I125" s="221"/>
+      <c r="J125" s="221"/>
+      <c r="K125" s="221"/>
+    </row>
+    <row r="126" spans="1:12" s="71" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="64">
         <v>3</v>
       </c>
-      <c r="B126" s="217" t="s">
+      <c r="B126" s="222" t="s">
         <v>169</v>
       </c>
-      <c r="C126" s="217"/>
-      <c r="D126" s="217"/>
-      <c r="E126" s="217"/>
-      <c r="F126" s="217"/>
-      <c r="G126" s="217"/>
-      <c r="H126" s="217"/>
-      <c r="I126" s="217"/>
-      <c r="J126" s="217"/>
-      <c r="K126" s="217"/>
-    </row>
-    <row r="127" spans="1:12" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C126" s="222"/>
+      <c r="D126" s="222"/>
+      <c r="E126" s="222"/>
+      <c r="F126" s="222"/>
+      <c r="G126" s="222"/>
+      <c r="H126" s="222"/>
+      <c r="I126" s="222"/>
+      <c r="J126" s="222"/>
+      <c r="K126" s="222"/>
+    </row>
+    <row r="127" spans="1:12" s="71" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A127" s="64"/>
       <c r="B127" s="134"/>
       <c r="C127" s="115"/>
@@ -10397,7 +10466,7 @@
       <c r="F127" s="118"/>
       <c r="H127" s="114"/>
     </row>
-    <row r="128" spans="1:12" s="71" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="71" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="64"/>
       <c r="B128" s="4" t="s">
         <v>11</v>
@@ -10412,64 +10481,37 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" s="71" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="71" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A129" s="64"/>
-      <c r="B129" s="216"/>
-      <c r="C129" s="216"/>
-      <c r="D129" s="216"/>
-      <c r="E129" s="216"/>
-      <c r="F129" s="216"/>
-      <c r="G129" s="216"/>
-      <c r="H129" s="216"/>
-      <c r="I129" s="216"/>
-      <c r="J129" s="216"/>
-      <c r="K129" s="216"/>
-    </row>
-    <row r="130" spans="1:11" s="71" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="221"/>
+      <c r="C129" s="221"/>
+      <c r="D129" s="221"/>
+      <c r="E129" s="221"/>
+      <c r="F129" s="221"/>
+      <c r="G129" s="221"/>
+      <c r="H129" s="221"/>
+      <c r="I129" s="221"/>
+      <c r="J129" s="221"/>
+      <c r="K129" s="221"/>
+    </row>
+    <row r="130" spans="1:11" s="71" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="64"/>
-      <c r="B130" s="217"/>
-      <c r="C130" s="217"/>
-      <c r="D130" s="217"/>
-      <c r="E130" s="217"/>
-      <c r="F130" s="217"/>
-      <c r="G130" s="217"/>
-      <c r="H130" s="217"/>
-      <c r="I130" s="217"/>
-      <c r="J130" s="217"/>
-      <c r="K130" s="217"/>
-    </row>
-    <row r="131" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B130" s="222"/>
+      <c r="C130" s="222"/>
+      <c r="D130" s="222"/>
+      <c r="E130" s="222"/>
+      <c r="F130" s="222"/>
+      <c r="G130" s="222"/>
+      <c r="H130" s="222"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="222"/>
+    </row>
+    <row r="131" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:11" ht="41.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="B129:K129"/>
     <mergeCell ref="B130:K130"/>
     <mergeCell ref="E15:F15"/>
@@ -10483,6 +10525,33 @@
     <mergeCell ref="B124:K124"/>
     <mergeCell ref="B125:K125"/>
     <mergeCell ref="B126:K126"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B9">
@@ -10588,55 +10657,55 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3:S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="136" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="136" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="136" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="136" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="136" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="136" customWidth="1"/>
-    <col min="18" max="19" width="11.875" style="136" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="136" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="153" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="136" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="136" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="136" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="136" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="136" customWidth="1"/>
+    <col min="18" max="19" width="11.88671875" style="136" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="136" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="153" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="153" customWidth="1"/>
     <col min="25" max="27" width="11" style="162" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="153" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="161" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="161" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="149" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="136"/>
+    <col min="28" max="31" width="11.109375" style="153" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="161" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="161" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="149" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="136"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="232"/>
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155"/>
       <c r="B1" s="155"/>
-      <c r="U1" s="227" t="s">
+      <c r="U1" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227" t="s">
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="227"/>
-      <c r="AH1" s="227"/>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="227"/>
-      <c r="AK1" s="227"/>
-    </row>
-    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+      <c r="AC1" s="226"/>
+      <c r="AD1" s="226"/>
+      <c r="AE1" s="226"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="226"/>
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="226"/>
+      <c r="AJ1" s="226"/>
+      <c r="AK1" s="226"/>
+    </row>
+    <row r="2" spans="1:37" ht="73.25" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
         <v>108</v>
       </c>
@@ -10749,7 +10818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="137"/>
       <c r="B3" s="137"/>
       <c r="C3" s="141"/>
@@ -10768,7 +10837,7 @@
       <c r="P3" s="142"/>
       <c r="Q3" s="142"/>
       <c r="R3" s="139"/>
-      <c r="S3" s="212"/>
+      <c r="S3" s="211"/>
       <c r="T3" s="143"/>
       <c r="U3" s="152"/>
       <c r="V3" s="154"/>
@@ -10788,7 +10857,7 @@
       <c r="AJ3" s="148"/>
       <c r="AK3" s="148"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="137"/>
       <c r="B4" s="137"/>
       <c r="C4" s="141"/>
@@ -10807,7 +10876,7 @@
       <c r="P4" s="142"/>
       <c r="Q4" s="142"/>
       <c r="R4" s="139"/>
-      <c r="S4" s="212"/>
+      <c r="S4" s="211"/>
       <c r="T4" s="143"/>
       <c r="U4" s="152"/>
       <c r="V4" s="154"/>
@@ -10827,7 +10896,7 @@
       <c r="AJ4" s="148"/>
       <c r="AK4" s="148"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="137"/>
       <c r="B5" s="137"/>
       <c r="C5" s="141"/>
@@ -10846,7 +10915,7 @@
       <c r="P5" s="142"/>
       <c r="Q5" s="142"/>
       <c r="R5" s="139"/>
-      <c r="S5" s="212"/>
+      <c r="S5" s="211"/>
       <c r="T5" s="143"/>
       <c r="U5" s="152"/>
       <c r="V5" s="154"/>
@@ -10866,7 +10935,7 @@
       <c r="AJ5" s="148"/>
       <c r="AK5" s="148"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="137"/>
       <c r="B6" s="137"/>
       <c r="C6" s="141"/>
@@ -10885,7 +10954,7 @@
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
       <c r="R6" s="139"/>
-      <c r="S6" s="212"/>
+      <c r="S6" s="211"/>
       <c r="T6" s="143"/>
       <c r="U6" s="152"/>
       <c r="V6" s="154"/>
@@ -10905,7 +10974,7 @@
       <c r="AJ6" s="148"/>
       <c r="AK6" s="148"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="137"/>
       <c r="B7" s="137"/>
       <c r="C7" s="141"/>
@@ -10924,7 +10993,7 @@
       <c r="P7" s="142"/>
       <c r="Q7" s="142"/>
       <c r="R7" s="139"/>
-      <c r="S7" s="212"/>
+      <c r="S7" s="211"/>
       <c r="T7" s="143"/>
       <c r="U7" s="152"/>
       <c r="V7" s="154"/>
@@ -10944,7 +11013,7 @@
       <c r="AJ7" s="148"/>
       <c r="AK7" s="148"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="137"/>
       <c r="B8" s="137"/>
       <c r="C8" s="141"/>
@@ -10963,7 +11032,7 @@
       <c r="P8" s="142"/>
       <c r="Q8" s="142"/>
       <c r="R8" s="139"/>
-      <c r="S8" s="212"/>
+      <c r="S8" s="211"/>
       <c r="T8" s="143"/>
       <c r="U8" s="152"/>
       <c r="V8" s="154"/>
@@ -10983,7 +11052,7 @@
       <c r="AJ8" s="148"/>
       <c r="AK8" s="148"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
       <c r="B9" s="137"/>
       <c r="C9" s="141"/>
@@ -11002,7 +11071,7 @@
       <c r="P9" s="142"/>
       <c r="Q9" s="142"/>
       <c r="R9" s="139"/>
-      <c r="S9" s="212"/>
+      <c r="S9" s="211"/>
       <c r="T9" s="143"/>
       <c r="U9" s="152"/>
       <c r="V9" s="154"/>
@@ -11022,7 +11091,7 @@
       <c r="AJ9" s="148"/>
       <c r="AK9" s="148"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137"/>
       <c r="B10" s="137"/>
       <c r="C10" s="141"/>
@@ -11041,7 +11110,7 @@
       <c r="P10" s="142"/>
       <c r="Q10" s="142"/>
       <c r="R10" s="139"/>
-      <c r="S10" s="212"/>
+      <c r="S10" s="211"/>
       <c r="T10" s="143"/>
       <c r="U10" s="152"/>
       <c r="V10" s="154"/>
@@ -11061,7 +11130,7 @@
       <c r="AJ10" s="148"/>
       <c r="AK10" s="148"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="137"/>
       <c r="B11" s="137"/>
       <c r="C11" s="141"/>
@@ -11080,7 +11149,7 @@
       <c r="P11" s="142"/>
       <c r="Q11" s="142"/>
       <c r="R11" s="139"/>
-      <c r="S11" s="212"/>
+      <c r="S11" s="211"/>
       <c r="T11" s="143"/>
       <c r="U11" s="152"/>
       <c r="V11" s="154"/>
@@ -11100,7 +11169,7 @@
       <c r="AJ11" s="148"/>
       <c r="AK11" s="148"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="137"/>
       <c r="B12" s="137"/>
       <c r="C12" s="141"/>
@@ -11119,7 +11188,7 @@
       <c r="P12" s="142"/>
       <c r="Q12" s="142"/>
       <c r="R12" s="139"/>
-      <c r="S12" s="212"/>
+      <c r="S12" s="211"/>
       <c r="T12" s="143"/>
       <c r="U12" s="152"/>
       <c r="V12" s="154"/>
@@ -11139,7 +11208,7 @@
       <c r="AJ12" s="148"/>
       <c r="AK12" s="148"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="137"/>
       <c r="B13" s="137"/>
       <c r="C13" s="141"/>
@@ -11158,7 +11227,7 @@
       <c r="P13" s="142"/>
       <c r="Q13" s="142"/>
       <c r="R13" s="139"/>
-      <c r="S13" s="212"/>
+      <c r="S13" s="211"/>
       <c r="T13" s="143"/>
       <c r="U13" s="152"/>
       <c r="V13" s="154"/>
@@ -11178,7 +11247,7 @@
       <c r="AJ13" s="148"/>
       <c r="AK13" s="148"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="137"/>
       <c r="B14" s="137"/>
       <c r="C14" s="141"/>
@@ -11197,7 +11266,7 @@
       <c r="P14" s="142"/>
       <c r="Q14" s="142"/>
       <c r="R14" s="139"/>
-      <c r="S14" s="212"/>
+      <c r="S14" s="211"/>
       <c r="T14" s="143"/>
       <c r="U14" s="152"/>
       <c r="V14" s="154"/>
@@ -11217,7 +11286,7 @@
       <c r="AJ14" s="148"/>
       <c r="AK14" s="148"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="137"/>
       <c r="B15" s="137"/>
       <c r="C15" s="141"/>
@@ -11236,7 +11305,7 @@
       <c r="P15" s="142"/>
       <c r="Q15" s="142"/>
       <c r="R15" s="139"/>
-      <c r="S15" s="212"/>
+      <c r="S15" s="211"/>
       <c r="T15" s="143"/>
       <c r="U15" s="152"/>
       <c r="V15" s="154"/>
@@ -11256,7 +11325,7 @@
       <c r="AJ15" s="148"/>
       <c r="AK15" s="148"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="137"/>
       <c r="B16" s="137"/>
       <c r="C16" s="141"/>
@@ -11275,7 +11344,7 @@
       <c r="P16" s="142"/>
       <c r="Q16" s="142"/>
       <c r="R16" s="139"/>
-      <c r="S16" s="212"/>
+      <c r="S16" s="211"/>
       <c r="T16" s="143"/>
       <c r="U16" s="152"/>
       <c r="V16" s="154"/>
@@ -11295,7 +11364,7 @@
       <c r="AJ16" s="148"/>
       <c r="AK16" s="148"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="137"/>
       <c r="B17" s="137"/>
       <c r="C17" s="141"/>
@@ -11314,7 +11383,7 @@
       <c r="P17" s="142"/>
       <c r="Q17" s="142"/>
       <c r="R17" s="139"/>
-      <c r="S17" s="212"/>
+      <c r="S17" s="211"/>
       <c r="T17" s="143"/>
       <c r="U17" s="152"/>
       <c r="V17" s="154"/>
@@ -11334,7 +11403,7 @@
       <c r="AJ17" s="148"/>
       <c r="AK17" s="148"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="137"/>
       <c r="B18" s="137"/>
       <c r="C18" s="141"/>
@@ -11353,7 +11422,7 @@
       <c r="P18" s="142"/>
       <c r="Q18" s="142"/>
       <c r="R18" s="139"/>
-      <c r="S18" s="212"/>
+      <c r="S18" s="211"/>
       <c r="T18" s="143"/>
       <c r="U18" s="152"/>
       <c r="V18" s="154"/>
@@ -11373,7 +11442,7 @@
       <c r="AJ18" s="148"/>
       <c r="AK18" s="148"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="137"/>
       <c r="B19" s="137"/>
       <c r="C19" s="141"/>
@@ -11392,7 +11461,7 @@
       <c r="P19" s="142"/>
       <c r="Q19" s="142"/>
       <c r="R19" s="139"/>
-      <c r="S19" s="212"/>
+      <c r="S19" s="211"/>
       <c r="T19" s="143"/>
       <c r="U19" s="152"/>
       <c r="V19" s="154"/>
@@ -11412,7 +11481,7 @@
       <c r="AJ19" s="148"/>
       <c r="AK19" s="148"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="137"/>
       <c r="B20" s="137"/>
       <c r="C20" s="141"/>
@@ -11431,7 +11500,7 @@
       <c r="P20" s="142"/>
       <c r="Q20" s="142"/>
       <c r="R20" s="139"/>
-      <c r="S20" s="212"/>
+      <c r="S20" s="211"/>
       <c r="T20" s="143"/>
       <c r="U20" s="152"/>
       <c r="V20" s="154"/>
@@ -11451,7 +11520,7 @@
       <c r="AJ20" s="148"/>
       <c r="AK20" s="148"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137"/>
       <c r="B21" s="137"/>
       <c r="C21" s="141"/>
@@ -11470,7 +11539,7 @@
       <c r="P21" s="142"/>
       <c r="Q21" s="142"/>
       <c r="R21" s="139"/>
-      <c r="S21" s="212"/>
+      <c r="S21" s="211"/>
       <c r="T21" s="143"/>
       <c r="U21" s="152"/>
       <c r="V21" s="154"/>
@@ -11490,7 +11559,7 @@
       <c r="AJ21" s="148"/>
       <c r="AK21" s="148"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="137"/>
       <c r="B22" s="137"/>
       <c r="C22" s="141"/>
@@ -11509,7 +11578,7 @@
       <c r="P22" s="142"/>
       <c r="Q22" s="142"/>
       <c r="R22" s="139"/>
-      <c r="S22" s="212"/>
+      <c r="S22" s="211"/>
       <c r="T22" s="143"/>
       <c r="U22" s="152"/>
       <c r="V22" s="154"/>
@@ -11529,7 +11598,7 @@
       <c r="AJ22" s="148"/>
       <c r="AK22" s="148"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="137"/>
       <c r="B23" s="137"/>
       <c r="C23" s="141"/>
@@ -11548,7 +11617,7 @@
       <c r="P23" s="142"/>
       <c r="Q23" s="142"/>
       <c r="R23" s="139"/>
-      <c r="S23" s="212"/>
+      <c r="S23" s="211"/>
       <c r="T23" s="143"/>
       <c r="U23" s="152"/>
       <c r="V23" s="154"/>
@@ -11568,7 +11637,7 @@
       <c r="AJ23" s="148"/>
       <c r="AK23" s="148"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="137"/>
       <c r="B24" s="137"/>
       <c r="C24" s="141"/>
@@ -11587,7 +11656,7 @@
       <c r="P24" s="142"/>
       <c r="Q24" s="142"/>
       <c r="R24" s="139"/>
-      <c r="S24" s="212"/>
+      <c r="S24" s="211"/>
       <c r="T24" s="143"/>
       <c r="U24" s="152"/>
       <c r="V24" s="154"/>
@@ -11607,7 +11676,7 @@
       <c r="AJ24" s="148"/>
       <c r="AK24" s="148"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="137"/>
       <c r="B25" s="137"/>
       <c r="C25" s="141"/>
@@ -11626,7 +11695,7 @@
       <c r="P25" s="142"/>
       <c r="Q25" s="142"/>
       <c r="R25" s="139"/>
-      <c r="S25" s="212"/>
+      <c r="S25" s="211"/>
       <c r="T25" s="143"/>
       <c r="U25" s="152"/>
       <c r="V25" s="154"/>
@@ -11646,7 +11715,7 @@
       <c r="AJ25" s="148"/>
       <c r="AK25" s="148"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="141"/>
@@ -11665,7 +11734,7 @@
       <c r="P26" s="142"/>
       <c r="Q26" s="142"/>
       <c r="R26" s="139"/>
-      <c r="S26" s="212"/>
+      <c r="S26" s="211"/>
       <c r="T26" s="143"/>
       <c r="U26" s="152"/>
       <c r="V26" s="154"/>
@@ -11685,7 +11754,7 @@
       <c r="AJ26" s="148"/>
       <c r="AK26" s="148"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="137"/>
       <c r="B27" s="137"/>
       <c r="C27" s="141"/>
@@ -11704,7 +11773,7 @@
       <c r="P27" s="142"/>
       <c r="Q27" s="142"/>
       <c r="R27" s="139"/>
-      <c r="S27" s="212"/>
+      <c r="S27" s="211"/>
       <c r="T27" s="143"/>
       <c r="U27" s="152"/>
       <c r="V27" s="154"/>
@@ -11724,7 +11793,7 @@
       <c r="AJ27" s="148"/>
       <c r="AK27" s="148"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="137"/>
       <c r="B28" s="137"/>
       <c r="C28" s="141"/>
@@ -11743,7 +11812,7 @@
       <c r="P28" s="142"/>
       <c r="Q28" s="142"/>
       <c r="R28" s="139"/>
-      <c r="S28" s="212"/>
+      <c r="S28" s="211"/>
       <c r="T28" s="143"/>
       <c r="U28" s="152"/>
       <c r="V28" s="154"/>
@@ -11763,7 +11832,7 @@
       <c r="AJ28" s="148"/>
       <c r="AK28" s="148"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="137"/>
       <c r="B29" s="137"/>
       <c r="C29" s="141"/>
@@ -11782,7 +11851,7 @@
       <c r="P29" s="142"/>
       <c r="Q29" s="142"/>
       <c r="R29" s="139"/>
-      <c r="S29" s="212"/>
+      <c r="S29" s="211"/>
       <c r="T29" s="143"/>
       <c r="U29" s="152"/>
       <c r="V29" s="154"/>
@@ -11802,7 +11871,7 @@
       <c r="AJ29" s="148"/>
       <c r="AK29" s="148"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="137"/>
       <c r="B30" s="137"/>
       <c r="C30" s="141"/>
@@ -11821,7 +11890,7 @@
       <c r="P30" s="142"/>
       <c r="Q30" s="142"/>
       <c r="R30" s="139"/>
-      <c r="S30" s="212"/>
+      <c r="S30" s="211"/>
       <c r="T30" s="143"/>
       <c r="U30" s="152"/>
       <c r="V30" s="154"/>
@@ -11841,10 +11910,10 @@
       <c r="AJ30" s="148"/>
       <c r="AK30" s="148"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="167"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U34" s="166" t="s">
         <v>110</v>
       </c>
@@ -11870,24 +11939,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="136" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="136" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="136" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="136" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="136" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="136" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="136" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="136" customWidth="1"/>
     <col min="21" max="21" width="11" style="158" customWidth="1"/>
     <col min="22" max="24" width="11" customWidth="1"/>
     <col min="25" max="27" width="11" style="163" customWidth="1"/>
@@ -11897,32 +11966,31 @@
     <col min="35" max="37" width="11" style="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="233"/>
+    <row r="1" spans="1:37" s="136" customFormat="1" ht="41.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="U1" s="228" t="s">
+      <c r="U1" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="229" t="s">
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="230"/>
-      <c r="AJ1" s="230"/>
-      <c r="AK1" s="231"/>
-    </row>
-    <row r="2" spans="1:37" s="136" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="230"/>
+    </row>
+    <row r="2" spans="1:37" s="136" customFormat="1" ht="73.25" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
         <v>108</v>
       </c>
@@ -12035,7 +12103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="137"/>
       <c r="B3" s="137"/>
       <c r="C3" s="141"/>
@@ -12074,7 +12142,7 @@
       <c r="AJ3" s="148"/>
       <c r="AK3" s="148"/>
     </row>
-    <row r="4" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="137"/>
       <c r="B4" s="137"/>
       <c r="C4" s="141"/>
@@ -12113,7 +12181,7 @@
       <c r="AJ4" s="148"/>
       <c r="AK4" s="148"/>
     </row>
-    <row r="5" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="137"/>
       <c r="B5" s="137"/>
       <c r="C5" s="141"/>
@@ -12152,7 +12220,7 @@
       <c r="AJ5" s="148"/>
       <c r="AK5" s="148"/>
     </row>
-    <row r="6" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="137"/>
       <c r="B6" s="137"/>
       <c r="C6" s="141"/>
@@ -12191,7 +12259,7 @@
       <c r="AJ6" s="148"/>
       <c r="AK6" s="148"/>
     </row>
-    <row r="7" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="137"/>
       <c r="B7" s="137"/>
       <c r="C7" s="141"/>
@@ -12230,7 +12298,7 @@
       <c r="AJ7" s="148"/>
       <c r="AK7" s="148"/>
     </row>
-    <row r="8" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="137"/>
       <c r="B8" s="137"/>
       <c r="C8" s="141"/>
@@ -12269,7 +12337,7 @@
       <c r="AJ8" s="148"/>
       <c r="AK8" s="148"/>
     </row>
-    <row r="9" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
       <c r="B9" s="137"/>
       <c r="C9" s="141"/>
@@ -12308,7 +12376,7 @@
       <c r="AJ9" s="148"/>
       <c r="AK9" s="148"/>
     </row>
-    <row r="10" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137"/>
       <c r="B10" s="137"/>
       <c r="C10" s="141"/>
@@ -12347,7 +12415,7 @@
       <c r="AJ10" s="148"/>
       <c r="AK10" s="148"/>
     </row>
-    <row r="11" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="137"/>
       <c r="B11" s="137"/>
       <c r="C11" s="141"/>
@@ -12386,7 +12454,7 @@
       <c r="AJ11" s="148"/>
       <c r="AK11" s="148"/>
     </row>
-    <row r="12" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="137"/>
       <c r="B12" s="137"/>
       <c r="C12" s="141"/>
@@ -12425,7 +12493,7 @@
       <c r="AJ12" s="148"/>
       <c r="AK12" s="148"/>
     </row>
-    <row r="13" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="137"/>
       <c r="B13" s="137"/>
       <c r="C13" s="141"/>
@@ -12464,7 +12532,7 @@
       <c r="AJ13" s="148"/>
       <c r="AK13" s="148"/>
     </row>
-    <row r="14" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="137"/>
       <c r="B14" s="137"/>
       <c r="C14" s="141"/>
@@ -12503,7 +12571,7 @@
       <c r="AJ14" s="148"/>
       <c r="AK14" s="148"/>
     </row>
-    <row r="15" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="137"/>
       <c r="B15" s="137"/>
       <c r="C15" s="141"/>
@@ -12542,7 +12610,7 @@
       <c r="AJ15" s="148"/>
       <c r="AK15" s="148"/>
     </row>
-    <row r="16" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="137"/>
       <c r="B16" s="137"/>
       <c r="C16" s="141"/>
@@ -12581,7 +12649,7 @@
       <c r="AJ16" s="148"/>
       <c r="AK16" s="148"/>
     </row>
-    <row r="17" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="137"/>
       <c r="B17" s="137"/>
       <c r="C17" s="141"/>
@@ -12620,7 +12688,7 @@
       <c r="AJ17" s="148"/>
       <c r="AK17" s="148"/>
     </row>
-    <row r="18" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="137"/>
       <c r="B18" s="137"/>
       <c r="C18" s="141"/>
@@ -12659,7 +12727,7 @@
       <c r="AJ18" s="148"/>
       <c r="AK18" s="148"/>
     </row>
-    <row r="19" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="137"/>
       <c r="B19" s="137"/>
       <c r="C19" s="141"/>
@@ -12698,7 +12766,7 @@
       <c r="AJ19" s="148"/>
       <c r="AK19" s="148"/>
     </row>
-    <row r="20" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="137"/>
       <c r="B20" s="137"/>
       <c r="C20" s="141"/>
@@ -12737,7 +12805,7 @@
       <c r="AJ20" s="148"/>
       <c r="AK20" s="148"/>
     </row>
-    <row r="21" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137"/>
       <c r="B21" s="137"/>
       <c r="C21" s="141"/>
@@ -12776,7 +12844,7 @@
       <c r="AJ21" s="148"/>
       <c r="AK21" s="148"/>
     </row>
-    <row r="22" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="137"/>
       <c r="B22" s="137"/>
       <c r="C22" s="141"/>
@@ -12815,7 +12883,7 @@
       <c r="AJ22" s="148"/>
       <c r="AK22" s="148"/>
     </row>
-    <row r="23" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="137"/>
       <c r="B23" s="137"/>
       <c r="C23" s="141"/>
@@ -12854,7 +12922,7 @@
       <c r="AJ23" s="148"/>
       <c r="AK23" s="148"/>
     </row>
-    <row r="24" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="137"/>
       <c r="B24" s="137"/>
       <c r="C24" s="141"/>
@@ -12893,7 +12961,7 @@
       <c r="AJ24" s="148"/>
       <c r="AK24" s="148"/>
     </row>
-    <row r="25" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="137"/>
       <c r="B25" s="137"/>
       <c r="C25" s="141"/>
@@ -12932,7 +13000,7 @@
       <c r="AJ25" s="148"/>
       <c r="AK25" s="148"/>
     </row>
-    <row r="26" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="141"/>
@@ -12971,7 +13039,7 @@
       <c r="AJ26" s="148"/>
       <c r="AK26" s="148"/>
     </row>
-    <row r="27" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="137"/>
       <c r="B27" s="137"/>
       <c r="C27" s="141"/>
@@ -13010,7 +13078,7 @@
       <c r="AJ27" s="148"/>
       <c r="AK27" s="148"/>
     </row>
-    <row r="28" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="137"/>
       <c r="B28" s="137"/>
       <c r="C28" s="141"/>
@@ -13049,7 +13117,7 @@
       <c r="AJ28" s="148"/>
       <c r="AK28" s="148"/>
     </row>
-    <row r="29" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="137"/>
       <c r="B29" s="137"/>
       <c r="C29" s="141"/>
@@ -13088,7 +13156,7 @@
       <c r="AJ29" s="148"/>
       <c r="AK29" s="148"/>
     </row>
-    <row r="30" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="136" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="137"/>
       <c r="B30" s="137"/>
       <c r="C30" s="141"/>
@@ -13127,10 +13195,10 @@
       <c r="AJ30" s="148"/>
       <c r="AK30" s="148"/>
     </row>
-    <row r="33" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="166"/>
     </row>
-    <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U34" s="166" t="s">
         <v>110</v>
       </c>

--- a/PhoenixCI/Excel_Template/40011.xlsx
+++ b/PhoenixCI/Excel_Template/40011.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -3860,7 +3860,7 @@
   </si>
   <si>
     <r>
-      <t>以SMA及MAX計算保證金變動幅度已達</t>
+      <t>以SMA及MAX計算保證金變動幅度均未達</t>
     </r>
     <r>
       <rPr>
@@ -3879,13 +3879,32 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>得調整標準，且進位後金額改變。</t>
+      <t>得調整標準，或雖達得調整標準但進位後金額不變。</t>
     </r>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>以SMA及MAX計算保證金變動幅度均未達</t>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計算保證金變動幅度已達</t>
     </r>
     <r>
       <rPr>
@@ -3904,32 +3923,175 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>得調整標準，或雖達得調整標準但進位後金額不變。</t>
+      <t>得調整標準，且進位後金額改變。</t>
     </r>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>2.參考現貨資料，以EWMA計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>EWMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>計算保證金變動幅度已達</t>
+      <t>.參考現貨資料，以SMA或MAX計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.參考期貨資料，以EWMA計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.參考期貨資料，以SMA或MAX計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準。</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以SMA或MAX計算保證金變動幅度已達</t>
     </r>
     <r>
       <rPr>
@@ -3949,168 +4111,6 @@
         <charset val="136"/>
       </rPr>
       <t>得調整標準，且進位後金額改變。</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.參考現貨資料，以EWMA計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>.參考現貨資料，以SMA或MAX計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>.參考期貨資料，以EWMA計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5.參考期貨資料，以SMA或MAX計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準。</t>
     </r>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -4131,7 +4131,7 @@
     <numFmt numFmtId="183" formatCode="0.000%"/>
     <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5158,6 +5158,9 @@
     <xf numFmtId="176" fontId="29" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5167,39 +5170,42 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5214,12 +5220,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6348,11 +6348,11 @@
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="69" customWidth="1"/>
@@ -6369,30 +6369,30 @@
     <col min="14" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="I1" s="210" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I1" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="210"/>
+      <c r="J1" s="211"/>
       <c r="K1" s="191"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="199"/>
       <c r="K2" s="200"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="199"/>
       <c r="K3" s="200"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="199"/>
       <c r="K4" s="200"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="199"/>
       <c r="K5" s="200"/>
     </row>
-    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.1" customHeight="1">
+    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>0</v>
       </c>
@@ -6403,12 +6403,12 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="210"/>
       <c r="I6" s="55"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.45" customHeight="1">
+    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>2</v>
@@ -6440,7 +6440,7 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>19</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="63" t="s">
         <v>4</v>
@@ -6504,7 +6504,7 @@
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63" t="s">
         <v>5</v>
       </c>
@@ -6519,7 +6519,7 @@
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63" t="s">
         <v>128</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63" t="s">
         <v>129</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
     </row>
-    <row r="14" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63" t="s">
         <v>20</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
     </row>
-    <row r="15" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
         <v>21</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
         <v>167</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
     </row>
-    <row r="17" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63" t="s">
         <v>45</v>
       </c>
@@ -6609,7 +6609,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
     </row>
-    <row r="18" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="119" t="s">
         <v>46</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
     </row>
-    <row r="19" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="19" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="119" t="s">
         <v>52</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
     </row>
-    <row r="20" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="20" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="119"/>
       <c r="C20" s="122"/>
       <c r="D20" s="123"/>
@@ -6652,7 +6652,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
     </row>
-    <row r="21" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="21" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="119"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123"/>
@@ -6665,7 +6665,7 @@
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
     </row>
-    <row r="22" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="22" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="119"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
@@ -6678,7 +6678,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
     </row>
-    <row r="23" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="23" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123"/>
@@ -6691,7 +6691,7 @@
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
     </row>
-    <row r="24" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="24" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="119"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123"/>
@@ -6704,7 +6704,7 @@
       <c r="K24" s="68"/>
       <c r="L24" s="68"/>
     </row>
-    <row r="25" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="25" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="119"/>
       <c r="C25" s="122"/>
       <c r="D25" s="123"/>
@@ -6717,7 +6717,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="26" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="119"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
@@ -6730,7 +6730,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
     </row>
-    <row r="27" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="27" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="119"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
@@ -6743,7 +6743,7 @@
       <c r="K27" s="68"/>
       <c r="L27" s="68"/>
     </row>
-    <row r="28" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="119" t="s">
         <v>53</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="68"/>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="75" t="s">
         <v>48</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="125" t="s">
         <v>54</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="125" t="s">
         <v>57</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="129" t="s">
         <v>55</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:12" s="78" customFormat="1" ht="18.75">
+    <row r="33" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="125" t="s">
         <v>56</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
     </row>
-    <row r="34" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="34" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="77"/>
       <c r="C34" s="69"/>
       <c r="D34" s="69"/>
@@ -6829,7 +6829,7 @@
       <c r="K34" s="79"/>
       <c r="L34" s="79"/>
     </row>
-    <row r="35" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="35" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="77"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
@@ -6841,7 +6841,7 @@
       <c r="K35" s="79"/>
       <c r="L35" s="79"/>
     </row>
-    <row r="36" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="36" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="77"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
@@ -6853,7 +6853,7 @@
       <c r="K36" s="79"/>
       <c r="L36" s="79"/>
     </row>
-    <row r="37" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="37" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="77"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -6865,7 +6865,7 @@
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
     </row>
-    <row r="38" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="38" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="77"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
@@ -6877,7 +6877,7 @@
       <c r="K38" s="79"/>
       <c r="L38" s="79"/>
     </row>
-    <row r="39" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="39" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="77"/>
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
@@ -6889,7 +6889,7 @@
       <c r="K39" s="79"/>
       <c r="L39" s="79"/>
     </row>
-    <row r="40" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="40" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="77"/>
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
@@ -6901,7 +6901,7 @@
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
     </row>
-    <row r="41" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="41" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
@@ -6913,7 +6913,7 @@
       <c r="K41" s="79"/>
       <c r="L41" s="79"/>
     </row>
-    <row r="42" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="42" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="77"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
@@ -6925,7 +6925,7 @@
       <c r="K42" s="79"/>
       <c r="L42" s="79"/>
     </row>
-    <row r="43" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="43" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="77"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
@@ -6937,7 +6937,7 @@
       <c r="K43" s="79"/>
       <c r="L43" s="79"/>
     </row>
-    <row r="44" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="44" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="77"/>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -6949,7 +6949,7 @@
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
     </row>
-    <row r="45" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="45" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="77"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
@@ -6961,7 +6961,7 @@
       <c r="K45" s="79"/>
       <c r="L45" s="79"/>
     </row>
-    <row r="46" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
+    <row r="46" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="77"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
@@ -6973,7 +6973,7 @@
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
     </row>
-    <row r="47" spans="2:12" s="78" customFormat="1" ht="18.75">
+    <row r="47" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="77"/>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -6985,7 +6985,7 @@
       <c r="K47" s="79"/>
       <c r="L47" s="79"/>
     </row>
-    <row r="48" spans="2:12" s="78" customFormat="1" ht="18.75">
+    <row r="48" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="77"/>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
@@ -6997,7 +6997,7 @@
       <c r="K48" s="79"/>
       <c r="L48" s="79"/>
     </row>
-    <row r="49" spans="1:12" s="78" customFormat="1" ht="18.75">
+    <row r="49" spans="1:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="77"/>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
@@ -7009,7 +7009,7 @@
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
     </row>
-    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.1" customHeight="1">
+    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="K50" s="79"/>
       <c r="L50" s="79"/>
     </row>
-    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.4" customHeight="1">
+    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="51"/>
       <c r="B51" s="51" t="s">
         <v>156</v>
@@ -7043,7 +7043,7 @@
       <c r="K51" s="79"/>
       <c r="L51" s="79"/>
     </row>
-    <row r="52" spans="1:12" ht="26.25" customHeight="1">
+    <row r="52" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="180" t="s">
         <v>138</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="G52" s="84"/>
       <c r="H52" s="85"/>
     </row>
-    <row r="53" spans="1:12" ht="48.95" customHeight="1">
+    <row r="53" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="86" t="s">
         <v>2</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.25" customHeight="1">
+    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="63" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="I54" s="194"/>
       <c r="J54" s="202"/>
     </row>
-    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="70" t="s">
         <v>19</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="I55" s="194"/>
       <c r="J55" s="202"/>
     </row>
-    <row r="56" spans="1:12" ht="32.25" customHeight="1">
+    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="63" t="s">
         <v>4</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="I56" s="194"/>
       <c r="J56" s="202"/>
     </row>
-    <row r="57" spans="1:12" ht="32.25" customHeight="1">
+    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="63" t="s">
         <v>5</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="I57" s="194"/>
       <c r="J57" s="202"/>
     </row>
-    <row r="58" spans="1:12" ht="32.25" customHeight="1">
+    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="63" t="s">
         <v>128</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="I58" s="194"/>
       <c r="J58" s="202"/>
     </row>
-    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="51"/>
       <c r="B59" s="63" t="s">
         <v>20</v>
@@ -7162,7 +7162,7 @@
       <c r="I59" s="194"/>
       <c r="J59" s="202"/>
     </row>
-    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="51"/>
       <c r="B60" s="63" t="s">
         <v>21</v>
@@ -7176,7 +7176,7 @@
       <c r="I60" s="194"/>
       <c r="J60" s="202"/>
     </row>
-    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
       <c r="B61" s="63" t="s">
         <v>166</v>
@@ -7190,7 +7190,7 @@
       <c r="I61" s="195"/>
       <c r="J61" s="203"/>
     </row>
-    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="51"/>
       <c r="B62" s="63" t="s">
         <v>45</v>
@@ -7204,7 +7204,7 @@
       <c r="I62" s="195"/>
       <c r="J62" s="203"/>
     </row>
-    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="51"/>
       <c r="B63" s="119" t="s">
         <v>46</v>
@@ -7218,7 +7218,7 @@
       <c r="I63" s="195"/>
       <c r="J63" s="203"/>
     </row>
-    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="51"/>
       <c r="B64" s="119" t="s">
         <v>52</v>
@@ -7232,7 +7232,7 @@
       <c r="I64" s="195"/>
       <c r="J64" s="203"/>
     </row>
-    <row r="65" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="65" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="119"/>
       <c r="C65" s="122"/>
       <c r="D65" s="123"/>
@@ -7245,7 +7245,7 @@
       <c r="K65" s="68"/>
       <c r="L65" s="68"/>
     </row>
-    <row r="66" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="66" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="119"/>
       <c r="C66" s="122"/>
       <c r="D66" s="123"/>
@@ -7258,7 +7258,7 @@
       <c r="K66" s="68"/>
       <c r="L66" s="68"/>
     </row>
-    <row r="67" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="67" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="119"/>
       <c r="C67" s="122"/>
       <c r="D67" s="123"/>
@@ -7271,7 +7271,7 @@
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
     </row>
-    <row r="68" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="68" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="119"/>
       <c r="C68" s="122"/>
       <c r="D68" s="123"/>
@@ -7284,7 +7284,7 @@
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
     </row>
-    <row r="69" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="69" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="119"/>
       <c r="C69" s="122"/>
       <c r="D69" s="123"/>
@@ -7297,7 +7297,7 @@
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
     </row>
-    <row r="70" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="70" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="119"/>
       <c r="C70" s="122"/>
       <c r="D70" s="123"/>
@@ -7310,7 +7310,7 @@
       <c r="K70" s="68"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="71" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="119"/>
       <c r="C71" s="122"/>
       <c r="D71" s="123"/>
@@ -7323,7 +7323,7 @@
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
     </row>
-    <row r="72" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="72" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="119"/>
       <c r="C72" s="122"/>
       <c r="D72" s="123"/>
@@ -7336,7 +7336,7 @@
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
-    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="51"/>
       <c r="B73" s="119" t="s">
         <v>53</v>
@@ -7350,7 +7350,7 @@
       <c r="I73" s="195"/>
       <c r="J73" s="203"/>
     </row>
-    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="51"/>
       <c r="B74" s="98"/>
       <c r="C74" s="98"/>
@@ -7362,7 +7362,7 @@
       <c r="I74" s="93"/>
       <c r="J74" s="94"/>
     </row>
-    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="51"/>
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
@@ -7374,7 +7374,7 @@
       <c r="I75" s="93"/>
       <c r="J75" s="94"/>
     </row>
-    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="51"/>
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="K76" s="191"/>
     </row>
-    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1">
+    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="51"/>
       <c r="B77" s="51"/>
       <c r="C77" s="69"/>
@@ -7398,7 +7398,7 @@
       <c r="E77" s="101"/>
       <c r="F77" s="69"/>
     </row>
-    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1">
+    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
       <c r="C78" s="69"/>
@@ -7406,7 +7406,7 @@
       <c r="E78" s="101"/>
       <c r="F78" s="69"/>
     </row>
-    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1">
+    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="102"/>
       <c r="B79" s="180" t="s">
         <v>171</v>
@@ -7421,7 +7421,7 @@
       <c r="J79" s="95"/>
       <c r="K79" s="103"/>
     </row>
-    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.5" customHeight="1">
+    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="105"/>
       <c r="B80" s="161" t="s">
         <v>2</v>
@@ -7455,7 +7455,7 @@
       <c r="M80" s="106"/>
       <c r="N80" s="107"/>
     </row>
-    <row r="81" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
+    <row r="81" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="105"/>
       <c r="B81" s="63" t="s">
         <v>3</v>
@@ -7472,7 +7472,7 @@
       <c r="L81" s="110"/>
       <c r="M81" s="110"/>
     </row>
-    <row r="82" spans="1:13" s="108" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="82" spans="1:13" s="108" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="105"/>
       <c r="B82" s="70" t="s">
         <v>19</v>
@@ -7489,7 +7489,7 @@
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
     </row>
-    <row r="83" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
+    <row r="83" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="105"/>
       <c r="B83" s="63" t="s">
         <v>4</v>
@@ -7506,7 +7506,7 @@
       <c r="L83" s="110"/>
       <c r="M83" s="110"/>
     </row>
-    <row r="84" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
+    <row r="84" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="105"/>
       <c r="B84" s="63" t="s">
         <v>5</v>
@@ -7523,7 +7523,7 @@
       <c r="L84" s="110"/>
       <c r="M84" s="110"/>
     </row>
-    <row r="85" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
+    <row r="85" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="105"/>
       <c r="B85" s="63" t="s">
         <v>128</v>
@@ -7540,7 +7540,7 @@
       <c r="L85" s="110"/>
       <c r="M85" s="110"/>
     </row>
-    <row r="86" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
+    <row r="86" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="105"/>
       <c r="B86" s="63" t="s">
         <v>20</v>
@@ -7557,7 +7557,7 @@
       <c r="L86" s="110"/>
       <c r="M86" s="110"/>
     </row>
-    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="51"/>
       <c r="B87" s="63" t="s">
         <v>21</v>
@@ -7574,7 +7574,7 @@
       <c r="L87" s="110"/>
       <c r="M87" s="110"/>
     </row>
-    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="51"/>
       <c r="B88" s="63" t="s">
         <v>166</v>
@@ -7591,7 +7591,7 @@
       <c r="L88" s="110"/>
       <c r="M88" s="110"/>
     </row>
-    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="51"/>
       <c r="B89" s="63" t="s">
         <v>45</v>
@@ -7608,7 +7608,7 @@
       <c r="L89" s="110"/>
       <c r="M89" s="110"/>
     </row>
-    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="51"/>
       <c r="B90" s="119" t="s">
         <v>46</v>
@@ -7625,7 +7625,7 @@
       <c r="L90" s="110"/>
       <c r="M90" s="110"/>
     </row>
-    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="51"/>
       <c r="B91" s="119" t="s">
         <v>52</v>
@@ -7642,7 +7642,7 @@
       <c r="L91" s="110"/>
       <c r="M91" s="110"/>
     </row>
-    <row r="92" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="92" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="119"/>
       <c r="C92" s="122"/>
       <c r="D92" s="123"/>
@@ -7655,7 +7655,7 @@
       <c r="K92" s="68"/>
       <c r="L92" s="68"/>
     </row>
-    <row r="93" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="93" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="119"/>
       <c r="C93" s="122"/>
       <c r="D93" s="123"/>
@@ -7668,7 +7668,7 @@
       <c r="K93" s="68"/>
       <c r="L93" s="68"/>
     </row>
-    <row r="94" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="94" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="119"/>
       <c r="C94" s="122"/>
       <c r="D94" s="123"/>
@@ -7681,7 +7681,7 @@
       <c r="K94" s="68"/>
       <c r="L94" s="68"/>
     </row>
-    <row r="95" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="95" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="119"/>
       <c r="C95" s="122"/>
       <c r="D95" s="123"/>
@@ -7694,7 +7694,7 @@
       <c r="K95" s="68"/>
       <c r="L95" s="68"/>
     </row>
-    <row r="96" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="96" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="119"/>
       <c r="C96" s="122"/>
       <c r="D96" s="123"/>
@@ -7707,7 +7707,7 @@
       <c r="K96" s="68"/>
       <c r="L96" s="68"/>
     </row>
-    <row r="97" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="97" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="119"/>
       <c r="C97" s="122"/>
       <c r="D97" s="123"/>
@@ -7720,7 +7720,7 @@
       <c r="K97" s="68"/>
       <c r="L97" s="68"/>
     </row>
-    <row r="98" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="98" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="119"/>
       <c r="C98" s="122"/>
       <c r="D98" s="123"/>
@@ -7733,7 +7733,7 @@
       <c r="K98" s="68"/>
       <c r="L98" s="68"/>
     </row>
-    <row r="99" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="99" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="119"/>
       <c r="C99" s="122"/>
       <c r="D99" s="123"/>
@@ -7746,7 +7746,7 @@
       <c r="K99" s="68"/>
       <c r="L99" s="68"/>
     </row>
-    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="51"/>
       <c r="B100" s="119" t="s">
         <v>53</v>
@@ -7763,7 +7763,7 @@
       <c r="L100" s="110"/>
       <c r="M100" s="110"/>
     </row>
-    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="51"/>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -7778,7 +7778,7 @@
       <c r="L101" s="110"/>
       <c r="M101" s="110"/>
     </row>
-    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="51"/>
       <c r="B102" s="180" t="s">
         <v>172</v>
@@ -7795,7 +7795,7 @@
       <c r="L102" s="110"/>
       <c r="M102" s="110"/>
     </row>
-    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.7" customHeight="1">
+    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="51"/>
       <c r="B103" s="161" t="s">
         <v>2</v>
@@ -7828,7 +7828,7 @@
       <c r="L103" s="110"/>
       <c r="M103" s="110"/>
     </row>
-    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="51"/>
       <c r="B104" s="63" t="s">
         <v>3</v>
@@ -7845,7 +7845,7 @@
       <c r="L104" s="110"/>
       <c r="M104" s="110"/>
     </row>
-    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="51"/>
       <c r="B105" s="70" t="s">
         <v>19</v>
@@ -7862,7 +7862,7 @@
       <c r="L105" s="110"/>
       <c r="M105" s="110"/>
     </row>
-    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="51"/>
       <c r="B106" s="63" t="s">
         <v>4</v>
@@ -7879,7 +7879,7 @@
       <c r="L106" s="110"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="51"/>
       <c r="B107" s="63" t="s">
         <v>5</v>
@@ -7896,7 +7896,7 @@
       <c r="L107" s="110"/>
       <c r="M107" s="110"/>
     </row>
-    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="51"/>
       <c r="B108" s="63" t="s">
         <v>128</v>
@@ -7913,7 +7913,7 @@
       <c r="L108" s="110"/>
       <c r="M108" s="110"/>
     </row>
-    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="51"/>
       <c r="B109" s="63" t="s">
         <v>20</v>
@@ -7930,7 +7930,7 @@
       <c r="L109" s="110"/>
       <c r="M109" s="110"/>
     </row>
-    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="51"/>
       <c r="B110" s="63" t="s">
         <v>21</v>
@@ -7947,7 +7947,7 @@
       <c r="L110" s="110"/>
       <c r="M110" s="110"/>
     </row>
-    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="51"/>
       <c r="B111" s="63" t="s">
         <v>166</v>
@@ -7964,7 +7964,7 @@
       <c r="L111" s="110"/>
       <c r="M111" s="110"/>
     </row>
-    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="51"/>
       <c r="B112" s="63" t="s">
         <v>45</v>
@@ -7981,7 +7981,7 @@
       <c r="L112" s="110"/>
       <c r="M112" s="110"/>
     </row>
-    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="51"/>
       <c r="B113" s="119" t="s">
         <v>46</v>
@@ -7998,7 +7998,7 @@
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
     </row>
-    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="51"/>
       <c r="B114" s="119" t="s">
         <v>52</v>
@@ -8015,7 +8015,7 @@
       <c r="L114" s="110"/>
       <c r="M114" s="110"/>
     </row>
-    <row r="115" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="115" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="119"/>
       <c r="C115" s="122"/>
       <c r="D115" s="123"/>
@@ -8028,7 +8028,7 @@
       <c r="K115" s="68"/>
       <c r="L115" s="68"/>
     </row>
-    <row r="116" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="116" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="119"/>
       <c r="C116" s="122"/>
       <c r="D116" s="123"/>
@@ -8041,7 +8041,7 @@
       <c r="K116" s="68"/>
       <c r="L116" s="68"/>
     </row>
-    <row r="117" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="117" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="119"/>
       <c r="C117" s="122"/>
       <c r="D117" s="123"/>
@@ -8054,7 +8054,7 @@
       <c r="K117" s="68"/>
       <c r="L117" s="68"/>
     </row>
-    <row r="118" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="118" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="119"/>
       <c r="C118" s="122"/>
       <c r="D118" s="123"/>
@@ -8067,7 +8067,7 @@
       <c r="K118" s="68"/>
       <c r="L118" s="68"/>
     </row>
-    <row r="119" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="119" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="119"/>
       <c r="C119" s="122"/>
       <c r="D119" s="123"/>
@@ -8080,7 +8080,7 @@
       <c r="K119" s="68"/>
       <c r="L119" s="68"/>
     </row>
-    <row r="120" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="120" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="119"/>
       <c r="C120" s="122"/>
       <c r="D120" s="123"/>
@@ -8093,7 +8093,7 @@
       <c r="K120" s="68"/>
       <c r="L120" s="68"/>
     </row>
-    <row r="121" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="121" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="119"/>
       <c r="C121" s="122"/>
       <c r="D121" s="123"/>
@@ -8106,7 +8106,7 @@
       <c r="K121" s="68"/>
       <c r="L121" s="68"/>
     </row>
-    <row r="122" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="122" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="119"/>
       <c r="C122" s="122"/>
       <c r="D122" s="123"/>
@@ -8119,7 +8119,7 @@
       <c r="K122" s="68"/>
       <c r="L122" s="68"/>
     </row>
-    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="51"/>
       <c r="B123" s="119" t="s">
         <v>53</v>
@@ -8136,7 +8136,7 @@
       <c r="L123" s="110"/>
       <c r="M123" s="110"/>
     </row>
-    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
+    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="51"/>
       <c r="B124" s="83"/>
       <c r="C124" s="83"/>
@@ -8151,7 +8151,7 @@
       <c r="L124" s="110"/>
       <c r="M124" s="110"/>
     </row>
-    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="51"/>
       <c r="B125" s="180" t="s">
         <v>173</v>
@@ -8165,7 +8165,7 @@
       <c r="I125" s="85"/>
       <c r="J125" s="94"/>
     </row>
-    <row r="126" spans="1:13" s="95" customFormat="1" ht="39">
+    <row r="126" spans="1:13" s="95" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A126" s="51"/>
       <c r="B126" s="161" t="s">
         <v>2</v>
@@ -8195,7 +8195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="51"/>
       <c r="B127" s="177" t="s">
         <v>24</v>
@@ -8209,7 +8209,7 @@
       <c r="I127" s="194"/>
       <c r="J127" s="202"/>
     </row>
-    <row r="128" spans="1:13" ht="45.2" customHeight="1">
+    <row r="128" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="51" t="s">
         <v>136</v>
       </c>
@@ -8224,7 +8224,7 @@
       <c r="H128" s="112"/>
       <c r="J128" s="95"/>
     </row>
-    <row r="129" spans="1:10" ht="45.2" customHeight="1">
+    <row r="129" spans="1:10" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="51"/>
       <c r="B129" s="111"/>
       <c r="C129" s="108"/>
@@ -8235,7 +8235,7 @@
       <c r="H129" s="112"/>
       <c r="J129" s="95"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B130" s="130" t="s">
         <v>168</v>
       </c>
@@ -8245,23 +8245,23 @@
       <c r="F130" s="81"/>
       <c r="H130" s="112"/>
     </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="227">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="208">
         <v>1</v>
       </c>
-      <c r="B131" s="228" t="s">
-        <v>176</v>
-      </c>
-      <c r="C131" s="228"/>
-      <c r="D131" s="228"/>
-      <c r="E131" s="228"/>
-      <c r="F131" s="228"/>
-      <c r="G131" s="228"/>
-      <c r="H131" s="228"/>
-      <c r="I131" s="228"/>
-      <c r="J131" s="228"/>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="B131" s="212" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="212"/>
+      <c r="D131" s="212"/>
+      <c r="E131" s="212"/>
+      <c r="F131" s="212"/>
+      <c r="G131" s="212"/>
+      <c r="H131" s="212"/>
+      <c r="I131" s="212"/>
+      <c r="J131" s="212"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B132" s="114"/>
       <c r="C132" s="115"/>
       <c r="D132" s="81"/>
@@ -8269,7 +8269,7 @@
       <c r="F132" s="81"/>
       <c r="H132" s="112"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B133" s="130" t="s">
         <v>169</v>
       </c>
@@ -8279,28 +8279,28 @@
       <c r="F133" s="81"/>
       <c r="H133" s="112"/>
     </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="227">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="208">
         <v>2</v>
       </c>
-      <c r="B134" s="228" t="s">
-        <v>177</v>
-      </c>
-      <c r="C134" s="228"/>
-      <c r="D134" s="228"/>
-      <c r="E134" s="228"/>
-      <c r="F134" s="228"/>
-      <c r="G134" s="228"/>
-      <c r="H134" s="228"/>
-      <c r="I134" s="228"/>
-      <c r="J134" s="228"/>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="B134" s="212" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="212"/>
+      <c r="D134" s="212"/>
+      <c r="E134" s="212"/>
+      <c r="F134" s="212"/>
+      <c r="G134" s="212"/>
+      <c r="H134" s="212"/>
+      <c r="I134" s="212"/>
+      <c r="J134" s="212"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B135" s="114"/>
       <c r="D135" s="116"/>
       <c r="E135" s="57"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B136" s="130" t="s">
         <v>169</v>
       </c>
@@ -8310,29 +8310,29 @@
       <c r="F136" s="81"/>
       <c r="H136" s="112"/>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="227">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="208">
         <v>3</v>
       </c>
-      <c r="B137" s="228" t="s">
-        <v>175</v>
-      </c>
-      <c r="C137" s="228"/>
-      <c r="D137" s="228"/>
-      <c r="E137" s="228"/>
-      <c r="F137" s="228"/>
-      <c r="G137" s="228"/>
-      <c r="H137" s="228"/>
-      <c r="I137" s="228"/>
-      <c r="J137" s="228"/>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="B137" s="212" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="212"/>
+      <c r="D137" s="212"/>
+      <c r="E137" s="212"/>
+      <c r="F137" s="212"/>
+      <c r="G137" s="212"/>
+      <c r="H137" s="212"/>
+      <c r="I137" s="212"/>
+      <c r="J137" s="212"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B138" s="81"/>
       <c r="D138" s="116"/>
       <c r="E138" s="57"/>
       <c r="G138" s="94"/>
     </row>
-    <row r="139" spans="1:10" ht="37.700000000000003" customHeight="1">
+    <row r="139" spans="1:10" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="94" t="s">
         <v>51</v>
       </c>
@@ -8577,11 +8577,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B116" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B116" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B126" sqref="B126:K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
@@ -8598,14 +8598,14 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="188"/>
       <c r="H3" s="173"/>
       <c r="K3" s="173" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -8619,156 +8619,156 @@
       <c r="G7" s="15"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="214" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="220" t="s">
+      <c r="D8" s="215"/>
+      <c r="E8" s="214" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="219" t="s">
+      <c r="F8" s="215"/>
+      <c r="G8" s="218" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="219"/>
+      <c r="H8" s="218"/>
       <c r="I8" s="7"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="217"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="214"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="217"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="214"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="217"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="214"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="217"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>22</v>
       </c>
@@ -8779,7 +8779,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>23</v>
       </c>
@@ -8790,7 +8790,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8800,7 +8800,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8810,7 +8810,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>161</v>
       </c>
@@ -8822,7 +8822,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>160</v>
       </c>
@@ -8834,7 +8834,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="186" t="s">
         <v>133</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="187" t="s">
         <v>162</v>
       </c>
@@ -8858,7 +8858,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="187" t="s">
         <v>147</v>
       </c>
@@ -8870,7 +8870,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.4" customHeight="1">
+    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="185" t="s">
         <v>14</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>17</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="J29" s="174"/>
       <c r="K29" s="204"/>
     </row>
-    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
         <v>25</v>
       </c>
@@ -8937,7 +8937,7 @@
       <c r="J30" s="174"/>
       <c r="K30" s="205"/>
     </row>
-    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>26</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="J31" s="174"/>
       <c r="K31" s="204"/>
     </row>
-    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
         <v>27</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="J32" s="174"/>
       <c r="K32" s="205"/>
     </row>
-    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
         <v>28</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="J33" s="174"/>
       <c r="K33" s="204"/>
     </row>
-    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
         <v>29</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="J34" s="174"/>
       <c r="K34" s="205"/>
     </row>
-    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="J35" s="174"/>
       <c r="K35" s="204"/>
     </row>
-    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41" t="s">
         <v>31</v>
       </c>
@@ -9042,7 +9042,7 @@
       <c r="J36" s="174"/>
       <c r="K36" s="205"/>
     </row>
-    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
@@ -9058,7 +9058,7 @@
       <c r="J37" s="174"/>
       <c r="K37" s="204"/>
     </row>
-    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
         <v>33</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="J38" s="174"/>
       <c r="K38" s="205"/>
     </row>
-    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -9087,7 +9087,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -9097,7 +9097,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1">
+    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -9107,7 +9107,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:12" s="19" customFormat="1">
+    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="188"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9121,7 +9121,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1">
+    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="188"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9132,7 +9132,7 @@
       <c r="I43" s="8"/>
       <c r="K43" s="173"/>
     </row>
-    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9142,7 +9142,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="129" t="s">
         <v>174</v>
       </c>
@@ -9151,7 +9151,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1">
+    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>14</v>
       </c>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
@@ -9201,7 +9201,7 @@
       <c r="K47" s="204"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="41" t="s">
         <v>35</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="K48" s="205"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="K49" s="204"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="41" t="s">
         <v>37</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="K50" s="205"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
         <v>38</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="K51" s="204"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="41" t="s">
         <v>39</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="K52" s="205"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="41" t="s">
         <v>40</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="K53" s="204"/>
       <c r="L53" s="27"/>
     </row>
-    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="41" t="s">
         <v>41</v>
       </c>
@@ -9332,7 +9332,7 @@
       <c r="K54" s="205"/>
       <c r="L54" s="27"/>
     </row>
-    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="41" t="s">
         <v>42</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="K55" s="204"/>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
         <v>43</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="K56" s="205"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
@@ -9382,7 +9382,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -9395,7 +9395,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -9408,7 +9408,7 @@
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
     </row>
-    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="129" t="s">
         <v>170</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="172" t="s">
         <v>134</v>
       </c>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="41" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="K62" s="204"/>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="41" t="s">
         <v>25</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="K63" s="205"/>
       <c r="L63" s="27"/>
     </row>
-    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="41" t="s">
         <v>26</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="K64" s="204"/>
       <c r="L64" s="27"/>
     </row>
-    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="41" t="s">
         <v>27</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="K65" s="205"/>
       <c r="L65" s="27"/>
     </row>
-    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
         <v>28</v>
       </c>
@@ -9547,7 +9547,7 @@
       <c r="K66" s="204"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
         <v>29</v>
       </c>
@@ -9567,7 +9567,7 @@
       <c r="K67" s="205"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
         <v>30</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="K68" s="204"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
         <v>31</v>
       </c>
@@ -9604,7 +9604,7 @@
       <c r="K69" s="205"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
         <v>32</v>
       </c>
@@ -9621,7 +9621,7 @@
       <c r="K70" s="204"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
         <v>33</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="K71" s="205"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
@@ -9654,7 +9654,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
@@ -9667,7 +9667,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
@@ -9680,7 +9680,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="30"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
@@ -9693,7 +9693,7 @@
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
+    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
@@ -9706,7 +9706,7 @@
       <c r="K76" s="27"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="187" t="s">
         <v>163</v>
       </c>
@@ -9721,7 +9721,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="187" t="s">
         <v>150</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1">
+    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="185" t="s">
         <v>14</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="41" t="s">
         <v>17</v>
       </c>
@@ -9781,7 +9781,7 @@
       <c r="J80" s="174"/>
       <c r="K80" s="204"/>
     </row>
-    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="41" t="s">
         <v>25</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="J81" s="174"/>
       <c r="K81" s="205"/>
     </row>
-    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="41" t="s">
         <v>26</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="J82" s="174"/>
       <c r="K82" s="204"/>
     </row>
-    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="41" t="s">
         <v>27</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="J83" s="174"/>
       <c r="K83" s="205"/>
     </row>
-    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="41" t="s">
         <v>28</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="J84" s="174"/>
       <c r="K84" s="204"/>
     </row>
-    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="41" t="s">
         <v>29</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="J85" s="174"/>
       <c r="K85" s="205"/>
     </row>
-    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="41" t="s">
         <v>30</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="J86" s="174"/>
       <c r="K86" s="204"/>
     </row>
-    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="41" t="s">
         <v>31</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="J87" s="174"/>
       <c r="K87" s="205"/>
     </row>
-    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="41" t="s">
         <v>32</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="J88" s="174"/>
       <c r="K88" s="204"/>
     </row>
-    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="41" t="s">
         <v>33</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="J89" s="174"/>
       <c r="K89" s="205"/>
     </row>
-    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="30"/>
       <c r="C90" s="31"/>
       <c r="D90" s="32"/>
@@ -9953,7 +9953,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="188"/>
       <c r="C91" s="31"/>
       <c r="D91" s="32"/>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="188"/>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
@@ -9982,20 +9982,20 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="216"/>
-      <c r="H93" s="217"/>
+      <c r="G93" s="219"/>
+      <c r="H93" s="220"/>
       <c r="I93" s="29"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1">
+    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="129" t="s">
         <v>149</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
     </row>
-    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1">
+    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="185" t="s">
         <v>14</v>
       </c>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
         <v>17</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="K96" s="204"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="41" t="s">
         <v>25</v>
       </c>
@@ -10074,7 +10074,7 @@
       <c r="K97" s="205"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="41" t="s">
         <v>26</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="K98" s="204"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="41" t="s">
         <v>27</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="K99" s="205"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="41" t="s">
         <v>28</v>
       </c>
@@ -10128,7 +10128,7 @@
       <c r="K100" s="204"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="41" t="s">
         <v>29</v>
       </c>
@@ -10148,7 +10148,7 @@
       <c r="K101" s="205"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="41" t="s">
         <v>30</v>
       </c>
@@ -10165,7 +10165,7 @@
       <c r="K102" s="204"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="41" t="s">
         <v>31</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="K103" s="205"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="41" t="s">
         <v>32</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="K104" s="204"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="41" t="s">
         <v>33</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="K105" s="205"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="32"/>
@@ -10235,7 +10235,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="129" t="s">
         <v>170</v>
       </c>
@@ -10250,7 +10250,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="172" t="s">
         <v>134</v>
       </c>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="41" t="s">
         <v>17</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="K109" s="204"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="41" t="s">
         <v>25</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="K110" s="205"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="41" t="s">
         <v>26</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="K111" s="204"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="41" t="s">
         <v>27</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="K112" s="205"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="41" t="s">
         <v>28</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="K113" s="204"/>
       <c r="L113" s="27"/>
     </row>
-    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="41" t="s">
         <v>29</v>
       </c>
@@ -10394,7 +10394,7 @@
       <c r="K114" s="205"/>
       <c r="L114" s="27"/>
     </row>
-    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="41" t="s">
         <v>30</v>
       </c>
@@ -10411,7 +10411,7 @@
       <c r="K115" s="204"/>
       <c r="L115" s="27"/>
     </row>
-    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="41" t="s">
         <v>31</v>
       </c>
@@ -10431,7 +10431,7 @@
       <c r="K116" s="205"/>
       <c r="L116" s="27"/>
     </row>
-    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="41" t="s">
         <v>32</v>
       </c>
@@ -10448,7 +10448,7 @@
       <c r="K117" s="204"/>
       <c r="L117" s="27"/>
     </row>
-    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="41" t="s">
         <v>33</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="K118" s="205"/>
       <c r="L118" s="27"/>
     </row>
-    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1">
+    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="30"/>
       <c r="C119" s="23"/>
@@ -10477,7 +10477,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="35"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
         <v>16</v>
       </c>
@@ -10492,7 +10492,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="39"/>
     </row>
-    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1">
+    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
         <v>8</v>
       </c>
@@ -10507,21 +10507,21 @@
       <c r="H121" s="38"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="40.35" customHeight="1">
-      <c r="B122" s="218" t="s">
+    <row r="122" spans="1:12" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="218"/>
-      <c r="D122" s="218"/>
-      <c r="E122" s="218"/>
-      <c r="F122" s="218"/>
-      <c r="G122" s="218"/>
-      <c r="H122" s="218"/>
-      <c r="I122" s="218"/>
-      <c r="J122" s="218"/>
-      <c r="K122" s="218"/>
-    </row>
-    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.25">
+      <c r="C122" s="221"/>
+      <c r="D122" s="221"/>
+      <c r="E122" s="221"/>
+      <c r="F122" s="221"/>
+      <c r="G122" s="221"/>
+      <c r="H122" s="221"/>
+      <c r="I122" s="221"/>
+      <c r="J122" s="221"/>
+      <c r="K122" s="221"/>
+    </row>
+    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A123" s="62"/>
       <c r="B123" s="131" t="s">
         <v>44</v>
@@ -10532,56 +10532,56 @@
       <c r="F123" s="115"/>
       <c r="H123" s="112"/>
     </row>
-    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.25">
+    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A124" s="62">
         <v>2</v>
       </c>
-      <c r="B124" s="212" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="212"/>
-      <c r="D124" s="212"/>
-      <c r="E124" s="212"/>
-      <c r="F124" s="212"/>
-      <c r="G124" s="212"/>
-      <c r="H124" s="212"/>
-      <c r="I124" s="212"/>
-      <c r="J124" s="212"/>
-      <c r="K124" s="212"/>
-    </row>
-    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.25">
+      <c r="B124" s="222" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="222"/>
+      <c r="D124" s="222"/>
+      <c r="E124" s="222"/>
+      <c r="F124" s="222"/>
+      <c r="G124" s="222"/>
+      <c r="H124" s="222"/>
+      <c r="I124" s="222"/>
+      <c r="J124" s="222"/>
+      <c r="K124" s="222"/>
+    </row>
+    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A125" s="62"/>
-      <c r="B125" s="211" t="s">
+      <c r="B125" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="211"/>
-      <c r="D125" s="211"/>
-      <c r="E125" s="211"/>
-      <c r="F125" s="211"/>
-      <c r="G125" s="211"/>
-      <c r="H125" s="211"/>
-      <c r="I125" s="211"/>
-      <c r="J125" s="211"/>
-      <c r="K125" s="211"/>
-    </row>
-    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.25">
+      <c r="C125" s="223"/>
+      <c r="D125" s="223"/>
+      <c r="E125" s="223"/>
+      <c r="F125" s="223"/>
+      <c r="G125" s="223"/>
+      <c r="H125" s="223"/>
+      <c r="I125" s="223"/>
+      <c r="J125" s="223"/>
+      <c r="K125" s="223"/>
+    </row>
+    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A126" s="62">
         <v>2</v>
       </c>
-      <c r="B126" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="212"/>
-      <c r="D126" s="212"/>
-      <c r="E126" s="212"/>
-      <c r="F126" s="212"/>
-      <c r="G126" s="212"/>
-      <c r="H126" s="212"/>
-      <c r="I126" s="212"/>
-      <c r="J126" s="212"/>
-      <c r="K126" s="212"/>
-    </row>
-    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1">
+      <c r="B126" s="222" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="222"/>
+      <c r="D126" s="222"/>
+      <c r="E126" s="222"/>
+      <c r="F126" s="222"/>
+      <c r="G126" s="222"/>
+      <c r="H126" s="222"/>
+      <c r="I126" s="222"/>
+      <c r="J126" s="222"/>
+      <c r="K126" s="222"/>
+    </row>
+    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
         <v>8</v>
       </c>
@@ -10596,24 +10596,24 @@
       <c r="H127" s="38"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.25">
+    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A128" s="62">
         <v>3</v>
       </c>
-      <c r="B128" s="212" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="212"/>
-      <c r="D128" s="212"/>
-      <c r="E128" s="212"/>
-      <c r="F128" s="212"/>
-      <c r="G128" s="212"/>
-      <c r="H128" s="212"/>
-      <c r="I128" s="212"/>
-      <c r="J128" s="212"/>
-      <c r="K128" s="212"/>
-    </row>
-    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1">
+      <c r="B128" s="222" t="s">
+        <v>179</v>
+      </c>
+      <c r="C128" s="222"/>
+      <c r="D128" s="222"/>
+      <c r="E128" s="222"/>
+      <c r="F128" s="222"/>
+      <c r="G128" s="222"/>
+      <c r="H128" s="222"/>
+      <c r="I128" s="222"/>
+      <c r="J128" s="222"/>
+      <c r="K128" s="222"/>
+    </row>
+    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
         <v>8</v>
       </c>
@@ -10628,24 +10628,24 @@
       <c r="H129" s="38"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.25">
+    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A130" s="62">
         <v>3</v>
       </c>
-      <c r="B130" s="212" t="s">
-        <v>181</v>
-      </c>
-      <c r="C130" s="212"/>
-      <c r="D130" s="212"/>
-      <c r="E130" s="212"/>
-      <c r="F130" s="212"/>
-      <c r="G130" s="212"/>
-      <c r="H130" s="212"/>
-      <c r="I130" s="212"/>
-      <c r="J130" s="212"/>
-      <c r="K130" s="212"/>
-    </row>
-    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1">
+      <c r="B130" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="222"/>
+      <c r="D130" s="222"/>
+      <c r="E130" s="222"/>
+      <c r="F130" s="222"/>
+      <c r="G130" s="222"/>
+      <c r="H130" s="222"/>
+      <c r="I130" s="222"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="222"/>
+    </row>
+    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="62"/>
       <c r="B132" s="4" t="s">
         <v>10</v>
@@ -10660,33 +10660,21 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="26.25" customHeight="1"/>
-    <row r="134" spans="1:11" ht="26.25" customHeight="1"/>
-    <row r="135" spans="1:11" ht="42" customHeight="1"/>
+    <row r="133" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B128:K128"/>
+    <mergeCell ref="B130:K130"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B122:K122"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
@@ -10695,16 +10683,28 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B124:K124"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B128:K128"/>
-    <mergeCell ref="B130:K130"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B9">
@@ -10813,7 +10813,7 @@
       <selection pane="bottomRight" activeCell="S3" sqref="S3:S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="133" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="133" customWidth="1"/>
@@ -10833,32 +10833,32 @@
     <col min="38" max="16384" width="8.875" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="152"/>
       <c r="B1" s="152"/>
-      <c r="U1" s="222" t="s">
+      <c r="U1" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222" t="s">
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-    </row>
-    <row r="2" spans="1:37" ht="78">
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
+      <c r="AH1" s="224"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="224"/>
+    </row>
+    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
         <v>106</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="138"/>
@@ -11010,7 +11010,7 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
       <c r="C4" s="138"/>
@@ -11049,7 +11049,7 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
       <c r="C5" s="138"/>
@@ -11088,7 +11088,7 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
       <c r="C6" s="138"/>
@@ -11127,7 +11127,7 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="138"/>
@@ -11166,7 +11166,7 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="138"/>
@@ -11205,7 +11205,7 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
       <c r="C9" s="138"/>
@@ -11244,7 +11244,7 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
       <c r="C10" s="138"/>
@@ -11283,7 +11283,7 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
       <c r="C11" s="138"/>
@@ -11322,7 +11322,7 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
       <c r="C12" s="138"/>
@@ -11361,7 +11361,7 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
       <c r="C13" s="138"/>
@@ -11400,7 +11400,7 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
       <c r="C14" s="138"/>
@@ -11439,7 +11439,7 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
       <c r="C15" s="138"/>
@@ -11478,7 +11478,7 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
       <c r="C16" s="138"/>
@@ -11517,7 +11517,7 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
       <c r="C17" s="138"/>
@@ -11556,7 +11556,7 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
       <c r="C18" s="138"/>
@@ -11595,7 +11595,7 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
       <c r="C19" s="138"/>
@@ -11634,7 +11634,7 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
       <c r="C20" s="138"/>
@@ -11673,7 +11673,7 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
       <c r="C21" s="138"/>
@@ -11712,7 +11712,7 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="138"/>
@@ -11751,7 +11751,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -11790,7 +11790,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -11829,7 +11829,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -11868,7 +11868,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -11907,7 +11907,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -11946,7 +11946,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -11985,7 +11985,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -12024,7 +12024,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -12063,10 +12063,10 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="164"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5">
+    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="163" t="s">
         <v>108</v>
       </c>
@@ -12099,7 +12099,7 @@
       <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="133" customWidth="1"/>
@@ -12119,31 +12119,31 @@
     <col min="35" max="37" width="11" style="147" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="133" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="1:37" s="133" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="152"/>
-      <c r="U1" s="223" t="s">
+      <c r="U1" s="225" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="224" t="s">
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="225"/>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="225"/>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="225"/>
-      <c r="AJ1" s="225"/>
-      <c r="AK1" s="226"/>
-    </row>
-    <row r="2" spans="1:37" s="133" customFormat="1" ht="78">
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
+      <c r="AH1" s="227"/>
+      <c r="AI1" s="227"/>
+      <c r="AJ1" s="227"/>
+      <c r="AK1" s="228"/>
+    </row>
+    <row r="2" spans="1:37" s="133" customFormat="1" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
         <v>106</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="138"/>
@@ -12295,7 +12295,7 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
       <c r="C4" s="138"/>
@@ -12334,7 +12334,7 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
       <c r="C5" s="138"/>
@@ -12373,7 +12373,7 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
       <c r="C6" s="138"/>
@@ -12412,7 +12412,7 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="138"/>
@@ -12451,7 +12451,7 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="138"/>
@@ -12490,7 +12490,7 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
       <c r="C9" s="138"/>
@@ -12529,7 +12529,7 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
       <c r="C10" s="138"/>
@@ -12568,7 +12568,7 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
       <c r="C11" s="138"/>
@@ -12607,7 +12607,7 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
       <c r="C12" s="138"/>
@@ -12646,7 +12646,7 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
       <c r="C13" s="138"/>
@@ -12685,7 +12685,7 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
       <c r="C14" s="138"/>
@@ -12724,7 +12724,7 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
       <c r="C15" s="138"/>
@@ -12763,7 +12763,7 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
       <c r="C16" s="138"/>
@@ -12802,7 +12802,7 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
       <c r="C17" s="138"/>
@@ -12841,7 +12841,7 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
       <c r="C18" s="138"/>
@@ -12880,7 +12880,7 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
       <c r="C19" s="138"/>
@@ -12919,7 +12919,7 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
       <c r="C20" s="138"/>
@@ -12958,7 +12958,7 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
       <c r="C21" s="138"/>
@@ -12997,7 +12997,7 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="138"/>
@@ -13036,7 +13036,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -13075,7 +13075,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -13114,7 +13114,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -13153,7 +13153,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -13192,7 +13192,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -13231,7 +13231,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -13270,7 +13270,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -13309,7 +13309,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -13348,10 +13348,10 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="1:21" ht="19.5">
+    <row r="33" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A33" s="163"/>
     </row>
-    <row r="34" spans="1:21" ht="19.5">
+    <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="163" t="s">
         <v>108</v>
       </c>

--- a/PhoenixCI/Excel_Template/40011.xlsx
+++ b/PhoenixCI/Excel_Template/40011.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3769" yWindow="3769" windowWidth="21600" windowHeight="11382" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -2640,14 +2640,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>原始保證金A值</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>結算保證金A值</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>近月份現貨指數/期貨價格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4112,6 +4104,14 @@
       </rPr>
       <t>得調整標準，且進位後金額改變。</t>
     </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算保證金A值/B值</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金A值/B值</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
@@ -4585,7 +4585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5173,39 +5173,39 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5220,6 +5220,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6348,51 +6351,51 @@
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="69" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="69" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="69" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="69" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="69" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="69" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="69" customWidth="1"/>
     <col min="11" max="11" width="11" style="69" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.77734375" style="69" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I1" s="211" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="211"/>
       <c r="K1" s="191"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J2" s="199"/>
       <c r="K2" s="200"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J3" s="199"/>
       <c r="K3" s="200"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J4" s="199"/>
       <c r="K4" s="200"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J5" s="199"/>
       <c r="K5" s="200"/>
     </row>
-    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="50" t="s">
         <v>0</v>
       </c>
@@ -6408,28 +6411,28 @@
       <c r="I6" s="55"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>127</v>
-      </c>
       <c r="F7" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>159</v>
       </c>
       <c r="I7" s="117" t="s">
         <v>11</v>
@@ -6440,7 +6443,7 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6458,7 @@
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="70" t="s">
         <v>19</v>
       </c>
@@ -6488,7 +6491,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="57" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71"/>
       <c r="B10" s="63" t="s">
         <v>4</v>
@@ -6504,7 +6507,7 @@
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>5</v>
       </c>
@@ -6519,9 +6522,9 @@
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="65"/>
@@ -6534,9 +6537,9 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="65"/>
@@ -6549,7 +6552,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
     </row>
-    <row r="14" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63" t="s">
         <v>20</v>
       </c>
@@ -6564,7 +6567,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
     </row>
-    <row r="15" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63" t="s">
         <v>21</v>
       </c>
@@ -6579,9 +6582,9 @@
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="65"/>
@@ -6594,7 +6597,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
     </row>
-    <row r="17" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63" t="s">
         <v>45</v>
       </c>
@@ -6609,7 +6612,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
     </row>
-    <row r="18" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="119" t="s">
         <v>46</v>
       </c>
@@ -6624,7 +6627,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
     </row>
-    <row r="19" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="119" t="s">
         <v>52</v>
       </c>
@@ -6639,7 +6642,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
     </row>
-    <row r="20" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="119"/>
       <c r="C20" s="122"/>
       <c r="D20" s="123"/>
@@ -6652,7 +6655,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
     </row>
-    <row r="21" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="119"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123"/>
@@ -6665,7 +6668,7 @@
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
     </row>
-    <row r="22" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="119"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
@@ -6678,7 +6681,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
     </row>
-    <row r="23" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="119"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123"/>
@@ -6691,7 +6694,7 @@
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
     </row>
-    <row r="24" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="119"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123"/>
@@ -6704,7 +6707,7 @@
       <c r="K24" s="68"/>
       <c r="L24" s="68"/>
     </row>
-    <row r="25" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="119"/>
       <c r="C25" s="122"/>
       <c r="D25" s="123"/>
@@ -6717,7 +6720,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="119"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
@@ -6730,7 +6733,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
     </row>
-    <row r="27" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="119"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
@@ -6743,7 +6746,7 @@
       <c r="K27" s="68"/>
       <c r="L27" s="68"/>
     </row>
-    <row r="28" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="119" t="s">
         <v>53</v>
       </c>
@@ -6758,7 +6761,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="68"/>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="75" t="s">
         <v>48</v>
       </c>
@@ -6773,7 +6776,7 @@
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="125" t="s">
         <v>54</v>
       </c>
@@ -6783,7 +6786,7 @@
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="125" t="s">
         <v>57</v>
       </c>
@@ -6793,7 +6796,7 @@
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="129" t="s">
         <v>55</v>
       </c>
@@ -6803,7 +6806,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B33" s="125" t="s">
         <v>56</v>
       </c>
@@ -6817,7 +6820,7 @@
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
     </row>
-    <row r="34" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="77"/>
       <c r="C34" s="69"/>
       <c r="D34" s="69"/>
@@ -6829,7 +6832,7 @@
       <c r="K34" s="79"/>
       <c r="L34" s="79"/>
     </row>
-    <row r="35" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="77"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
@@ -6841,7 +6844,7 @@
       <c r="K35" s="79"/>
       <c r="L35" s="79"/>
     </row>
-    <row r="36" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="77"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
@@ -6853,7 +6856,7 @@
       <c r="K36" s="79"/>
       <c r="L36" s="79"/>
     </row>
-    <row r="37" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="77"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -6865,7 +6868,7 @@
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
     </row>
-    <row r="38" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="77"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
@@ -6877,7 +6880,7 @@
       <c r="K38" s="79"/>
       <c r="L38" s="79"/>
     </row>
-    <row r="39" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="77"/>
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
@@ -6889,7 +6892,7 @@
       <c r="K39" s="79"/>
       <c r="L39" s="79"/>
     </row>
-    <row r="40" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="77"/>
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
@@ -6901,7 +6904,7 @@
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
     </row>
-    <row r="41" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="77"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
@@ -6913,7 +6916,7 @@
       <c r="K41" s="79"/>
       <c r="L41" s="79"/>
     </row>
-    <row r="42" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="77"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
@@ -6925,7 +6928,7 @@
       <c r="K42" s="79"/>
       <c r="L42" s="79"/>
     </row>
-    <row r="43" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="77"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
@@ -6937,7 +6940,7 @@
       <c r="K43" s="79"/>
       <c r="L43" s="79"/>
     </row>
-    <row r="44" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="77"/>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -6949,7 +6952,7 @@
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
     </row>
-    <row r="45" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="77"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
@@ -6961,7 +6964,7 @@
       <c r="K45" s="79"/>
       <c r="L45" s="79"/>
     </row>
-    <row r="46" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="77"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
@@ -6973,7 +6976,7 @@
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
     </row>
-    <row r="47" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B47" s="77"/>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -6985,7 +6988,7 @@
       <c r="K47" s="79"/>
       <c r="L47" s="79"/>
     </row>
-    <row r="48" spans="2:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B48" s="77"/>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
@@ -6997,7 +7000,7 @@
       <c r="K48" s="79"/>
       <c r="L48" s="79"/>
     </row>
-    <row r="49" spans="1:12" s="78" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
       <c r="B49" s="77"/>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
@@ -7009,7 +7012,7 @@
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
     </row>
-    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="51" t="s">
         <v>6</v>
       </c>
@@ -7027,10 +7030,10 @@
       <c r="K50" s="79"/>
       <c r="L50" s="79"/>
     </row>
-    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="51"/>
       <c r="B51" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
@@ -7043,9 +7046,9 @@
       <c r="K51" s="79"/>
       <c r="L51" s="79"/>
     </row>
-    <row r="52" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="26.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="81"/>
       <c r="D52" s="78"/>
@@ -7054,36 +7057,36 @@
       <c r="G52" s="84"/>
       <c r="H52" s="85"/>
     </row>
-    <row r="53" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="86" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="198" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E53" s="87" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G53" s="87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I53" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J53" s="88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="63" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7099,7 @@
       <c r="I54" s="194"/>
       <c r="J54" s="202"/>
     </row>
-    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="70" t="s">
         <v>19</v>
       </c>
@@ -7109,7 +7112,7 @@
       <c r="I55" s="194"/>
       <c r="J55" s="202"/>
     </row>
-    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="63" t="s">
         <v>4</v>
       </c>
@@ -7122,7 +7125,7 @@
       <c r="I56" s="194"/>
       <c r="J56" s="202"/>
     </row>
-    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="63" t="s">
         <v>5</v>
       </c>
@@ -7135,9 +7138,9 @@
       <c r="I57" s="194"/>
       <c r="J57" s="202"/>
     </row>
-    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C58" s="90"/>
       <c r="D58" s="90"/>
@@ -7148,7 +7151,7 @@
       <c r="I58" s="194"/>
       <c r="J58" s="202"/>
     </row>
-    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="51"/>
       <c r="B59" s="63" t="s">
         <v>20</v>
@@ -7162,7 +7165,7 @@
       <c r="I59" s="194"/>
       <c r="J59" s="202"/>
     </row>
-    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="51"/>
       <c r="B60" s="63" t="s">
         <v>21</v>
@@ -7176,10 +7179,10 @@
       <c r="I60" s="194"/>
       <c r="J60" s="202"/>
     </row>
-    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="51"/>
       <c r="B61" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="118"/>
@@ -7190,7 +7193,7 @@
       <c r="I61" s="195"/>
       <c r="J61" s="203"/>
     </row>
-    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="51"/>
       <c r="B62" s="63" t="s">
         <v>45</v>
@@ -7204,7 +7207,7 @@
       <c r="I62" s="195"/>
       <c r="J62" s="203"/>
     </row>
-    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="51"/>
       <c r="B63" s="119" t="s">
         <v>46</v>
@@ -7218,7 +7221,7 @@
       <c r="I63" s="195"/>
       <c r="J63" s="203"/>
     </row>
-    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="51"/>
       <c r="B64" s="119" t="s">
         <v>52</v>
@@ -7232,7 +7235,7 @@
       <c r="I64" s="195"/>
       <c r="J64" s="203"/>
     </row>
-    <row r="65" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="119"/>
       <c r="C65" s="122"/>
       <c r="D65" s="123"/>
@@ -7245,7 +7248,7 @@
       <c r="K65" s="68"/>
       <c r="L65" s="68"/>
     </row>
-    <row r="66" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="119"/>
       <c r="C66" s="122"/>
       <c r="D66" s="123"/>
@@ -7258,7 +7261,7 @@
       <c r="K66" s="68"/>
       <c r="L66" s="68"/>
     </row>
-    <row r="67" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="119"/>
       <c r="C67" s="122"/>
       <c r="D67" s="123"/>
@@ -7271,7 +7274,7 @@
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
     </row>
-    <row r="68" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="119"/>
       <c r="C68" s="122"/>
       <c r="D68" s="123"/>
@@ -7284,7 +7287,7 @@
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
     </row>
-    <row r="69" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="119"/>
       <c r="C69" s="122"/>
       <c r="D69" s="123"/>
@@ -7297,7 +7300,7 @@
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
     </row>
-    <row r="70" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="119"/>
       <c r="C70" s="122"/>
       <c r="D70" s="123"/>
@@ -7310,7 +7313,7 @@
       <c r="K70" s="68"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="119"/>
       <c r="C71" s="122"/>
       <c r="D71" s="123"/>
@@ -7323,7 +7326,7 @@
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
     </row>
-    <row r="72" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="119"/>
       <c r="C72" s="122"/>
       <c r="D72" s="123"/>
@@ -7336,7 +7339,7 @@
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
-    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="51"/>
       <c r="B73" s="119" t="s">
         <v>53</v>
@@ -7350,7 +7353,7 @@
       <c r="I73" s="195"/>
       <c r="J73" s="203"/>
     </row>
-    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="51"/>
       <c r="B74" s="98"/>
       <c r="C74" s="98"/>
@@ -7362,7 +7365,7 @@
       <c r="I74" s="93"/>
       <c r="J74" s="94"/>
     </row>
-    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="51"/>
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
@@ -7374,7 +7377,7 @@
       <c r="I75" s="93"/>
       <c r="J75" s="94"/>
     </row>
-    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="51"/>
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
@@ -7390,7 +7393,7 @@
       </c>
       <c r="K76" s="191"/>
     </row>
-    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="51"/>
       <c r="B77" s="51"/>
       <c r="C77" s="69"/>
@@ -7398,7 +7401,7 @@
       <c r="E77" s="101"/>
       <c r="F77" s="69"/>
     </row>
-    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
       <c r="C78" s="69"/>
@@ -7406,10 +7409,10 @@
       <c r="E78" s="101"/>
       <c r="F78" s="69"/>
     </row>
-    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="102"/>
       <c r="B79" s="180" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="81"/>
       <c r="D79" s="95"/>
@@ -7421,41 +7424,41 @@
       <c r="J79" s="95"/>
       <c r="K79" s="103"/>
     </row>
-    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="105"/>
       <c r="B80" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D80" s="198" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E80" s="87" t="s">
         <v>50</v>
       </c>
       <c r="F80" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G80" s="87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H80" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I80" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J80" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K80" s="106"/>
       <c r="L80" s="106"/>
       <c r="M80" s="106"/>
       <c r="N80" s="107"/>
     </row>
-    <row r="81" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="105"/>
       <c r="B81" s="63" t="s">
         <v>3</v>
@@ -7472,7 +7475,7 @@
       <c r="L81" s="110"/>
       <c r="M81" s="110"/>
     </row>
-    <row r="82" spans="1:13" s="108" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" s="108" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="105"/>
       <c r="B82" s="70" t="s">
         <v>19</v>
@@ -7489,7 +7492,7 @@
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
     </row>
-    <row r="83" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="105"/>
       <c r="B83" s="63" t="s">
         <v>4</v>
@@ -7506,7 +7509,7 @@
       <c r="L83" s="110"/>
       <c r="M83" s="110"/>
     </row>
-    <row r="84" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="105"/>
       <c r="B84" s="63" t="s">
         <v>5</v>
@@ -7523,10 +7526,10 @@
       <c r="L84" s="110"/>
       <c r="M84" s="110"/>
     </row>
-    <row r="85" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="105"/>
       <c r="B85" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="90"/>
       <c r="D85" s="90"/>
@@ -7540,7 +7543,7 @@
       <c r="L85" s="110"/>
       <c r="M85" s="110"/>
     </row>
-    <row r="86" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="105"/>
       <c r="B86" s="63" t="s">
         <v>20</v>
@@ -7557,7 +7560,7 @@
       <c r="L86" s="110"/>
       <c r="M86" s="110"/>
     </row>
-    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="51"/>
       <c r="B87" s="63" t="s">
         <v>21</v>
@@ -7574,10 +7577,10 @@
       <c r="L87" s="110"/>
       <c r="M87" s="110"/>
     </row>
-    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="51"/>
       <c r="B88" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88" s="120"/>
       <c r="D88" s="118"/>
@@ -7591,7 +7594,7 @@
       <c r="L88" s="110"/>
       <c r="M88" s="110"/>
     </row>
-    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="51"/>
       <c r="B89" s="63" t="s">
         <v>45</v>
@@ -7608,7 +7611,7 @@
       <c r="L89" s="110"/>
       <c r="M89" s="110"/>
     </row>
-    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="51"/>
       <c r="B90" s="119" t="s">
         <v>46</v>
@@ -7625,7 +7628,7 @@
       <c r="L90" s="110"/>
       <c r="M90" s="110"/>
     </row>
-    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="51"/>
       <c r="B91" s="119" t="s">
         <v>52</v>
@@ -7642,7 +7645,7 @@
       <c r="L91" s="110"/>
       <c r="M91" s="110"/>
     </row>
-    <row r="92" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="119"/>
       <c r="C92" s="122"/>
       <c r="D92" s="123"/>
@@ -7655,7 +7658,7 @@
       <c r="K92" s="68"/>
       <c r="L92" s="68"/>
     </row>
-    <row r="93" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="119"/>
       <c r="C93" s="122"/>
       <c r="D93" s="123"/>
@@ -7668,7 +7671,7 @@
       <c r="K93" s="68"/>
       <c r="L93" s="68"/>
     </row>
-    <row r="94" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="119"/>
       <c r="C94" s="122"/>
       <c r="D94" s="123"/>
@@ -7681,7 +7684,7 @@
       <c r="K94" s="68"/>
       <c r="L94" s="68"/>
     </row>
-    <row r="95" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="119"/>
       <c r="C95" s="122"/>
       <c r="D95" s="123"/>
@@ -7694,7 +7697,7 @@
       <c r="K95" s="68"/>
       <c r="L95" s="68"/>
     </row>
-    <row r="96" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="119"/>
       <c r="C96" s="122"/>
       <c r="D96" s="123"/>
@@ -7707,7 +7710,7 @@
       <c r="K96" s="68"/>
       <c r="L96" s="68"/>
     </row>
-    <row r="97" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="119"/>
       <c r="C97" s="122"/>
       <c r="D97" s="123"/>
@@ -7720,7 +7723,7 @@
       <c r="K97" s="68"/>
       <c r="L97" s="68"/>
     </row>
-    <row r="98" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="119"/>
       <c r="C98" s="122"/>
       <c r="D98" s="123"/>
@@ -7733,7 +7736,7 @@
       <c r="K98" s="68"/>
       <c r="L98" s="68"/>
     </row>
-    <row r="99" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="119"/>
       <c r="C99" s="122"/>
       <c r="D99" s="123"/>
@@ -7746,7 +7749,7 @@
       <c r="K99" s="68"/>
       <c r="L99" s="68"/>
     </row>
-    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="51"/>
       <c r="B100" s="119" t="s">
         <v>53</v>
@@ -7763,7 +7766,7 @@
       <c r="L100" s="110"/>
       <c r="M100" s="110"/>
     </row>
-    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="51"/>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -7778,10 +7781,10 @@
       <c r="L101" s="110"/>
       <c r="M101" s="110"/>
     </row>
-    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="51"/>
       <c r="B102" s="180" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C102" s="81"/>
       <c r="D102" s="95"/>
@@ -7795,40 +7798,40 @@
       <c r="L102" s="110"/>
       <c r="M102" s="110"/>
     </row>
-    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="51"/>
       <c r="B103" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D103" s="198" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E103" s="87" t="s">
         <v>50</v>
       </c>
       <c r="F103" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G103" s="87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H103" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I103" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J103" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K103" s="109"/>
       <c r="L103" s="110"/>
       <c r="M103" s="110"/>
     </row>
-    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="51"/>
       <c r="B104" s="63" t="s">
         <v>3</v>
@@ -7845,7 +7848,7 @@
       <c r="L104" s="110"/>
       <c r="M104" s="110"/>
     </row>
-    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="51"/>
       <c r="B105" s="70" t="s">
         <v>19</v>
@@ -7862,7 +7865,7 @@
       <c r="L105" s="110"/>
       <c r="M105" s="110"/>
     </row>
-    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="51"/>
       <c r="B106" s="63" t="s">
         <v>4</v>
@@ -7879,7 +7882,7 @@
       <c r="L106" s="110"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="51"/>
       <c r="B107" s="63" t="s">
         <v>5</v>
@@ -7896,10 +7899,10 @@
       <c r="L107" s="110"/>
       <c r="M107" s="110"/>
     </row>
-    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="51"/>
       <c r="B108" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108" s="90"/>
       <c r="D108" s="90"/>
@@ -7913,7 +7916,7 @@
       <c r="L108" s="110"/>
       <c r="M108" s="110"/>
     </row>
-    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="51"/>
       <c r="B109" s="63" t="s">
         <v>20</v>
@@ -7930,7 +7933,7 @@
       <c r="L109" s="110"/>
       <c r="M109" s="110"/>
     </row>
-    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="51"/>
       <c r="B110" s="63" t="s">
         <v>21</v>
@@ -7947,10 +7950,10 @@
       <c r="L110" s="110"/>
       <c r="M110" s="110"/>
     </row>
-    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="51"/>
       <c r="B111" s="63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="120"/>
       <c r="D111" s="118"/>
@@ -7964,7 +7967,7 @@
       <c r="L111" s="110"/>
       <c r="M111" s="110"/>
     </row>
-    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="51"/>
       <c r="B112" s="63" t="s">
         <v>45</v>
@@ -7981,7 +7984,7 @@
       <c r="L112" s="110"/>
       <c r="M112" s="110"/>
     </row>
-    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="51"/>
       <c r="B113" s="119" t="s">
         <v>46</v>
@@ -7998,7 +8001,7 @@
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
     </row>
-    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="51"/>
       <c r="B114" s="119" t="s">
         <v>52</v>
@@ -8015,7 +8018,7 @@
       <c r="L114" s="110"/>
       <c r="M114" s="110"/>
     </row>
-    <row r="115" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="119"/>
       <c r="C115" s="122"/>
       <c r="D115" s="123"/>
@@ -8028,7 +8031,7 @@
       <c r="K115" s="68"/>
       <c r="L115" s="68"/>
     </row>
-    <row r="116" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="119"/>
       <c r="C116" s="122"/>
       <c r="D116" s="123"/>
@@ -8041,7 +8044,7 @@
       <c r="K116" s="68"/>
       <c r="L116" s="68"/>
     </row>
-    <row r="117" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="119"/>
       <c r="C117" s="122"/>
       <c r="D117" s="123"/>
@@ -8054,7 +8057,7 @@
       <c r="K117" s="68"/>
       <c r="L117" s="68"/>
     </row>
-    <row r="118" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="119"/>
       <c r="C118" s="122"/>
       <c r="D118" s="123"/>
@@ -8067,7 +8070,7 @@
       <c r="K118" s="68"/>
       <c r="L118" s="68"/>
     </row>
-    <row r="119" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="119"/>
       <c r="C119" s="122"/>
       <c r="D119" s="123"/>
@@ -8080,7 +8083,7 @@
       <c r="K119" s="68"/>
       <c r="L119" s="68"/>
     </row>
-    <row r="120" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="119"/>
       <c r="C120" s="122"/>
       <c r="D120" s="123"/>
@@ -8093,7 +8096,7 @@
       <c r="K120" s="68"/>
       <c r="L120" s="68"/>
     </row>
-    <row r="121" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="119"/>
       <c r="C121" s="122"/>
       <c r="D121" s="123"/>
@@ -8106,7 +8109,7 @@
       <c r="K121" s="68"/>
       <c r="L121" s="68"/>
     </row>
-    <row r="122" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="119"/>
       <c r="C122" s="122"/>
       <c r="D122" s="123"/>
@@ -8119,7 +8122,7 @@
       <c r="K122" s="68"/>
       <c r="L122" s="68"/>
     </row>
-    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="51"/>
       <c r="B123" s="119" t="s">
         <v>53</v>
@@ -8136,7 +8139,7 @@
       <c r="L123" s="110"/>
       <c r="M123" s="110"/>
     </row>
-    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="51"/>
       <c r="B124" s="83"/>
       <c r="C124" s="83"/>
@@ -8151,10 +8154,10 @@
       <c r="L124" s="110"/>
       <c r="M124" s="110"/>
     </row>
-    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="51"/>
       <c r="B125" s="180" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C125" s="81"/>
       <c r="D125" s="78"/>
@@ -8165,7 +8168,7 @@
       <c r="I125" s="85"/>
       <c r="J125" s="94"/>
     </row>
-    <row r="126" spans="1:13" s="95" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="95" customFormat="1" ht="36.35" x14ac:dyDescent="0.4">
       <c r="A126" s="51"/>
       <c r="B126" s="161" t="s">
         <v>2</v>
@@ -8180,22 +8183,22 @@
         <v>50</v>
       </c>
       <c r="F126" s="87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G126" s="87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H126" s="88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I126" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J126" s="88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="51"/>
       <c r="B127" s="177" t="s">
         <v>24</v>
@@ -8209,9 +8212,9 @@
       <c r="I127" s="194"/>
       <c r="J127" s="202"/>
     </row>
-    <row r="128" spans="1:13" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" s="111" t="s">
         <v>9</v>
@@ -8224,7 +8227,7 @@
       <c r="H128" s="112"/>
       <c r="J128" s="95"/>
     </row>
-    <row r="129" spans="1:10" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="22.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="51"/>
       <c r="B129" s="111"/>
       <c r="C129" s="108"/>
@@ -8235,9 +8238,9 @@
       <c r="H129" s="112"/>
       <c r="J129" s="95"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B130" s="130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C130" s="113"/>
       <c r="D130" s="114"/>
@@ -8245,12 +8248,12 @@
       <c r="F130" s="81"/>
       <c r="H130" s="112"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="208">
         <v>1</v>
       </c>
       <c r="B131" s="212" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C131" s="212"/>
       <c r="D131" s="212"/>
@@ -8261,7 +8264,7 @@
       <c r="I131" s="212"/>
       <c r="J131" s="212"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B132" s="114"/>
       <c r="C132" s="115"/>
       <c r="D132" s="81"/>
@@ -8269,9 +8272,9 @@
       <c r="F132" s="81"/>
       <c r="H132" s="112"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B133" s="130" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C133" s="113"/>
       <c r="D133" s="114"/>
@@ -8279,12 +8282,12 @@
       <c r="F133" s="81"/>
       <c r="H133" s="112"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="208">
         <v>2</v>
       </c>
       <c r="B134" s="212" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C134" s="212"/>
       <c r="D134" s="212"/>
@@ -8295,14 +8298,14 @@
       <c r="I134" s="212"/>
       <c r="J134" s="212"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B135" s="114"/>
       <c r="D135" s="116"/>
       <c r="E135" s="57"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B136" s="130" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C136" s="113"/>
       <c r="D136" s="114"/>
@@ -8310,12 +8313,12 @@
       <c r="F136" s="81"/>
       <c r="H136" s="112"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="208">
         <v>3</v>
       </c>
       <c r="B137" s="212" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C137" s="212"/>
       <c r="D137" s="212"/>
@@ -8326,13 +8329,13 @@
       <c r="I137" s="212"/>
       <c r="J137" s="212"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B138" s="81"/>
       <c r="D138" s="116"/>
       <c r="E138" s="57"/>
       <c r="G138" s="94"/>
     </row>
-    <row r="139" spans="1:10" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="94" t="s">
         <v>51</v>
       </c>
@@ -8563,7 +8566,6 @@
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;28下午1時45分收盤期貨契約保證金狀況表&amp;R&amp;"標楷體,標準"&amp;16
 </oddHeader>
-    <oddFooter>&amp;R&amp;"微軟正黑體,標準"&amp;10&amp;F&amp;A</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="75" max="9" man="1"/>
@@ -8581,36 +8583,36 @@
       <selection activeCell="B126" sqref="B126:K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="188"/>
       <c r="H3" s="173"/>
       <c r="K3" s="173" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -8619,156 +8621,156 @@
       <c r="G7" s="15"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="170" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="214" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="222" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="222" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="223"/>
+      <c r="G8" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="215"/>
-      <c r="E8" s="214" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="215"/>
-      <c r="G8" s="218" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="218"/>
+      <c r="H8" s="221"/>
       <c r="I8" s="7"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="217"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="217"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="216"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="217"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="216"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="217"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="216"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="217"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="216"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
         <v>22</v>
       </c>
@@ -8779,7 +8781,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
         <v>23</v>
       </c>
@@ -8790,7 +8792,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="48"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8800,7 +8802,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="48"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8810,9 +8812,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8822,9 +8824,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8834,9 +8836,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="186" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8846,9 +8848,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="187" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8858,9 +8860,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="187" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8870,7 +8872,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="185" t="s">
         <v>14</v>
       </c>
@@ -8878,31 +8880,31 @@
         <v>15</v>
       </c>
       <c r="D28" s="185" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" s="185" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" s="196" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H28" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J28" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K28" s="176" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="41" t="s">
         <v>17</v>
       </c>
@@ -8918,7 +8920,7 @@
       <c r="J29" s="174"/>
       <c r="K29" s="204"/>
     </row>
-    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="41" t="s">
         <v>25</v>
       </c>
@@ -8937,7 +8939,7 @@
       <c r="J30" s="174"/>
       <c r="K30" s="205"/>
     </row>
-    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="41" t="s">
         <v>26</v>
       </c>
@@ -8953,7 +8955,7 @@
       <c r="J31" s="174"/>
       <c r="K31" s="204"/>
     </row>
-    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41" t="s">
         <v>27</v>
       </c>
@@ -8972,7 +8974,7 @@
       <c r="J32" s="174"/>
       <c r="K32" s="205"/>
     </row>
-    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="41" t="s">
         <v>28</v>
       </c>
@@ -8988,7 +8990,7 @@
       <c r="J33" s="174"/>
       <c r="K33" s="204"/>
     </row>
-    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="41" t="s">
         <v>29</v>
       </c>
@@ -9007,7 +9009,7 @@
       <c r="J34" s="174"/>
       <c r="K34" s="205"/>
     </row>
-    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
@@ -9023,7 +9025,7 @@
       <c r="J35" s="174"/>
       <c r="K35" s="204"/>
     </row>
-    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="41" t="s">
         <v>31</v>
       </c>
@@ -9042,7 +9044,7 @@
       <c r="J36" s="174"/>
       <c r="K36" s="205"/>
     </row>
-    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
@@ -9058,7 +9060,7 @@
       <c r="J37" s="174"/>
       <c r="K37" s="204"/>
     </row>
-    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="41" t="s">
         <v>33</v>
       </c>
@@ -9077,7 +9079,7 @@
       <c r="J38" s="174"/>
       <c r="K38" s="205"/>
     </row>
-    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -9087,7 +9089,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -9097,7 +9099,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -9107,7 +9109,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="188"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9121,7 +9123,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="188"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9132,7 +9134,7 @@
       <c r="I43" s="8"/>
       <c r="K43" s="173"/>
     </row>
-    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9142,16 +9144,16 @@
       <c r="H44" s="1"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="19"/>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>14</v>
       </c>
@@ -9159,32 +9161,32 @@
         <v>15</v>
       </c>
       <c r="D46" s="197" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E46" s="197" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F46" s="196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G46" s="196" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H46" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J46" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K46" s="176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
@@ -9201,7 +9203,7 @@
       <c r="K47" s="204"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="41" t="s">
         <v>35</v>
       </c>
@@ -9221,7 +9223,7 @@
       <c r="K48" s="205"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
@@ -9238,7 +9240,7 @@
       <c r="K49" s="204"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41" t="s">
         <v>37</v>
       </c>
@@ -9258,7 +9260,7 @@
       <c r="K50" s="205"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="41" t="s">
         <v>38</v>
       </c>
@@ -9275,7 +9277,7 @@
       <c r="K51" s="204"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="41" t="s">
         <v>39</v>
       </c>
@@ -9295,7 +9297,7 @@
       <c r="K52" s="205"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41" t="s">
         <v>40</v>
       </c>
@@ -9312,7 +9314,7 @@
       <c r="K53" s="204"/>
       <c r="L53" s="27"/>
     </row>
-    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="41" t="s">
         <v>41</v>
       </c>
@@ -9332,7 +9334,7 @@
       <c r="K54" s="205"/>
       <c r="L54" s="27"/>
     </row>
-    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="41" t="s">
         <v>42</v>
       </c>
@@ -9349,7 +9351,7 @@
       <c r="K55" s="204"/>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="41" t="s">
         <v>43</v>
       </c>
@@ -9369,7 +9371,7 @@
       <c r="K56" s="205"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
@@ -9382,7 +9384,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -9395,7 +9397,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -9408,9 +9410,9 @@
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
     </row>
-    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="32"/>
@@ -9423,40 +9425,40 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="193" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="197" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" s="197" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" s="196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G61" s="196" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H61" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J61" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K61" s="176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9475,7 @@
       <c r="K62" s="204"/>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="41" t="s">
         <v>25</v>
       </c>
@@ -9493,7 +9495,7 @@
       <c r="K63" s="205"/>
       <c r="L63" s="27"/>
     </row>
-    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="41" t="s">
         <v>26</v>
       </c>
@@ -9510,7 +9512,7 @@
       <c r="K64" s="204"/>
       <c r="L64" s="27"/>
     </row>
-    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41" t="s">
         <v>27</v>
       </c>
@@ -9530,7 +9532,7 @@
       <c r="K65" s="205"/>
       <c r="L65" s="27"/>
     </row>
-    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="41" t="s">
         <v>28</v>
       </c>
@@ -9547,7 +9549,7 @@
       <c r="K66" s="204"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="41" t="s">
         <v>29</v>
       </c>
@@ -9567,7 +9569,7 @@
       <c r="K67" s="205"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41" t="s">
         <v>30</v>
       </c>
@@ -9584,7 +9586,7 @@
       <c r="K68" s="204"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="41" t="s">
         <v>31</v>
       </c>
@@ -9604,7 +9606,7 @@
       <c r="K69" s="205"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="41" t="s">
         <v>32</v>
       </c>
@@ -9621,7 +9623,7 @@
       <c r="K70" s="204"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41" t="s">
         <v>33</v>
       </c>
@@ -9641,7 +9643,7 @@
       <c r="K71" s="205"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
@@ -9654,7 +9656,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
@@ -9667,7 +9669,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
@@ -9680,7 +9682,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
@@ -9693,7 +9695,7 @@
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
@@ -9706,9 +9708,9 @@
       <c r="K76" s="27"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="187" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="32"/>
@@ -9721,9 +9723,9 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="187" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9733,7 +9735,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="185" t="s">
         <v>14</v>
       </c>
@@ -9741,31 +9743,31 @@
         <v>15</v>
       </c>
       <c r="D79" s="192" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="E79" s="197" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="G79" s="196" t="s">
-        <v>153</v>
-      </c>
       <c r="H79" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J79" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K79" s="176" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41" t="s">
         <v>17</v>
       </c>
@@ -9781,7 +9783,7 @@
       <c r="J80" s="174"/>
       <c r="K80" s="204"/>
     </row>
-    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41" t="s">
         <v>25</v>
       </c>
@@ -9800,7 +9802,7 @@
       <c r="J81" s="174"/>
       <c r="K81" s="205"/>
     </row>
-    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41" t="s">
         <v>26</v>
       </c>
@@ -9816,7 +9818,7 @@
       <c r="J82" s="174"/>
       <c r="K82" s="204"/>
     </row>
-    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41" t="s">
         <v>27</v>
       </c>
@@ -9835,7 +9837,7 @@
       <c r="J83" s="174"/>
       <c r="K83" s="205"/>
     </row>
-    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41" t="s">
         <v>28</v>
       </c>
@@ -9851,7 +9853,7 @@
       <c r="J84" s="174"/>
       <c r="K84" s="204"/>
     </row>
-    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41" t="s">
         <v>29</v>
       </c>
@@ -9870,7 +9872,7 @@
       <c r="J85" s="174"/>
       <c r="K85" s="205"/>
     </row>
-    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41" t="s">
         <v>30</v>
       </c>
@@ -9886,7 +9888,7 @@
       <c r="J86" s="174"/>
       <c r="K86" s="204"/>
     </row>
-    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="41" t="s">
         <v>31</v>
       </c>
@@ -9905,7 +9907,7 @@
       <c r="J87" s="174"/>
       <c r="K87" s="205"/>
     </row>
-    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="41" t="s">
         <v>32</v>
       </c>
@@ -9921,7 +9923,7 @@
       <c r="J88" s="174"/>
       <c r="K88" s="204"/>
     </row>
-    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41" t="s">
         <v>33</v>
       </c>
@@ -9940,7 +9942,7 @@
       <c r="J89" s="174"/>
       <c r="K89" s="205"/>
     </row>
-    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
       <c r="C90" s="31"/>
       <c r="D90" s="32"/>
@@ -9953,7 +9955,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="188"/>
       <c r="C91" s="31"/>
       <c r="D91" s="32"/>
@@ -9969,7 +9971,7 @@
       </c>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="188"/>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
@@ -9982,29 +9984,29 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="219"/>
-      <c r="H93" s="220"/>
+      <c r="G93" s="218"/>
+      <c r="H93" s="219"/>
       <c r="I93" s="29"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="19"/>
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
     </row>
-    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="185" t="s">
         <v>14</v>
       </c>
@@ -10012,32 +10014,32 @@
         <v>15</v>
       </c>
       <c r="D95" s="197" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="E95" s="197" t="s">
-        <v>155</v>
-      </c>
-      <c r="F95" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="G95" s="196" t="s">
-        <v>153</v>
-      </c>
       <c r="H95" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J95" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K95" s="176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41" t="s">
         <v>17</v>
       </c>
@@ -10054,7 +10056,7 @@
       <c r="K96" s="204"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41" t="s">
         <v>25</v>
       </c>
@@ -10074,7 +10076,7 @@
       <c r="K97" s="205"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41" t="s">
         <v>26</v>
       </c>
@@ -10091,7 +10093,7 @@
       <c r="K98" s="204"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41" t="s">
         <v>27</v>
       </c>
@@ -10111,7 +10113,7 @@
       <c r="K99" s="205"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41" t="s">
         <v>28</v>
       </c>
@@ -10128,7 +10130,7 @@
       <c r="K100" s="204"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41" t="s">
         <v>29</v>
       </c>
@@ -10148,7 +10150,7 @@
       <c r="K101" s="205"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="41" t="s">
         <v>30</v>
       </c>
@@ -10165,7 +10167,7 @@
       <c r="K102" s="204"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41" t="s">
         <v>31</v>
       </c>
@@ -10185,7 +10187,7 @@
       <c r="K103" s="205"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41" t="s">
         <v>32</v>
       </c>
@@ -10202,7 +10204,7 @@
       <c r="K104" s="204"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="41" t="s">
         <v>33</v>
       </c>
@@ -10222,7 +10224,7 @@
       <c r="K105" s="205"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="32"/>
@@ -10235,9 +10237,9 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="129" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C107" s="31"/>
       <c r="D107" s="32"/>
@@ -10250,40 +10252,40 @@
       <c r="K107" s="27"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108" s="185" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="197" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="197" t="s">
+        <v>153</v>
+      </c>
+      <c r="F108" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="197" t="s">
-        <v>155</v>
-      </c>
-      <c r="F108" s="196" t="s">
-        <v>152</v>
-      </c>
-      <c r="G108" s="196" t="s">
-        <v>153</v>
-      </c>
       <c r="H108" s="197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J108" s="176" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K108" s="176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="41" t="s">
         <v>17</v>
       </c>
@@ -10300,7 +10302,7 @@
       <c r="K109" s="204"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41" t="s">
         <v>25</v>
       </c>
@@ -10320,7 +10322,7 @@
       <c r="K110" s="205"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="41" t="s">
         <v>26</v>
       </c>
@@ -10337,7 +10339,7 @@
       <c r="K111" s="204"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="41" t="s">
         <v>27</v>
       </c>
@@ -10357,7 +10359,7 @@
       <c r="K112" s="205"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="41" t="s">
         <v>28</v>
       </c>
@@ -10374,7 +10376,7 @@
       <c r="K113" s="204"/>
       <c r="L113" s="27"/>
     </row>
-    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="41" t="s">
         <v>29</v>
       </c>
@@ -10394,7 +10396,7 @@
       <c r="K114" s="205"/>
       <c r="L114" s="27"/>
     </row>
-    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="41" t="s">
         <v>30</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="K115" s="204"/>
       <c r="L115" s="27"/>
     </row>
-    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="41" t="s">
         <v>31</v>
       </c>
@@ -10431,7 +10433,7 @@
       <c r="K116" s="205"/>
       <c r="L116" s="27"/>
     </row>
-    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="41" t="s">
         <v>32</v>
       </c>
@@ -10448,7 +10450,7 @@
       <c r="K117" s="204"/>
       <c r="L117" s="27"/>
     </row>
-    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="41" t="s">
         <v>33</v>
       </c>
@@ -10468,7 +10470,7 @@
       <c r="K118" s="205"/>
       <c r="L118" s="27"/>
     </row>
-    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="30"/>
       <c r="C119" s="23"/>
@@ -10477,12 +10479,12 @@
       <c r="F119" s="23"/>
       <c r="G119" s="35"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -10492,7 +10494,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="39"/>
     </row>
-    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="34" t="s">
         <v>8</v>
       </c>
@@ -10507,21 +10509,21 @@
       <c r="H121" s="38"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="221" t="s">
-        <v>164</v>
-      </c>
-      <c r="C122" s="221"/>
-      <c r="D122" s="221"/>
-      <c r="E122" s="221"/>
-      <c r="F122" s="221"/>
-      <c r="G122" s="221"/>
-      <c r="H122" s="221"/>
-      <c r="I122" s="221"/>
-      <c r="J122" s="221"/>
-      <c r="K122" s="221"/>
-    </row>
-    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="40.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="220" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" s="220"/>
+      <c r="D122" s="220"/>
+      <c r="E122" s="220"/>
+      <c r="F122" s="220"/>
+      <c r="G122" s="220"/>
+      <c r="H122" s="220"/>
+      <c r="I122" s="220"/>
+      <c r="J122" s="220"/>
+      <c r="K122" s="220"/>
+    </row>
+    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A123" s="62"/>
       <c r="B123" s="131" t="s">
         <v>44</v>
@@ -10532,56 +10534,56 @@
       <c r="F123" s="115"/>
       <c r="H123" s="112"/>
     </row>
-    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A124" s="62">
         <v>2</v>
       </c>
-      <c r="B124" s="222" t="s">
-        <v>177</v>
-      </c>
-      <c r="C124" s="222"/>
-      <c r="D124" s="222"/>
-      <c r="E124" s="222"/>
-      <c r="F124" s="222"/>
-      <c r="G124" s="222"/>
-      <c r="H124" s="222"/>
-      <c r="I124" s="222"/>
-      <c r="J124" s="222"/>
-      <c r="K124" s="222"/>
-    </row>
-    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B124" s="213" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" s="213"/>
+      <c r="D124" s="213"/>
+      <c r="E124" s="213"/>
+      <c r="F124" s="213"/>
+      <c r="G124" s="213"/>
+      <c r="H124" s="213"/>
+      <c r="I124" s="213"/>
+      <c r="J124" s="213"/>
+      <c r="K124" s="213"/>
+    </row>
+    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A125" s="62"/>
-      <c r="B125" s="223" t="s">
-        <v>135</v>
-      </c>
-      <c r="C125" s="223"/>
-      <c r="D125" s="223"/>
-      <c r="E125" s="223"/>
-      <c r="F125" s="223"/>
-      <c r="G125" s="223"/>
-      <c r="H125" s="223"/>
-      <c r="I125" s="223"/>
-      <c r="J125" s="223"/>
-      <c r="K125" s="223"/>
-    </row>
-    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B125" s="214" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="214"/>
+      <c r="D125" s="214"/>
+      <c r="E125" s="214"/>
+      <c r="F125" s="214"/>
+      <c r="G125" s="214"/>
+      <c r="H125" s="214"/>
+      <c r="I125" s="214"/>
+      <c r="J125" s="214"/>
+      <c r="K125" s="214"/>
+    </row>
+    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A126" s="62">
         <v>2</v>
       </c>
-      <c r="B126" s="222" t="s">
-        <v>178</v>
-      </c>
-      <c r="C126" s="222"/>
-      <c r="D126" s="222"/>
-      <c r="E126" s="222"/>
-      <c r="F126" s="222"/>
-      <c r="G126" s="222"/>
-      <c r="H126" s="222"/>
-      <c r="I126" s="222"/>
-      <c r="J126" s="222"/>
-      <c r="K126" s="222"/>
-    </row>
-    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" s="213"/>
+      <c r="D126" s="213"/>
+      <c r="E126" s="213"/>
+      <c r="F126" s="213"/>
+      <c r="G126" s="213"/>
+      <c r="H126" s="213"/>
+      <c r="I126" s="213"/>
+      <c r="J126" s="213"/>
+      <c r="K126" s="213"/>
+    </row>
+    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>8</v>
       </c>
@@ -10596,24 +10598,24 @@
       <c r="H127" s="38"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A128" s="62">
         <v>3</v>
       </c>
-      <c r="B128" s="222" t="s">
-        <v>179</v>
-      </c>
-      <c r="C128" s="222"/>
-      <c r="D128" s="222"/>
-      <c r="E128" s="222"/>
-      <c r="F128" s="222"/>
-      <c r="G128" s="222"/>
-      <c r="H128" s="222"/>
-      <c r="I128" s="222"/>
-      <c r="J128" s="222"/>
-      <c r="K128" s="222"/>
-    </row>
-    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="213"/>
+      <c r="D128" s="213"/>
+      <c r="E128" s="213"/>
+      <c r="F128" s="213"/>
+      <c r="G128" s="213"/>
+      <c r="H128" s="213"/>
+      <c r="I128" s="213"/>
+      <c r="J128" s="213"/>
+      <c r="K128" s="213"/>
+    </row>
+    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="34" t="s">
         <v>8</v>
       </c>
@@ -10628,24 +10630,24 @@
       <c r="H129" s="38"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
       <c r="A130" s="62">
         <v>3</v>
       </c>
-      <c r="B130" s="222" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="222"/>
-      <c r="D130" s="222"/>
-      <c r="E130" s="222"/>
-      <c r="F130" s="222"/>
-      <c r="G130" s="222"/>
-      <c r="H130" s="222"/>
-      <c r="I130" s="222"/>
-      <c r="J130" s="222"/>
-      <c r="K130" s="222"/>
-    </row>
-    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="213"/>
+      <c r="D130" s="213"/>
+      <c r="E130" s="213"/>
+      <c r="F130" s="213"/>
+      <c r="G130" s="213"/>
+      <c r="H130" s="213"/>
+      <c r="I130" s="213"/>
+      <c r="J130" s="213"/>
+      <c r="K130" s="213"/>
+    </row>
+    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="62"/>
       <c r="B132" s="4" t="s">
         <v>10</v>
@@ -10660,21 +10662,33 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:11" ht="41.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B124:K124"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B128:K128"/>
-    <mergeCell ref="B130:K130"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
@@ -10683,28 +10697,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B128:K128"/>
+    <mergeCell ref="B130:K130"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B9">
@@ -10792,7 +10794,6 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;16下午1時45分收盤選擇權契約保證金狀況表&amp;R
 </oddHeader>
-    <oddFooter>&amp;R&amp;"微軟正黑體,標準"&amp;10&amp;F&amp;A</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="41" min="1" max="10" man="1"/>
@@ -10807,33 +10808,33 @@
   <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:S30"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="133" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="133" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="133" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="133" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="133" customWidth="1"/>
-    <col min="18" max="19" width="11.875" style="133" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="133" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="150" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="150" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="133" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="133" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="133" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="133" customWidth="1"/>
+    <col min="18" max="19" width="11.88671875" style="133" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="133" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="150" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="150" customWidth="1"/>
     <col min="25" max="27" width="11" style="159" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="150" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="158" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="158" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="146" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="133"/>
+    <col min="28" max="31" width="11.109375" style="150" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="158" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="158" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="146" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="152"/>
       <c r="B1" s="152"/>
       <c r="U1" s="224" t="s">
@@ -10858,15 +10859,15 @@
       <c r="AJ1" s="224"/>
       <c r="AK1" s="224"/>
     </row>
-    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="73.25" x14ac:dyDescent="0.3">
       <c r="A2" s="162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>60</v>
@@ -10884,10 +10885,10 @@
         <v>64</v>
       </c>
       <c r="I2" s="166" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="168" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K2" s="137" t="s">
         <v>65</v>
@@ -10899,10 +10900,10 @@
         <v>67</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O2" s="169" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P2" s="136" t="s">
         <v>68</v>
@@ -10914,10 +10915,10 @@
         <v>70</v>
       </c>
       <c r="S2" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="168" t="s">
         <v>117</v>
-      </c>
-      <c r="T2" s="168" t="s">
-        <v>119</v>
       </c>
       <c r="U2" s="148" t="s">
         <v>71</v>
@@ -10932,13 +10933,13 @@
         <v>74</v>
       </c>
       <c r="Y2" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="165" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="165" t="s">
         <v>109</v>
-      </c>
-      <c r="Z2" s="165" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA2" s="165" t="s">
-        <v>111</v>
       </c>
       <c r="AB2" s="148" t="s">
         <v>71</v>
@@ -10971,7 +10972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="138"/>
@@ -11010,7 +11011,7 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
       <c r="C4" s="138"/>
@@ -11049,7 +11050,7 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
       <c r="C5" s="138"/>
@@ -11088,7 +11089,7 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
       <c r="C6" s="138"/>
@@ -11127,7 +11128,7 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="138"/>
@@ -11166,7 +11167,7 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="138"/>
@@ -11205,7 +11206,7 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
       <c r="C9" s="138"/>
@@ -11244,7 +11245,7 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
       <c r="C10" s="138"/>
@@ -11283,7 +11284,7 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
       <c r="C11" s="138"/>
@@ -11322,7 +11323,7 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
       <c r="C12" s="138"/>
@@ -11361,7 +11362,7 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
       <c r="C13" s="138"/>
@@ -11400,7 +11401,7 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
       <c r="C14" s="138"/>
@@ -11439,7 +11440,7 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
       <c r="C15" s="138"/>
@@ -11478,7 +11479,7 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
       <c r="C16" s="138"/>
@@ -11517,7 +11518,7 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
       <c r="C17" s="138"/>
@@ -11556,7 +11557,7 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
       <c r="C18" s="138"/>
@@ -11595,7 +11596,7 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
       <c r="C19" s="138"/>
@@ -11634,7 +11635,7 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
       <c r="C20" s="138"/>
@@ -11673,7 +11674,7 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
       <c r="C21" s="138"/>
@@ -11712,7 +11713,7 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="138"/>
@@ -11751,7 +11752,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -11790,7 +11791,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -11829,7 +11830,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -11868,7 +11869,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -11907,7 +11908,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -11946,7 +11947,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -11985,7 +11986,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -12024,7 +12025,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -12063,12 +12064,12 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="164"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U34" s="163" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12092,24 +12093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="133" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="133" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="133" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="133" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="133" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="133" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="133" customWidth="1"/>
     <col min="21" max="21" width="11" style="155" customWidth="1"/>
     <col min="22" max="24" width="11" customWidth="1"/>
     <col min="25" max="27" width="11" style="160" customWidth="1"/>
@@ -12119,10 +12120,10 @@
     <col min="35" max="37" width="11" style="147" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="133" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="133" customFormat="1" ht="41.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="152"/>
       <c r="U1" s="225" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="V1" s="224"/>
       <c r="W1" s="224"/>
@@ -12131,7 +12132,7 @@
       <c r="Z1" s="224"/>
       <c r="AA1" s="224"/>
       <c r="AB1" s="226" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="AC1" s="227"/>
       <c r="AD1" s="227"/>
@@ -12143,15 +12144,15 @@
       <c r="AJ1" s="227"/>
       <c r="AK1" s="228"/>
     </row>
-    <row r="2" spans="1:37" s="133" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="133" customFormat="1" ht="73.25" x14ac:dyDescent="0.3">
       <c r="A2" s="162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>101</v>
@@ -12169,10 +12170,10 @@
         <v>97</v>
       </c>
       <c r="I2" s="166" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="168" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K2" s="137" t="s">
         <v>96</v>
@@ -12184,10 +12185,10 @@
         <v>94</v>
       </c>
       <c r="N2" s="167" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O2" s="169" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P2" s="136" t="s">
         <v>93</v>
@@ -12199,10 +12200,10 @@
         <v>91</v>
       </c>
       <c r="S2" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="168" t="s">
         <v>117</v>
-      </c>
-      <c r="T2" s="168" t="s">
-        <v>119</v>
       </c>
       <c r="U2" s="153" t="s">
         <v>90</v>
@@ -12217,13 +12218,13 @@
         <v>87</v>
       </c>
       <c r="Y2" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="165" t="s">
         <v>112</v>
-      </c>
-      <c r="Z2" s="165" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA2" s="165" t="s">
-        <v>114</v>
       </c>
       <c r="AB2" s="153" t="s">
         <v>90</v>
@@ -12256,10 +12257,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="138"/>
+      <c r="C3" s="229"/>
       <c r="D3" s="137"/>
       <c r="E3" s="137"/>
       <c r="F3" s="139"/>
@@ -12295,10 +12296,10 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
-      <c r="C4" s="138"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="137"/>
       <c r="E4" s="137"/>
       <c r="F4" s="139"/>
@@ -12334,10 +12335,10 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
-      <c r="C5" s="138"/>
+      <c r="C5" s="229"/>
       <c r="D5" s="137"/>
       <c r="E5" s="137"/>
       <c r="F5" s="139"/>
@@ -12373,10 +12374,10 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
-      <c r="C6" s="138"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="137"/>
       <c r="E6" s="137"/>
       <c r="F6" s="139"/>
@@ -12412,10 +12413,10 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
-      <c r="C7" s="138"/>
+      <c r="C7" s="229"/>
       <c r="D7" s="137"/>
       <c r="E7" s="137"/>
       <c r="F7" s="139"/>
@@ -12451,10 +12452,10 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
-      <c r="C8" s="138"/>
+      <c r="C8" s="229"/>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
       <c r="F8" s="139"/>
@@ -12490,10 +12491,10 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
-      <c r="C9" s="138"/>
+      <c r="C9" s="229"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137"/>
       <c r="F9" s="139"/>
@@ -12529,10 +12530,10 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
-      <c r="C10" s="138"/>
+      <c r="C10" s="229"/>
       <c r="D10" s="137"/>
       <c r="E10" s="137"/>
       <c r="F10" s="139"/>
@@ -12568,10 +12569,10 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
-      <c r="C11" s="138"/>
+      <c r="C11" s="229"/>
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
       <c r="F11" s="139"/>
@@ -12607,10 +12608,10 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
-      <c r="C12" s="138"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
       <c r="F12" s="139"/>
@@ -12646,10 +12647,10 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
-      <c r="C13" s="138"/>
+      <c r="C13" s="229"/>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
       <c r="F13" s="139"/>
@@ -12685,10 +12686,10 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
-      <c r="C14" s="138"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="137"/>
       <c r="E14" s="137"/>
       <c r="F14" s="139"/>
@@ -12724,10 +12725,10 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="137"/>
       <c r="E15" s="137"/>
       <c r="F15" s="139"/>
@@ -12763,10 +12764,10 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
-      <c r="C16" s="138"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="137"/>
       <c r="E16" s="137"/>
       <c r="F16" s="139"/>
@@ -12802,10 +12803,10 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
       <c r="F17" s="139"/>
@@ -12841,10 +12842,10 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
-      <c r="C18" s="138"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="137"/>
       <c r="E18" s="137"/>
       <c r="F18" s="139"/>
@@ -12880,10 +12881,10 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
-      <c r="C19" s="138"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="137"/>
       <c r="E19" s="137"/>
       <c r="F19" s="139"/>
@@ -12919,10 +12920,10 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
-      <c r="C20" s="138"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
       <c r="F20" s="139"/>
@@ -12958,10 +12959,10 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
-      <c r="C21" s="138"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="137"/>
       <c r="E21" s="137"/>
       <c r="F21" s="139"/>
@@ -12997,10 +12998,10 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
-      <c r="C22" s="138"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
       <c r="F22" s="139"/>
@@ -13036,7 +13037,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -13075,7 +13076,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -13114,7 +13115,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -13153,7 +13154,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -13192,7 +13193,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -13231,7 +13232,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -13270,7 +13271,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -13309,7 +13310,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -13348,12 +13349,12 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="163"/>
     </row>
-    <row r="34" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U34" s="163" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/PhoenixCI/Excel_Template/40011.xlsx
+++ b/PhoenixCI/Excel_Template/40011.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3769" yWindow="3769" windowWidth="21600" windowHeight="11382" activeTab="3"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -4118,7 +4113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -4131,7 +4126,7 @@
     <numFmt numFmtId="183" formatCode="0.000%"/>
     <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5161,6 +5156,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5173,39 +5171,39 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5220,9 +5218,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5675,7 +5670,7 @@
         <xdr:cNvPr id="1044" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5743,7 +5738,7 @@
         <xdr:cNvPr id="1045" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5816,7 +5811,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5902,7 +5897,7 @@
         <xdr:cNvPr id="4" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5988,7 +5983,7 @@
         <xdr:cNvPr id="6" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6102,7 +6097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6134,10 +6129,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6169,7 +6163,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6345,57 +6338,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A107" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" style="69" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="69" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="69" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="69" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="69" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="69" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="69" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="69" customWidth="1"/>
     <col min="11" max="11" width="11" style="69" customWidth="1"/>
-    <col min="12" max="13" width="9.77734375" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="69" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I1" s="211" t="s">
+    <row r="1" spans="1:12">
+      <c r="I1" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="211"/>
+      <c r="J1" s="212"/>
       <c r="K1" s="191"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="J2" s="199"/>
       <c r="K2" s="200"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="J3" s="199"/>
       <c r="K3" s="200"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="J4" s="199"/>
       <c r="K4" s="200"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="J5" s="199"/>
       <c r="K5" s="200"/>
     </row>
-    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="57" customFormat="1" ht="44.1" customHeight="1">
       <c r="A6" s="50" t="s">
         <v>0</v>
       </c>
@@ -6406,12 +6399,12 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="55"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="61" customFormat="1" ht="95.45" customHeight="1">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>2</v>
@@ -6443,7 +6436,7 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
     </row>
-    <row r="8" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
@@ -6458,7 +6451,7 @@
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
     </row>
-    <row r="9" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="B9" s="70" t="s">
         <v>19</v>
       </c>
@@ -6491,7 +6484,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:12" s="57" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="63" t="s">
         <v>4</v>
@@ -6507,7 +6500,7 @@
       <c r="K10" s="68"/>
       <c r="L10" s="68"/>
     </row>
-    <row r="11" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="B11" s="63" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6515,7 @@
       <c r="K11" s="68"/>
       <c r="L11" s="68"/>
     </row>
-    <row r="12" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="B12" s="63" t="s">
         <v>126</v>
       </c>
@@ -6537,7 +6530,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="1:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="B13" s="63" t="s">
         <v>127</v>
       </c>
@@ -6552,7 +6545,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
     </row>
-    <row r="14" spans="1:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="63" t="s">
         <v>20</v>
       </c>
@@ -6567,7 +6560,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="68"/>
     </row>
-    <row r="15" spans="1:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="73" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="63" t="s">
         <v>21</v>
       </c>
@@ -6582,7 +6575,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="1:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B16" s="63" t="s">
         <v>165</v>
       </c>
@@ -6597,7 +6590,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
     </row>
-    <row r="17" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
       <c r="B17" s="63" t="s">
         <v>45</v>
       </c>
@@ -6612,7 +6605,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="68"/>
     </row>
-    <row r="18" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
       <c r="B18" s="119" t="s">
         <v>46</v>
       </c>
@@ -6627,7 +6620,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
     </row>
-    <row r="19" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B19" s="119" t="s">
         <v>52</v>
       </c>
@@ -6642,7 +6635,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
     </row>
-    <row r="20" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B20" s="119"/>
       <c r="C20" s="122"/>
       <c r="D20" s="123"/>
@@ -6655,7 +6648,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
     </row>
-    <row r="21" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B21" s="119"/>
       <c r="C21" s="122"/>
       <c r="D21" s="123"/>
@@ -6668,7 +6661,7 @@
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
     </row>
-    <row r="22" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B22" s="119"/>
       <c r="C22" s="122"/>
       <c r="D22" s="123"/>
@@ -6681,7 +6674,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
     </row>
-    <row r="23" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B23" s="119"/>
       <c r="C23" s="122"/>
       <c r="D23" s="123"/>
@@ -6694,7 +6687,7 @@
       <c r="K23" s="68"/>
       <c r="L23" s="68"/>
     </row>
-    <row r="24" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B24" s="119"/>
       <c r="C24" s="122"/>
       <c r="D24" s="123"/>
@@ -6707,7 +6700,7 @@
       <c r="K24" s="68"/>
       <c r="L24" s="68"/>
     </row>
-    <row r="25" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B25" s="119"/>
       <c r="C25" s="122"/>
       <c r="D25" s="123"/>
@@ -6720,7 +6713,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B26" s="119"/>
       <c r="C26" s="122"/>
       <c r="D26" s="123"/>
@@ -6733,7 +6726,7 @@
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
     </row>
-    <row r="27" spans="2:12" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B27" s="119"/>
       <c r="C27" s="122"/>
       <c r="D27" s="123"/>
@@ -6746,7 +6739,7 @@
       <c r="K27" s="68"/>
       <c r="L27" s="68"/>
     </row>
-    <row r="28" spans="2:12" s="73" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" s="73" customFormat="1" ht="30" customHeight="1">
       <c r="B28" s="119" t="s">
         <v>53</v>
       </c>
@@ -6761,7 +6754,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="68"/>
     </row>
-    <row r="29" spans="2:12" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="75" t="s">
         <v>48</v>
       </c>
@@ -6776,7 +6769,7 @@
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12">
       <c r="B30" s="125" t="s">
         <v>54</v>
       </c>
@@ -6786,7 +6779,7 @@
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12">
       <c r="B31" s="125" t="s">
         <v>57</v>
       </c>
@@ -6796,7 +6789,7 @@
       <c r="F31" s="126"/>
       <c r="G31" s="126"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12">
       <c r="B32" s="129" t="s">
         <v>55</v>
       </c>
@@ -6806,7 +6799,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" s="78" customFormat="1" ht="18.75">
       <c r="B33" s="125" t="s">
         <v>56</v>
       </c>
@@ -6820,7 +6813,7 @@
       <c r="K33" s="79"/>
       <c r="L33" s="79"/>
     </row>
-    <row r="34" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B34" s="77"/>
       <c r="C34" s="69"/>
       <c r="D34" s="69"/>
@@ -6832,7 +6825,7 @@
       <c r="K34" s="79"/>
       <c r="L34" s="79"/>
     </row>
-    <row r="35" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B35" s="77"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
@@ -6844,7 +6837,7 @@
       <c r="K35" s="79"/>
       <c r="L35" s="79"/>
     </row>
-    <row r="36" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B36" s="77"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
@@ -6856,7 +6849,7 @@
       <c r="K36" s="79"/>
       <c r="L36" s="79"/>
     </row>
-    <row r="37" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B37" s="77"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -6868,7 +6861,7 @@
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
     </row>
-    <row r="38" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B38" s="77"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
@@ -6880,7 +6873,7 @@
       <c r="K38" s="79"/>
       <c r="L38" s="79"/>
     </row>
-    <row r="39" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B39" s="77"/>
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
@@ -6892,7 +6885,7 @@
       <c r="K39" s="79"/>
       <c r="L39" s="79"/>
     </row>
-    <row r="40" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B40" s="77"/>
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
@@ -6904,7 +6897,7 @@
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
     </row>
-    <row r="41" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B41" s="77"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
@@ -6916,7 +6909,7 @@
       <c r="K41" s="79"/>
       <c r="L41" s="79"/>
     </row>
-    <row r="42" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B42" s="77"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
@@ -6928,7 +6921,7 @@
       <c r="K42" s="79"/>
       <c r="L42" s="79"/>
     </row>
-    <row r="43" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B43" s="77"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
@@ -6940,7 +6933,7 @@
       <c r="K43" s="79"/>
       <c r="L43" s="79"/>
     </row>
-    <row r="44" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B44" s="77"/>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -6952,7 +6945,7 @@
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
     </row>
-    <row r="45" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B45" s="77"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
@@ -6964,7 +6957,7 @@
       <c r="K45" s="79"/>
       <c r="L45" s="79"/>
     </row>
-    <row r="46" spans="2:12" s="78" customFormat="1" ht="17.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" s="78" customFormat="1" ht="18.75" hidden="1">
       <c r="B46" s="77"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
@@ -6976,7 +6969,7 @@
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
     </row>
-    <row r="47" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" s="78" customFormat="1" ht="18.75">
       <c r="B47" s="77"/>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -6988,7 +6981,7 @@
       <c r="K47" s="79"/>
       <c r="L47" s="79"/>
     </row>
-    <row r="48" spans="2:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" s="78" customFormat="1" ht="18.75">
       <c r="B48" s="77"/>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
@@ -7000,7 +6993,7 @@
       <c r="K48" s="79"/>
       <c r="L48" s="79"/>
     </row>
-    <row r="49" spans="1:12" s="78" customFormat="1" ht="17.55" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="78" customFormat="1" ht="18.75">
       <c r="B49" s="77"/>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
@@ -7012,7 +7005,7 @@
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
     </row>
-    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="80" customFormat="1" ht="44.1" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>6</v>
       </c>
@@ -7030,7 +7023,7 @@
       <c r="K50" s="79"/>
       <c r="L50" s="79"/>
     </row>
-    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="80" customFormat="1" ht="24.4" customHeight="1">
       <c r="A51" s="51"/>
       <c r="B51" s="51" t="s">
         <v>154</v>
@@ -7046,7 +7039,7 @@
       <c r="K51" s="79"/>
       <c r="L51" s="79"/>
     </row>
-    <row r="52" spans="1:12" ht="26.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="26.25" customHeight="1">
       <c r="B52" s="180" t="s">
         <v>136</v>
       </c>
@@ -7057,7 +7050,7 @@
       <c r="G52" s="84"/>
       <c r="H52" s="85"/>
     </row>
-    <row r="53" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="48.95" customHeight="1">
       <c r="B53" s="86" t="s">
         <v>2</v>
       </c>
@@ -7086,7 +7079,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="32.25" customHeight="1">
       <c r="B54" s="63" t="s">
         <v>3</v>
       </c>
@@ -7099,7 +7092,7 @@
       <c r="I54" s="194"/>
       <c r="J54" s="202"/>
     </row>
-    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="32.25" hidden="1" customHeight="1">
       <c r="B55" s="70" t="s">
         <v>19</v>
       </c>
@@ -7112,7 +7105,7 @@
       <c r="I55" s="194"/>
       <c r="J55" s="202"/>
     </row>
-    <row r="56" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="32.25" customHeight="1">
       <c r="B56" s="63" t="s">
         <v>4</v>
       </c>
@@ -7125,7 +7118,7 @@
       <c r="I56" s="194"/>
       <c r="J56" s="202"/>
     </row>
-    <row r="57" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="32.25" customHeight="1">
       <c r="B57" s="63" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7131,7 @@
       <c r="I57" s="194"/>
       <c r="J57" s="202"/>
     </row>
-    <row r="58" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="32.25" customHeight="1">
       <c r="B58" s="63" t="s">
         <v>126</v>
       </c>
@@ -7151,7 +7144,7 @@
       <c r="I58" s="194"/>
       <c r="J58" s="202"/>
     </row>
-    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A59" s="51"/>
       <c r="B59" s="63" t="s">
         <v>20</v>
@@ -7165,7 +7158,7 @@
       <c r="I59" s="194"/>
       <c r="J59" s="202"/>
     </row>
-    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A60" s="51"/>
       <c r="B60" s="63" t="s">
         <v>21</v>
@@ -7179,7 +7172,7 @@
       <c r="I60" s="194"/>
       <c r="J60" s="202"/>
     </row>
-    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A61" s="51"/>
       <c r="B61" s="63" t="s">
         <v>164</v>
@@ -7193,7 +7186,7 @@
       <c r="I61" s="195"/>
       <c r="J61" s="203"/>
     </row>
-    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A62" s="51"/>
       <c r="B62" s="63" t="s">
         <v>45</v>
@@ -7207,7 +7200,7 @@
       <c r="I62" s="195"/>
       <c r="J62" s="203"/>
     </row>
-    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A63" s="51"/>
       <c r="B63" s="119" t="s">
         <v>46</v>
@@ -7221,7 +7214,7 @@
       <c r="I63" s="195"/>
       <c r="J63" s="203"/>
     </row>
-    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="95" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A64" s="51"/>
       <c r="B64" s="119" t="s">
         <v>52</v>
@@ -7235,7 +7228,7 @@
       <c r="I64" s="195"/>
       <c r="J64" s="203"/>
     </row>
-    <row r="65" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B65" s="119"/>
       <c r="C65" s="122"/>
       <c r="D65" s="123"/>
@@ -7248,7 +7241,7 @@
       <c r="K65" s="68"/>
       <c r="L65" s="68"/>
     </row>
-    <row r="66" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B66" s="119"/>
       <c r="C66" s="122"/>
       <c r="D66" s="123"/>
@@ -7261,7 +7254,7 @@
       <c r="K66" s="68"/>
       <c r="L66" s="68"/>
     </row>
-    <row r="67" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B67" s="119"/>
       <c r="C67" s="122"/>
       <c r="D67" s="123"/>
@@ -7274,7 +7267,7 @@
       <c r="K67" s="68"/>
       <c r="L67" s="68"/>
     </row>
-    <row r="68" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B68" s="119"/>
       <c r="C68" s="122"/>
       <c r="D68" s="123"/>
@@ -7287,7 +7280,7 @@
       <c r="K68" s="68"/>
       <c r="L68" s="68"/>
     </row>
-    <row r="69" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B69" s="119"/>
       <c r="C69" s="122"/>
       <c r="D69" s="123"/>
@@ -7300,7 +7293,7 @@
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
     </row>
-    <row r="70" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B70" s="119"/>
       <c r="C70" s="122"/>
       <c r="D70" s="123"/>
@@ -7313,7 +7306,7 @@
       <c r="K70" s="68"/>
       <c r="L70" s="68"/>
     </row>
-    <row r="71" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B71" s="119"/>
       <c r="C71" s="122"/>
       <c r="D71" s="123"/>
@@ -7326,7 +7319,7 @@
       <c r="K71" s="68"/>
       <c r="L71" s="68"/>
     </row>
-    <row r="72" spans="1:14" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B72" s="119"/>
       <c r="C72" s="122"/>
       <c r="D72" s="123"/>
@@ -7339,7 +7332,7 @@
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
-    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A73" s="51"/>
       <c r="B73" s="119" t="s">
         <v>53</v>
@@ -7353,7 +7346,7 @@
       <c r="I73" s="195"/>
       <c r="J73" s="203"/>
     </row>
-    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A74" s="51"/>
       <c r="B74" s="98"/>
       <c r="C74" s="98"/>
@@ -7365,7 +7358,7 @@
       <c r="I74" s="93"/>
       <c r="J74" s="94"/>
     </row>
-    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A75" s="51"/>
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
@@ -7377,7 +7370,7 @@
       <c r="I75" s="93"/>
       <c r="J75" s="94"/>
     </row>
-    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A76" s="51"/>
       <c r="B76" s="97"/>
       <c r="C76" s="98"/>
@@ -7393,7 +7386,7 @@
       </c>
       <c r="K76" s="191"/>
     </row>
-    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1">
       <c r="A77" s="51"/>
       <c r="B77" s="51"/>
       <c r="C77" s="69"/>
@@ -7401,7 +7394,7 @@
       <c r="E77" s="101"/>
       <c r="F77" s="69"/>
     </row>
-    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="95" customFormat="1" ht="47.45" customHeight="1">
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
       <c r="C78" s="69"/>
@@ -7409,7 +7402,7 @@
       <c r="E78" s="101"/>
       <c r="F78" s="69"/>
     </row>
-    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" s="104" customFormat="1" ht="24.75" customHeight="1">
       <c r="A79" s="102"/>
       <c r="B79" s="180" t="s">
         <v>169</v>
@@ -7424,7 +7417,7 @@
       <c r="J79" s="95"/>
       <c r="K79" s="103"/>
     </row>
-    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" s="108" customFormat="1" ht="73.7" customHeight="1">
       <c r="A80" s="105"/>
       <c r="B80" s="161" t="s">
         <v>2</v>
@@ -7458,7 +7451,7 @@
       <c r="M80" s="106"/>
       <c r="N80" s="107"/>
     </row>
-    <row r="81" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
       <c r="A81" s="105"/>
       <c r="B81" s="63" t="s">
         <v>3</v>
@@ -7475,7 +7468,7 @@
       <c r="L81" s="110"/>
       <c r="M81" s="110"/>
     </row>
-    <row r="82" spans="1:13" s="108" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" s="108" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A82" s="105"/>
       <c r="B82" s="70" t="s">
         <v>19</v>
@@ -7492,7 +7485,7 @@
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
     </row>
-    <row r="83" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
       <c r="A83" s="105"/>
       <c r="B83" s="63" t="s">
         <v>4</v>
@@ -7509,7 +7502,7 @@
       <c r="L83" s="110"/>
       <c r="M83" s="110"/>
     </row>
-    <row r="84" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
       <c r="A84" s="105"/>
       <c r="B84" s="63" t="s">
         <v>5</v>
@@ -7526,7 +7519,7 @@
       <c r="L84" s="110"/>
       <c r="M84" s="110"/>
     </row>
-    <row r="85" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
       <c r="A85" s="105"/>
       <c r="B85" s="63" t="s">
         <v>126</v>
@@ -7543,7 +7536,7 @@
       <c r="L85" s="110"/>
       <c r="M85" s="110"/>
     </row>
-    <row r="86" spans="1:13" s="108" customFormat="1" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" s="108" customFormat="1" ht="30" customHeight="1">
       <c r="A86" s="105"/>
       <c r="B86" s="63" t="s">
         <v>20</v>
@@ -7560,7 +7553,7 @@
       <c r="L86" s="110"/>
       <c r="M86" s="110"/>
     </row>
-    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A87" s="51"/>
       <c r="B87" s="63" t="s">
         <v>21</v>
@@ -7577,7 +7570,7 @@
       <c r="L87" s="110"/>
       <c r="M87" s="110"/>
     </row>
-    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A88" s="51"/>
       <c r="B88" s="63" t="s">
         <v>164</v>
@@ -7594,7 +7587,7 @@
       <c r="L88" s="110"/>
       <c r="M88" s="110"/>
     </row>
-    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A89" s="51"/>
       <c r="B89" s="63" t="s">
         <v>45</v>
@@ -7611,7 +7604,7 @@
       <c r="L89" s="110"/>
       <c r="M89" s="110"/>
     </row>
-    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A90" s="51"/>
       <c r="B90" s="119" t="s">
         <v>46</v>
@@ -7628,7 +7621,7 @@
       <c r="L90" s="110"/>
       <c r="M90" s="110"/>
     </row>
-    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A91" s="51"/>
       <c r="B91" s="119" t="s">
         <v>52</v>
@@ -7645,7 +7638,7 @@
       <c r="L91" s="110"/>
       <c r="M91" s="110"/>
     </row>
-    <row r="92" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B92" s="119"/>
       <c r="C92" s="122"/>
       <c r="D92" s="123"/>
@@ -7658,7 +7651,7 @@
       <c r="K92" s="68"/>
       <c r="L92" s="68"/>
     </row>
-    <row r="93" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B93" s="119"/>
       <c r="C93" s="122"/>
       <c r="D93" s="123"/>
@@ -7671,7 +7664,7 @@
       <c r="K93" s="68"/>
       <c r="L93" s="68"/>
     </row>
-    <row r="94" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B94" s="119"/>
       <c r="C94" s="122"/>
       <c r="D94" s="123"/>
@@ -7684,7 +7677,7 @@
       <c r="K94" s="68"/>
       <c r="L94" s="68"/>
     </row>
-    <row r="95" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B95" s="119"/>
       <c r="C95" s="122"/>
       <c r="D95" s="123"/>
@@ -7697,7 +7690,7 @@
       <c r="K95" s="68"/>
       <c r="L95" s="68"/>
     </row>
-    <row r="96" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B96" s="119"/>
       <c r="C96" s="122"/>
       <c r="D96" s="123"/>
@@ -7710,7 +7703,7 @@
       <c r="K96" s="68"/>
       <c r="L96" s="68"/>
     </row>
-    <row r="97" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B97" s="119"/>
       <c r="C97" s="122"/>
       <c r="D97" s="123"/>
@@ -7723,7 +7716,7 @@
       <c r="K97" s="68"/>
       <c r="L97" s="68"/>
     </row>
-    <row r="98" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B98" s="119"/>
       <c r="C98" s="122"/>
       <c r="D98" s="123"/>
@@ -7736,7 +7729,7 @@
       <c r="K98" s="68"/>
       <c r="L98" s="68"/>
     </row>
-    <row r="99" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B99" s="119"/>
       <c r="C99" s="122"/>
       <c r="D99" s="123"/>
@@ -7749,7 +7742,7 @@
       <c r="K99" s="68"/>
       <c r="L99" s="68"/>
     </row>
-    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A100" s="51"/>
       <c r="B100" s="119" t="s">
         <v>53</v>
@@ -7766,7 +7759,7 @@
       <c r="L100" s="110"/>
       <c r="M100" s="110"/>
     </row>
-    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A101" s="51"/>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -7781,7 +7774,7 @@
       <c r="L101" s="110"/>
       <c r="M101" s="110"/>
     </row>
-    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A102" s="51"/>
       <c r="B102" s="180" t="s">
         <v>170</v>
@@ -7798,7 +7791,7 @@
       <c r="L102" s="110"/>
       <c r="M102" s="110"/>
     </row>
-    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" s="108" customFormat="1" ht="55.7" customHeight="1">
       <c r="A103" s="51"/>
       <c r="B103" s="161" t="s">
         <v>2</v>
@@ -7831,7 +7824,7 @@
       <c r="L103" s="110"/>
       <c r="M103" s="110"/>
     </row>
-    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A104" s="51"/>
       <c r="B104" s="63" t="s">
         <v>3</v>
@@ -7848,7 +7841,7 @@
       <c r="L104" s="110"/>
       <c r="M104" s="110"/>
     </row>
-    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A105" s="51"/>
       <c r="B105" s="70" t="s">
         <v>19</v>
@@ -7865,7 +7858,7 @@
       <c r="L105" s="110"/>
       <c r="M105" s="110"/>
     </row>
-    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A106" s="51"/>
       <c r="B106" s="63" t="s">
         <v>4</v>
@@ -7882,7 +7875,7 @@
       <c r="L106" s="110"/>
       <c r="M106" s="110"/>
     </row>
-    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="63" t="s">
         <v>5</v>
@@ -7899,7 +7892,7 @@
       <c r="L107" s="110"/>
       <c r="M107" s="110"/>
     </row>
-    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="63" t="s">
         <v>126</v>
@@ -7916,7 +7909,7 @@
       <c r="L108" s="110"/>
       <c r="M108" s="110"/>
     </row>
-    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A109" s="51"/>
       <c r="B109" s="63" t="s">
         <v>20</v>
@@ -7933,7 +7926,7 @@
       <c r="L109" s="110"/>
       <c r="M109" s="110"/>
     </row>
-    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="63" t="s">
         <v>21</v>
@@ -7950,7 +7943,7 @@
       <c r="L110" s="110"/>
       <c r="M110" s="110"/>
     </row>
-    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="63" t="s">
         <v>164</v>
@@ -7967,7 +7960,7 @@
       <c r="L111" s="110"/>
       <c r="M111" s="110"/>
     </row>
-    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A112" s="51"/>
       <c r="B112" s="63" t="s">
         <v>45</v>
@@ -7984,7 +7977,7 @@
       <c r="L112" s="110"/>
       <c r="M112" s="110"/>
     </row>
-    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="119" t="s">
         <v>46</v>
@@ -8001,7 +7994,7 @@
       <c r="L113" s="110"/>
       <c r="M113" s="110"/>
     </row>
-    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" s="108" customFormat="1" ht="32.25" hidden="1" customHeight="1">
       <c r="A114" s="51"/>
       <c r="B114" s="119" t="s">
         <v>52</v>
@@ -8018,7 +8011,7 @@
       <c r="L114" s="110"/>
       <c r="M114" s="110"/>
     </row>
-    <row r="115" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B115" s="119"/>
       <c r="C115" s="122"/>
       <c r="D115" s="123"/>
@@ -8031,7 +8024,7 @@
       <c r="K115" s="68"/>
       <c r="L115" s="68"/>
     </row>
-    <row r="116" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B116" s="119"/>
       <c r="C116" s="122"/>
       <c r="D116" s="123"/>
@@ -8044,7 +8037,7 @@
       <c r="K116" s="68"/>
       <c r="L116" s="68"/>
     </row>
-    <row r="117" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B117" s="119"/>
       <c r="C117" s="122"/>
       <c r="D117" s="123"/>
@@ -8057,7 +8050,7 @@
       <c r="K117" s="68"/>
       <c r="L117" s="68"/>
     </row>
-    <row r="118" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B118" s="119"/>
       <c r="C118" s="122"/>
       <c r="D118" s="123"/>
@@ -8070,7 +8063,7 @@
       <c r="K118" s="68"/>
       <c r="L118" s="68"/>
     </row>
-    <row r="119" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B119" s="119"/>
       <c r="C119" s="122"/>
       <c r="D119" s="123"/>
@@ -8083,7 +8076,7 @@
       <c r="K119" s="68"/>
       <c r="L119" s="68"/>
     </row>
-    <row r="120" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B120" s="119"/>
       <c r="C120" s="122"/>
       <c r="D120" s="123"/>
@@ -8096,7 +8089,7 @@
       <c r="K120" s="68"/>
       <c r="L120" s="68"/>
     </row>
-    <row r="121" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B121" s="119"/>
       <c r="C121" s="122"/>
       <c r="D121" s="123"/>
@@ -8109,7 +8102,7 @@
       <c r="K121" s="68"/>
       <c r="L121" s="68"/>
     </row>
-    <row r="122" spans="1:13" s="73" customFormat="1" ht="30.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="73" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B122" s="119"/>
       <c r="C122" s="122"/>
       <c r="D122" s="123"/>
@@ -8122,7 +8115,7 @@
       <c r="K122" s="68"/>
       <c r="L122" s="68"/>
     </row>
-    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A123" s="51"/>
       <c r="B123" s="119" t="s">
         <v>53</v>
@@ -8139,7 +8132,7 @@
       <c r="L123" s="110"/>
       <c r="M123" s="110"/>
     </row>
-    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" s="108" customFormat="1" ht="32.25" customHeight="1">
       <c r="A124" s="51"/>
       <c r="B124" s="83"/>
       <c r="C124" s="83"/>
@@ -8154,7 +8147,7 @@
       <c r="L124" s="110"/>
       <c r="M124" s="110"/>
     </row>
-    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A125" s="51"/>
       <c r="B125" s="180" t="s">
         <v>171</v>
@@ -8168,7 +8161,7 @@
       <c r="I125" s="85"/>
       <c r="J125" s="94"/>
     </row>
-    <row r="126" spans="1:13" s="95" customFormat="1" ht="36.35" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" s="95" customFormat="1" ht="39">
       <c r="A126" s="51"/>
       <c r="B126" s="161" t="s">
         <v>2</v>
@@ -8198,7 +8191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" s="95" customFormat="1" ht="32.25" customHeight="1">
       <c r="A127" s="51"/>
       <c r="B127" s="177" t="s">
         <v>24</v>
@@ -8212,7 +8205,7 @@
       <c r="I127" s="194"/>
       <c r="J127" s="202"/>
     </row>
-    <row r="128" spans="1:13" ht="45.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" ht="45.2" customHeight="1">
       <c r="A128" s="51" t="s">
         <v>134</v>
       </c>
@@ -8227,7 +8220,7 @@
       <c r="H128" s="112"/>
       <c r="J128" s="95"/>
     </row>
-    <row r="129" spans="1:10" ht="22.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="22.5" customHeight="1">
       <c r="A129" s="51"/>
       <c r="B129" s="111"/>
       <c r="C129" s="108"/>
@@ -8238,7 +8231,7 @@
       <c r="H129" s="112"/>
       <c r="J129" s="95"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10">
       <c r="B130" s="130" t="s">
         <v>166</v>
       </c>
@@ -8248,23 +8241,23 @@
       <c r="F130" s="81"/>
       <c r="H130" s="112"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" s="208">
         <v>1</v>
       </c>
-      <c r="B131" s="212" t="s">
+      <c r="B131" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="212"/>
-      <c r="D131" s="212"/>
-      <c r="E131" s="212"/>
-      <c r="F131" s="212"/>
-      <c r="G131" s="212"/>
-      <c r="H131" s="212"/>
-      <c r="I131" s="212"/>
-      <c r="J131" s="212"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C131" s="213"/>
+      <c r="D131" s="213"/>
+      <c r="E131" s="213"/>
+      <c r="F131" s="213"/>
+      <c r="G131" s="213"/>
+      <c r="H131" s="213"/>
+      <c r="I131" s="213"/>
+      <c r="J131" s="213"/>
+    </row>
+    <row r="132" spans="1:10">
       <c r="B132" s="114"/>
       <c r="C132" s="115"/>
       <c r="D132" s="81"/>
@@ -8272,7 +8265,7 @@
       <c r="F132" s="81"/>
       <c r="H132" s="112"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10">
       <c r="B133" s="130" t="s">
         <v>167</v>
       </c>
@@ -8282,28 +8275,28 @@
       <c r="F133" s="81"/>
       <c r="H133" s="112"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" s="208">
         <v>2</v>
       </c>
-      <c r="B134" s="212" t="s">
+      <c r="B134" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="212"/>
-      <c r="D134" s="212"/>
-      <c r="E134" s="212"/>
-      <c r="F134" s="212"/>
-      <c r="G134" s="212"/>
-      <c r="H134" s="212"/>
-      <c r="I134" s="212"/>
-      <c r="J134" s="212"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C134" s="213"/>
+      <c r="D134" s="213"/>
+      <c r="E134" s="213"/>
+      <c r="F134" s="213"/>
+      <c r="G134" s="213"/>
+      <c r="H134" s="213"/>
+      <c r="I134" s="213"/>
+      <c r="J134" s="213"/>
+    </row>
+    <row r="135" spans="1:10">
       <c r="B135" s="114"/>
       <c r="D135" s="116"/>
       <c r="E135" s="57"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10">
       <c r="B136" s="130" t="s">
         <v>167</v>
       </c>
@@ -8313,29 +8306,29 @@
       <c r="F136" s="81"/>
       <c r="H136" s="112"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" s="208">
         <v>3</v>
       </c>
-      <c r="B137" s="212" t="s">
+      <c r="B137" s="213" t="s">
         <v>179</v>
       </c>
-      <c r="C137" s="212"/>
-      <c r="D137" s="212"/>
-      <c r="E137" s="212"/>
-      <c r="F137" s="212"/>
-      <c r="G137" s="212"/>
-      <c r="H137" s="212"/>
-      <c r="I137" s="212"/>
-      <c r="J137" s="212"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C137" s="213"/>
+      <c r="D137" s="213"/>
+      <c r="E137" s="213"/>
+      <c r="F137" s="213"/>
+      <c r="G137" s="213"/>
+      <c r="H137" s="213"/>
+      <c r="I137" s="213"/>
+      <c r="J137" s="213"/>
+    </row>
+    <row r="138" spans="1:10">
       <c r="B138" s="81"/>
       <c r="D138" s="116"/>
       <c r="E138" s="57"/>
       <c r="G138" s="94"/>
     </row>
-    <row r="139" spans="1:10" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="37.700000000000003" customHeight="1">
       <c r="B139" s="94" t="s">
         <v>51</v>
       </c>
@@ -8575,7 +8568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:L135"/>
   <sheetViews>
@@ -8583,31 +8576,31 @@
       <selection activeCell="B126" sqref="B126:K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="0.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="16.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="B3" s="188"/>
       <c r="H3" s="173"/>
       <c r="K3" s="173" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="22.5" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
@@ -8621,156 +8614,156 @@
       <c r="G7" s="15"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="48.95" customHeight="1">
       <c r="B8" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="222" t="s">
+      <c r="C8" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="222" t="s">
+      <c r="D8" s="216"/>
+      <c r="E8" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="223"/>
-      <c r="G8" s="221" t="s">
+      <c r="F8" s="216"/>
+      <c r="G8" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="221"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="7"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="216"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="216"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="218"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="216"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="218"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="16" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="216"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="218"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="19.899999999999999" customHeight="1">
       <c r="B19" s="48" t="s">
         <v>22</v>
       </c>
@@ -8781,7 +8774,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="19.899999999999999" customHeight="1">
       <c r="B20" s="47" t="s">
         <v>23</v>
       </c>
@@ -8792,7 +8785,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B21" s="48"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8802,7 +8795,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B22" s="48"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8812,7 +8805,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>159</v>
       </c>
@@ -8824,7 +8817,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B24" s="22" t="s">
         <v>158</v>
       </c>
@@ -8836,7 +8829,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B25" s="186" t="s">
         <v>131</v>
       </c>
@@ -8848,7 +8841,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B26" s="187" t="s">
         <v>160</v>
       </c>
@@ -8860,7 +8853,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B27" s="187" t="s">
         <v>145</v>
       </c>
@@ -8872,7 +8865,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="19" customFormat="1" ht="60.4" customHeight="1">
       <c r="B28" s="185" t="s">
         <v>14</v>
       </c>
@@ -8904,7 +8897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="41" t="s">
         <v>17</v>
       </c>
@@ -8920,7 +8913,7 @@
       <c r="J29" s="174"/>
       <c r="K29" s="204"/>
     </row>
-    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B30" s="41" t="s">
         <v>25</v>
       </c>
@@ -8939,7 +8932,7 @@
       <c r="J30" s="174"/>
       <c r="K30" s="205"/>
     </row>
-    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B31" s="41" t="s">
         <v>26</v>
       </c>
@@ -8955,7 +8948,7 @@
       <c r="J31" s="174"/>
       <c r="K31" s="204"/>
     </row>
-    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="41" t="s">
         <v>27</v>
       </c>
@@ -8974,7 +8967,7 @@
       <c r="J32" s="174"/>
       <c r="K32" s="205"/>
     </row>
-    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B33" s="41" t="s">
         <v>28</v>
       </c>
@@ -8990,7 +8983,7 @@
       <c r="J33" s="174"/>
       <c r="K33" s="204"/>
     </row>
-    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B34" s="41" t="s">
         <v>29</v>
       </c>
@@ -9009,7 +9002,7 @@
       <c r="J34" s="174"/>
       <c r="K34" s="205"/>
     </row>
-    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
@@ -9025,7 +9018,7 @@
       <c r="J35" s="174"/>
       <c r="K35" s="204"/>
     </row>
-    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B36" s="41" t="s">
         <v>31</v>
       </c>
@@ -9044,7 +9037,7 @@
       <c r="J36" s="174"/>
       <c r="K36" s="205"/>
     </row>
-    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
@@ -9060,7 +9053,7 @@
       <c r="J37" s="174"/>
       <c r="K37" s="204"/>
     </row>
-    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B38" s="41" t="s">
         <v>33</v>
       </c>
@@ -9079,7 +9072,7 @@
       <c r="J38" s="174"/>
       <c r="K38" s="205"/>
     </row>
-    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -9089,7 +9082,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -9099,7 +9092,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -9109,7 +9102,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" s="19" customFormat="1">
       <c r="B42" s="188"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -9123,7 +9116,7 @@
         <v>資料日期：2011年2月22日</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" s="19" customFormat="1" ht="10.15" customHeight="1">
       <c r="B43" s="188"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -9134,7 +9127,7 @@
       <c r="I43" s="8"/>
       <c r="K43" s="173"/>
     </row>
-    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9144,7 +9137,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B45" s="129" t="s">
         <v>172</v>
       </c>
@@ -9153,7 +9146,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1">
       <c r="B46" s="18" t="s">
         <v>14</v>
       </c>
@@ -9186,7 +9179,7 @@
       </c>
       <c r="L46" s="26"/>
     </row>
-    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
@@ -9203,7 +9196,7 @@
       <c r="K47" s="204"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B48" s="41" t="s">
         <v>35</v>
       </c>
@@ -9223,7 +9216,7 @@
       <c r="K48" s="205"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
@@ -9240,7 +9233,7 @@
       <c r="K49" s="204"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B50" s="41" t="s">
         <v>37</v>
       </c>
@@ -9260,7 +9253,7 @@
       <c r="K50" s="205"/>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B51" s="41" t="s">
         <v>38</v>
       </c>
@@ -9277,7 +9270,7 @@
       <c r="K51" s="204"/>
       <c r="L51" s="27"/>
     </row>
-    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B52" s="41" t="s">
         <v>39</v>
       </c>
@@ -9297,7 +9290,7 @@
       <c r="K52" s="205"/>
       <c r="L52" s="27"/>
     </row>
-    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B53" s="41" t="s">
         <v>40</v>
       </c>
@@ -9314,7 +9307,7 @@
       <c r="K53" s="204"/>
       <c r="L53" s="27"/>
     </row>
-    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B54" s="41" t="s">
         <v>41</v>
       </c>
@@ -9334,7 +9327,7 @@
       <c r="K54" s="205"/>
       <c r="L54" s="27"/>
     </row>
-    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B55" s="41" t="s">
         <v>42</v>
       </c>
@@ -9351,7 +9344,7 @@
       <c r="K55" s="204"/>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B56" s="41" t="s">
         <v>43</v>
       </c>
@@ -9371,7 +9364,7 @@
       <c r="K56" s="205"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
@@ -9384,7 +9377,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B58" s="30"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -9397,7 +9390,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B59" s="30"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -9410,7 +9403,7 @@
       <c r="K59" s="27"/>
       <c r="L59" s="27"/>
     </row>
-    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B60" s="129" t="s">
         <v>168</v>
       </c>
@@ -9425,7 +9418,7 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" s="28" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="B61" s="172" t="s">
         <v>132</v>
       </c>
@@ -9458,7 +9451,7 @@
       </c>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B62" s="41" t="s">
         <v>17</v>
       </c>
@@ -9475,7 +9468,7 @@
       <c r="K62" s="204"/>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B63" s="41" t="s">
         <v>25</v>
       </c>
@@ -9495,7 +9488,7 @@
       <c r="K63" s="205"/>
       <c r="L63" s="27"/>
     </row>
-    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B64" s="41" t="s">
         <v>26</v>
       </c>
@@ -9512,7 +9505,7 @@
       <c r="K64" s="204"/>
       <c r="L64" s="27"/>
     </row>
-    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B65" s="41" t="s">
         <v>27</v>
       </c>
@@ -9532,7 +9525,7 @@
       <c r="K65" s="205"/>
       <c r="L65" s="27"/>
     </row>
-    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B66" s="41" t="s">
         <v>28</v>
       </c>
@@ -9549,7 +9542,7 @@
       <c r="K66" s="204"/>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B67" s="41" t="s">
         <v>29</v>
       </c>
@@ -9569,7 +9562,7 @@
       <c r="K67" s="205"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B68" s="41" t="s">
         <v>30</v>
       </c>
@@ -9586,7 +9579,7 @@
       <c r="K68" s="204"/>
       <c r="L68" s="27"/>
     </row>
-    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B69" s="41" t="s">
         <v>31</v>
       </c>
@@ -9606,7 +9599,7 @@
       <c r="K69" s="205"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B70" s="41" t="s">
         <v>32</v>
       </c>
@@ -9623,7 +9616,7 @@
       <c r="K70" s="204"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B71" s="41" t="s">
         <v>33</v>
       </c>
@@ -9643,7 +9636,7 @@
       <c r="K71" s="205"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
@@ -9656,7 +9649,7 @@
       <c r="K72" s="27"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B73" s="30"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
@@ -9669,7 +9662,7 @@
       <c r="K73" s="27"/>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
@@ -9682,7 +9675,7 @@
       <c r="K74" s="27"/>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B75" s="30"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
@@ -9695,7 +9688,7 @@
       <c r="K75" s="27"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" hidden="1" customHeight="1">
       <c r="B76" s="30"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
@@ -9708,7 +9701,7 @@
       <c r="K76" s="27"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B77" s="187" t="s">
         <v>161</v>
       </c>
@@ -9723,7 +9716,7 @@
       <c r="K77" s="27"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B78" s="187" t="s">
         <v>148</v>
       </c>
@@ -9735,7 +9728,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" s="19" customFormat="1" ht="62.65" customHeight="1">
       <c r="B79" s="185" t="s">
         <v>14</v>
       </c>
@@ -9767,7 +9760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B80" s="41" t="s">
         <v>17</v>
       </c>
@@ -9783,7 +9776,7 @@
       <c r="J80" s="174"/>
       <c r="K80" s="204"/>
     </row>
-    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B81" s="41" t="s">
         <v>25</v>
       </c>
@@ -9802,7 +9795,7 @@
       <c r="J81" s="174"/>
       <c r="K81" s="205"/>
     </row>
-    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B82" s="41" t="s">
         <v>26</v>
       </c>
@@ -9818,7 +9811,7 @@
       <c r="J82" s="174"/>
       <c r="K82" s="204"/>
     </row>
-    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B83" s="41" t="s">
         <v>27</v>
       </c>
@@ -9837,7 +9830,7 @@
       <c r="J83" s="174"/>
       <c r="K83" s="205"/>
     </row>
-    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B84" s="41" t="s">
         <v>28</v>
       </c>
@@ -9853,7 +9846,7 @@
       <c r="J84" s="174"/>
       <c r="K84" s="204"/>
     </row>
-    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B85" s="41" t="s">
         <v>29</v>
       </c>
@@ -9872,7 +9865,7 @@
       <c r="J85" s="174"/>
       <c r="K85" s="205"/>
     </row>
-    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B86" s="41" t="s">
         <v>30</v>
       </c>
@@ -9888,7 +9881,7 @@
       <c r="J86" s="174"/>
       <c r="K86" s="204"/>
     </row>
-    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B87" s="41" t="s">
         <v>31</v>
       </c>
@@ -9907,7 +9900,7 @@
       <c r="J87" s="174"/>
       <c r="K87" s="205"/>
     </row>
-    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B88" s="41" t="s">
         <v>32</v>
       </c>
@@ -9923,7 +9916,7 @@
       <c r="J88" s="174"/>
       <c r="K88" s="204"/>
     </row>
-    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B89" s="41" t="s">
         <v>33</v>
       </c>
@@ -9942,7 +9935,7 @@
       <c r="J89" s="174"/>
       <c r="K89" s="205"/>
     </row>
-    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B90" s="30"/>
       <c r="C90" s="31"/>
       <c r="D90" s="32"/>
@@ -9955,7 +9948,7 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B91" s="188"/>
       <c r="C91" s="31"/>
       <c r="D91" s="32"/>
@@ -9971,7 +9964,7 @@
       </c>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B92" s="188"/>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
@@ -9984,20 +9977,20 @@
       <c r="K92" s="27"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12" s="28" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B93" s="30"/>
       <c r="C93" s="31"/>
       <c r="D93" s="32"/>
       <c r="E93" s="23"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="218"/>
-      <c r="H93" s="219"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="221"/>
       <c r="I93" s="29"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B94" s="129" t="s">
         <v>147</v>
       </c>
@@ -10006,7 +9999,7 @@
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
     </row>
-    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" s="16" customFormat="1" ht="72.75" customHeight="1">
       <c r="B95" s="185" t="s">
         <v>14</v>
       </c>
@@ -10039,7 +10032,7 @@
       </c>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B96" s="41" t="s">
         <v>17</v>
       </c>
@@ -10056,7 +10049,7 @@
       <c r="K96" s="204"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B97" s="41" t="s">
         <v>25</v>
       </c>
@@ -10076,7 +10069,7 @@
       <c r="K97" s="205"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B98" s="41" t="s">
         <v>26</v>
       </c>
@@ -10093,7 +10086,7 @@
       <c r="K98" s="204"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B99" s="41" t="s">
         <v>27</v>
       </c>
@@ -10113,7 +10106,7 @@
       <c r="K99" s="205"/>
       <c r="L99" s="27"/>
     </row>
-    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B100" s="41" t="s">
         <v>28</v>
       </c>
@@ -10130,7 +10123,7 @@
       <c r="K100" s="204"/>
       <c r="L100" s="27"/>
     </row>
-    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B101" s="41" t="s">
         <v>29</v>
       </c>
@@ -10150,7 +10143,7 @@
       <c r="K101" s="205"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B102" s="41" t="s">
         <v>30</v>
       </c>
@@ -10167,7 +10160,7 @@
       <c r="K102" s="204"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B103" s="41" t="s">
         <v>31</v>
       </c>
@@ -10187,7 +10180,7 @@
       <c r="K103" s="205"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B104" s="41" t="s">
         <v>32</v>
       </c>
@@ -10204,7 +10197,7 @@
       <c r="K104" s="204"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B105" s="41" t="s">
         <v>33</v>
       </c>
@@ -10224,7 +10217,7 @@
       <c r="K105" s="205"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="32"/>
@@ -10237,7 +10230,7 @@
       <c r="K106" s="27"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B107" s="129" t="s">
         <v>168</v>
       </c>
@@ -10252,7 +10245,7 @@
       <c r="K107" s="27"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" s="179" customFormat="1" ht="65.099999999999994" customHeight="1">
       <c r="B108" s="172" t="s">
         <v>132</v>
       </c>
@@ -10285,7 +10278,7 @@
       </c>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B109" s="41" t="s">
         <v>17</v>
       </c>
@@ -10302,7 +10295,7 @@
       <c r="K109" s="204"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B110" s="41" t="s">
         <v>25</v>
       </c>
@@ -10322,7 +10315,7 @@
       <c r="K110" s="205"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B111" s="41" t="s">
         <v>26</v>
       </c>
@@ -10339,7 +10332,7 @@
       <c r="K111" s="204"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B112" s="41" t="s">
         <v>27</v>
       </c>
@@ -10359,7 +10352,7 @@
       <c r="K112" s="205"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B113" s="41" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10369,7 @@
       <c r="K113" s="204"/>
       <c r="L113" s="27"/>
     </row>
-    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B114" s="41" t="s">
         <v>29</v>
       </c>
@@ -10396,7 +10389,7 @@
       <c r="K114" s="205"/>
       <c r="L114" s="27"/>
     </row>
-    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B115" s="41" t="s">
         <v>30</v>
       </c>
@@ -10413,7 +10406,7 @@
       <c r="K115" s="204"/>
       <c r="L115" s="27"/>
     </row>
-    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B116" s="41" t="s">
         <v>31</v>
       </c>
@@ -10433,7 +10426,7 @@
       <c r="K116" s="205"/>
       <c r="L116" s="27"/>
     </row>
-    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B117" s="41" t="s">
         <v>32</v>
       </c>
@@ -10450,7 +10443,7 @@
       <c r="K117" s="204"/>
       <c r="L117" s="27"/>
     </row>
-    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="179" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B118" s="41" t="s">
         <v>33</v>
       </c>
@@ -10470,7 +10463,7 @@
       <c r="K118" s="205"/>
       <c r="L118" s="27"/>
     </row>
-    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="30"/>
       <c r="C119" s="23"/>
@@ -10479,7 +10472,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="35"/>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A120" s="36" t="s">
         <v>16</v>
       </c>
@@ -10494,7 +10487,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="39"/>
     </row>
-    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A121" s="34" t="s">
         <v>8</v>
       </c>
@@ -10509,21 +10502,21 @@
       <c r="H121" s="38"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="40.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="220" t="s">
+    <row r="122" spans="1:12" ht="40.35" customHeight="1">
+      <c r="B122" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="C122" s="220"/>
-      <c r="D122" s="220"/>
-      <c r="E122" s="220"/>
-      <c r="F122" s="220"/>
-      <c r="G122" s="220"/>
-      <c r="H122" s="220"/>
-      <c r="I122" s="220"/>
-      <c r="J122" s="220"/>
-      <c r="K122" s="220"/>
-    </row>
-    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+      <c r="C122" s="222"/>
+      <c r="D122" s="222"/>
+      <c r="E122" s="222"/>
+      <c r="F122" s="222"/>
+      <c r="G122" s="222"/>
+      <c r="H122" s="222"/>
+      <c r="I122" s="222"/>
+      <c r="J122" s="222"/>
+      <c r="K122" s="222"/>
+    </row>
+    <row r="123" spans="1:12" s="69" customFormat="1" ht="20.25">
       <c r="A123" s="62"/>
       <c r="B123" s="131" t="s">
         <v>44</v>
@@ -10534,56 +10527,56 @@
       <c r="F123" s="115"/>
       <c r="H123" s="112"/>
     </row>
-    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" s="69" customFormat="1" ht="20.25">
       <c r="A124" s="62">
         <v>2</v>
       </c>
-      <c r="B124" s="213" t="s">
+      <c r="B124" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="C124" s="213"/>
-      <c r="D124" s="213"/>
-      <c r="E124" s="213"/>
-      <c r="F124" s="213"/>
-      <c r="G124" s="213"/>
-      <c r="H124" s="213"/>
-      <c r="I124" s="213"/>
-      <c r="J124" s="213"/>
-      <c r="K124" s="213"/>
-    </row>
-    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+      <c r="C124" s="223"/>
+      <c r="D124" s="223"/>
+      <c r="E124" s="223"/>
+      <c r="F124" s="223"/>
+      <c r="G124" s="223"/>
+      <c r="H124" s="223"/>
+      <c r="I124" s="223"/>
+      <c r="J124" s="223"/>
+      <c r="K124" s="223"/>
+    </row>
+    <row r="125" spans="1:12" s="69" customFormat="1" ht="20.25">
       <c r="A125" s="62"/>
-      <c r="B125" s="214" t="s">
+      <c r="B125" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="214"/>
-      <c r="D125" s="214"/>
-      <c r="E125" s="214"/>
-      <c r="F125" s="214"/>
-      <c r="G125" s="214"/>
-      <c r="H125" s="214"/>
-      <c r="I125" s="214"/>
-      <c r="J125" s="214"/>
-      <c r="K125" s="214"/>
-    </row>
-    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+      <c r="C125" s="224"/>
+      <c r="D125" s="224"/>
+      <c r="E125" s="224"/>
+      <c r="F125" s="224"/>
+      <c r="G125" s="224"/>
+      <c r="H125" s="224"/>
+      <c r="I125" s="224"/>
+      <c r="J125" s="224"/>
+      <c r="K125" s="224"/>
+    </row>
+    <row r="126" spans="1:12" s="69" customFormat="1" ht="20.25">
       <c r="A126" s="62">
         <v>2</v>
       </c>
-      <c r="B126" s="213" t="s">
+      <c r="B126" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="213"/>
-      <c r="D126" s="213"/>
-      <c r="E126" s="213"/>
-      <c r="F126" s="213"/>
-      <c r="G126" s="213"/>
-      <c r="H126" s="213"/>
-      <c r="I126" s="213"/>
-      <c r="J126" s="213"/>
-      <c r="K126" s="213"/>
-    </row>
-    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="223"/>
+      <c r="D126" s="223"/>
+      <c r="E126" s="223"/>
+      <c r="F126" s="223"/>
+      <c r="G126" s="223"/>
+      <c r="H126" s="223"/>
+      <c r="I126" s="223"/>
+      <c r="J126" s="223"/>
+      <c r="K126" s="223"/>
+    </row>
+    <row r="127" spans="1:12" ht="19.899999999999999" customHeight="1">
       <c r="A127" s="34" t="s">
         <v>8</v>
       </c>
@@ -10598,24 +10591,24 @@
       <c r="H127" s="38"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" s="69" customFormat="1" ht="20.25">
       <c r="A128" s="62">
         <v>3</v>
       </c>
-      <c r="B128" s="213" t="s">
+      <c r="B128" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="C128" s="213"/>
-      <c r="D128" s="213"/>
-      <c r="E128" s="213"/>
-      <c r="F128" s="213"/>
-      <c r="G128" s="213"/>
-      <c r="H128" s="213"/>
-      <c r="I128" s="213"/>
-      <c r="J128" s="213"/>
-      <c r="K128" s="213"/>
-    </row>
-    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="223"/>
+      <c r="D128" s="223"/>
+      <c r="E128" s="223"/>
+      <c r="F128" s="223"/>
+      <c r="G128" s="223"/>
+      <c r="H128" s="223"/>
+      <c r="I128" s="223"/>
+      <c r="J128" s="223"/>
+      <c r="K128" s="223"/>
+    </row>
+    <row r="129" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A129" s="34" t="s">
         <v>8</v>
       </c>
@@ -10630,24 +10623,24 @@
       <c r="H129" s="38"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" s="69" customFormat="1" ht="20.25">
       <c r="A130" s="62">
         <v>3</v>
       </c>
-      <c r="B130" s="213" t="s">
+      <c r="B130" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="213"/>
-      <c r="D130" s="213"/>
-      <c r="E130" s="213"/>
-      <c r="F130" s="213"/>
-      <c r="G130" s="213"/>
-      <c r="H130" s="213"/>
-      <c r="I130" s="213"/>
-      <c r="J130" s="213"/>
-      <c r="K130" s="213"/>
-    </row>
-    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C130" s="223"/>
+      <c r="D130" s="223"/>
+      <c r="E130" s="223"/>
+      <c r="F130" s="223"/>
+      <c r="G130" s="223"/>
+      <c r="H130" s="223"/>
+      <c r="I130" s="223"/>
+      <c r="J130" s="223"/>
+      <c r="K130" s="223"/>
+    </row>
+    <row r="132" spans="1:11" s="69" customFormat="1" ht="33.200000000000003" customHeight="1">
       <c r="A132" s="62"/>
       <c r="B132" s="4" t="s">
         <v>10</v>
@@ -10662,33 +10655,21 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:11" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:11" ht="41.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:11" ht="26.25" customHeight="1"/>
+    <row r="134" spans="1:11" ht="26.25" customHeight="1"/>
+    <row r="135" spans="1:11" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B124:K124"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B128:K128"/>
+    <mergeCell ref="B130:K130"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B122:K122"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
@@ -10697,16 +10678,28 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B124:K124"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B128:K128"/>
-    <mergeCell ref="B130:K130"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B9">
@@ -10804,62 +10797,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="133" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="133" customWidth="1"/>
-    <col min="6" max="17" width="10.21875" style="133" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" style="133" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="133" customWidth="1"/>
-    <col min="21" max="23" width="10.44140625" style="150" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="150" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="133" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="133" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="133" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="133" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="133" customWidth="1"/>
+    <col min="18" max="19" width="11.875" style="133" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="133" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="150" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="150" customWidth="1"/>
     <col min="25" max="27" width="11" style="159" customWidth="1"/>
-    <col min="28" max="31" width="11.109375" style="150" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="158" customWidth="1"/>
-    <col min="34" max="34" width="11.109375" style="158" customWidth="1"/>
-    <col min="35" max="37" width="11.109375" style="146" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="133"/>
+    <col min="28" max="31" width="11.125" style="150" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="158" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="158" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="146" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1">
       <c r="A1" s="152"/>
       <c r="B1" s="152"/>
-      <c r="U1" s="224" t="s">
+      <c r="U1" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224" t="s">
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
-      <c r="AH1" s="224"/>
-      <c r="AI1" s="224"/>
-      <c r="AJ1" s="224"/>
-      <c r="AK1" s="224"/>
-    </row>
-    <row r="2" spans="1:37" ht="73.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="225"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="225"/>
+      <c r="AI1" s="225"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+    </row>
+    <row r="2" spans="1:37" ht="78">
       <c r="A2" s="162" t="s">
         <v>104</v>
       </c>
@@ -10972,7 +10965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="18" customHeight="1">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
       <c r="C3" s="138"/>
@@ -11011,7 +11004,7 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
       <c r="C4" s="138"/>
@@ -11050,7 +11043,7 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="18" customHeight="1">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
       <c r="C5" s="138"/>
@@ -11089,7 +11082,7 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="18" customHeight="1">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
       <c r="C6" s="138"/>
@@ -11128,7 +11121,7 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="18" customHeight="1">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="138"/>
@@ -11167,7 +11160,7 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="18" customHeight="1">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="138"/>
@@ -11206,7 +11199,7 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="18" customHeight="1">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
       <c r="C9" s="138"/>
@@ -11245,7 +11238,7 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="18" customHeight="1">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
       <c r="C10" s="138"/>
@@ -11284,7 +11277,7 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="18" customHeight="1">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
       <c r="C11" s="138"/>
@@ -11323,7 +11316,7 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="18" customHeight="1">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
       <c r="C12" s="138"/>
@@ -11362,7 +11355,7 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="18" customHeight="1">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
       <c r="C13" s="138"/>
@@ -11401,7 +11394,7 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="18" customHeight="1">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
       <c r="C14" s="138"/>
@@ -11440,7 +11433,7 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="18" customHeight="1">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
       <c r="C15" s="138"/>
@@ -11479,7 +11472,7 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="18" customHeight="1">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
       <c r="C16" s="138"/>
@@ -11518,7 +11511,7 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="18" customHeight="1">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
       <c r="C17" s="138"/>
@@ -11557,7 +11550,7 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="18" customHeight="1">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
       <c r="C18" s="138"/>
@@ -11596,7 +11589,7 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="18" customHeight="1">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
       <c r="C19" s="138"/>
@@ -11635,7 +11628,7 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="18" customHeight="1">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
       <c r="C20" s="138"/>
@@ -11674,7 +11667,7 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="18" customHeight="1">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
       <c r="C21" s="138"/>
@@ -11713,7 +11706,7 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="18" customHeight="1">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="138"/>
@@ -11752,7 +11745,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="18" customHeight="1">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -11791,7 +11784,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="18" customHeight="1">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -11830,7 +11823,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="18" customHeight="1">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -11869,7 +11862,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="18" customHeight="1">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -11908,7 +11901,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="18" customHeight="1">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -11947,7 +11940,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="18" customHeight="1">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -11986,7 +11979,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="18" customHeight="1">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -12025,7 +12018,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="18" customHeight="1">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -12064,10 +12057,10 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="16.899999999999999" customHeight="1">
       <c r="B33" s="164"/>
     </row>
-    <row r="34" spans="2:21" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="19.7" customHeight="1">
       <c r="U34" s="163" t="s">
         <v>106</v>
       </c>
@@ -12079,7 +12072,7 @@
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;F&amp;A</oddFooter>
   </headerFooter>
@@ -12090,27 +12083,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C3" sqref="C3:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="133" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="133" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" style="133" customWidth="1"/>
-    <col min="16" max="17" width="10.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="133" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="133" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="133" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="133" customWidth="1"/>
+    <col min="16" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="133" customWidth="1"/>
     <col min="21" max="21" width="11" style="155" customWidth="1"/>
     <col min="22" max="24" width="11" customWidth="1"/>
     <col min="25" max="27" width="11" style="160" customWidth="1"/>
@@ -12120,31 +12113,31 @@
     <col min="35" max="37" width="11" style="147" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="133" customFormat="1" ht="41.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="133" customFormat="1" ht="42" customHeight="1">
       <c r="B1" s="152"/>
-      <c r="U1" s="225" t="s">
+      <c r="U1" s="226" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="226" t="s">
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="227" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="227"/>
-      <c r="AH1" s="227"/>
-      <c r="AI1" s="227"/>
-      <c r="AJ1" s="227"/>
-      <c r="AK1" s="228"/>
-    </row>
-    <row r="2" spans="1:37" s="133" customFormat="1" ht="73.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="228"/>
+      <c r="AK1" s="229"/>
+    </row>
+    <row r="2" spans="1:37" s="133" customFormat="1" ht="78">
       <c r="A2" s="162" t="s">
         <v>104</v>
       </c>
@@ -12257,10 +12250,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="134"/>
       <c r="B3" s="134"/>
-      <c r="C3" s="229"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="137"/>
       <c r="E3" s="137"/>
       <c r="F3" s="139"/>
@@ -12296,10 +12289,10 @@
       <c r="AJ3" s="145"/>
       <c r="AK3" s="145"/>
     </row>
-    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="134"/>
       <c r="B4" s="134"/>
-      <c r="C4" s="229"/>
+      <c r="C4" s="209"/>
       <c r="D4" s="137"/>
       <c r="E4" s="137"/>
       <c r="F4" s="139"/>
@@ -12335,10 +12328,10 @@
       <c r="AJ4" s="145"/>
       <c r="AK4" s="145"/>
     </row>
-    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="134"/>
       <c r="B5" s="134"/>
-      <c r="C5" s="229"/>
+      <c r="C5" s="209"/>
       <c r="D5" s="137"/>
       <c r="E5" s="137"/>
       <c r="F5" s="139"/>
@@ -12374,10 +12367,10 @@
       <c r="AJ5" s="145"/>
       <c r="AK5" s="145"/>
     </row>
-    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="134"/>
       <c r="B6" s="134"/>
-      <c r="C6" s="229"/>
+      <c r="C6" s="209"/>
       <c r="D6" s="137"/>
       <c r="E6" s="137"/>
       <c r="F6" s="139"/>
@@ -12413,10 +12406,10 @@
       <c r="AJ6" s="145"/>
       <c r="AK6" s="145"/>
     </row>
-    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
-      <c r="C7" s="229"/>
+      <c r="C7" s="209"/>
       <c r="D7" s="137"/>
       <c r="E7" s="137"/>
       <c r="F7" s="139"/>
@@ -12452,10 +12445,10 @@
       <c r="AJ7" s="145"/>
       <c r="AK7" s="145"/>
     </row>
-    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
-      <c r="C8" s="229"/>
+      <c r="C8" s="209"/>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
       <c r="F8" s="139"/>
@@ -12491,10 +12484,10 @@
       <c r="AJ8" s="145"/>
       <c r="AK8" s="145"/>
     </row>
-    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="134"/>
       <c r="B9" s="134"/>
-      <c r="C9" s="229"/>
+      <c r="C9" s="209"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137"/>
       <c r="F9" s="139"/>
@@ -12530,10 +12523,10 @@
       <c r="AJ9" s="145"/>
       <c r="AK9" s="145"/>
     </row>
-    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="134"/>
       <c r="B10" s="134"/>
-      <c r="C10" s="229"/>
+      <c r="C10" s="209"/>
       <c r="D10" s="137"/>
       <c r="E10" s="137"/>
       <c r="F10" s="139"/>
@@ -12569,10 +12562,10 @@
       <c r="AJ10" s="145"/>
       <c r="AK10" s="145"/>
     </row>
-    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="134"/>
       <c r="B11" s="134"/>
-      <c r="C11" s="229"/>
+      <c r="C11" s="209"/>
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
       <c r="F11" s="139"/>
@@ -12608,10 +12601,10 @@
       <c r="AJ11" s="145"/>
       <c r="AK11" s="145"/>
     </row>
-    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="134"/>
       <c r="B12" s="134"/>
-      <c r="C12" s="229"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
       <c r="F12" s="139"/>
@@ -12647,10 +12640,10 @@
       <c r="AJ12" s="145"/>
       <c r="AK12" s="145"/>
     </row>
-    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="134"/>
       <c r="B13" s="134"/>
-      <c r="C13" s="229"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
       <c r="F13" s="139"/>
@@ -12686,10 +12679,10 @@
       <c r="AJ13" s="145"/>
       <c r="AK13" s="145"/>
     </row>
-    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
-      <c r="C14" s="229"/>
+      <c r="C14" s="209"/>
       <c r="D14" s="137"/>
       <c r="E14" s="137"/>
       <c r="F14" s="139"/>
@@ -12725,10 +12718,10 @@
       <c r="AJ14" s="145"/>
       <c r="AK14" s="145"/>
     </row>
-    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
-      <c r="C15" s="229"/>
+      <c r="C15" s="209"/>
       <c r="D15" s="137"/>
       <c r="E15" s="137"/>
       <c r="F15" s="139"/>
@@ -12764,10 +12757,10 @@
       <c r="AJ15" s="145"/>
       <c r="AK15" s="145"/>
     </row>
-    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
-      <c r="C16" s="229"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="137"/>
       <c r="E16" s="137"/>
       <c r="F16" s="139"/>
@@ -12803,10 +12796,10 @@
       <c r="AJ16" s="145"/>
       <c r="AK16" s="145"/>
     </row>
-    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="134"/>
       <c r="B17" s="134"/>
-      <c r="C17" s="229"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="137"/>
       <c r="E17" s="137"/>
       <c r="F17" s="139"/>
@@ -12842,10 +12835,10 @@
       <c r="AJ17" s="145"/>
       <c r="AK17" s="145"/>
     </row>
-    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
-      <c r="C18" s="229"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="137"/>
       <c r="E18" s="137"/>
       <c r="F18" s="139"/>
@@ -12881,10 +12874,10 @@
       <c r="AJ18" s="145"/>
       <c r="AK18" s="145"/>
     </row>
-    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="134"/>
       <c r="B19" s="134"/>
-      <c r="C19" s="229"/>
+      <c r="C19" s="209"/>
       <c r="D19" s="137"/>
       <c r="E19" s="137"/>
       <c r="F19" s="139"/>
@@ -12920,10 +12913,10 @@
       <c r="AJ19" s="145"/>
       <c r="AK19" s="145"/>
     </row>
-    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
-      <c r="C20" s="229"/>
+      <c r="C20" s="209"/>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
       <c r="F20" s="139"/>
@@ -12959,10 +12952,10 @@
       <c r="AJ20" s="145"/>
       <c r="AK20" s="145"/>
     </row>
-    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="134"/>
       <c r="B21" s="134"/>
-      <c r="C21" s="229"/>
+      <c r="C21" s="209"/>
       <c r="D21" s="137"/>
       <c r="E21" s="137"/>
       <c r="F21" s="139"/>
@@ -12998,10 +12991,10 @@
       <c r="AJ21" s="145"/>
       <c r="AK21" s="145"/>
     </row>
-    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
-      <c r="C22" s="229"/>
+      <c r="C22" s="209"/>
       <c r="D22" s="137"/>
       <c r="E22" s="137"/>
       <c r="F22" s="139"/>
@@ -13037,7 +13030,7 @@
       <c r="AJ22" s="145"/>
       <c r="AK22" s="145"/>
     </row>
-    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="138"/>
@@ -13076,7 +13069,7 @@
       <c r="AJ23" s="145"/>
       <c r="AK23" s="145"/>
     </row>
-    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="138"/>
@@ -13115,7 +13108,7 @@
       <c r="AJ24" s="145"/>
       <c r="AK24" s="145"/>
     </row>
-    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="134"/>
       <c r="B25" s="134"/>
       <c r="C25" s="138"/>
@@ -13154,7 +13147,7 @@
       <c r="AJ25" s="145"/>
       <c r="AK25" s="145"/>
     </row>
-    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="138"/>
@@ -13193,7 +13186,7 @@
       <c r="AJ26" s="145"/>
       <c r="AK26" s="145"/>
     </row>
-    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="138"/>
@@ -13232,7 +13225,7 @@
       <c r="AJ27" s="145"/>
       <c r="AK27" s="145"/>
     </row>
-    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="138"/>
@@ -13271,7 +13264,7 @@
       <c r="AJ28" s="145"/>
       <c r="AK28" s="145"/>
     </row>
-    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="138"/>
@@ -13310,7 +13303,7 @@
       <c r="AJ29" s="145"/>
       <c r="AK29" s="145"/>
     </row>
-    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="133" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="134"/>
       <c r="B30" s="134"/>
       <c r="C30" s="138"/>
@@ -13349,10 +13342,10 @@
       <c r="AJ30" s="145"/>
       <c r="AK30" s="145"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="19.5">
       <c r="A33" s="163"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="19.5">
       <c r="U34" s="163" t="s">
         <v>106</v>
       </c>
